--- a/data/trans_orig/IMC_R2-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IMC_R2-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{046D8C13-FF99-4CA2-BA8E-323455C8534C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AC71DD3B-05FF-4FE6-82AA-712586DB094C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{728754B6-3621-4383-8528-EAF3BA3973AC}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{A9F9EB7F-B42E-4A66-B77E-8A4973A40DFD}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="439">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="425">
   <si>
     <t>Población con sobrepeso u obesidad en 2007 (Tasa respuesta: 98,86%)</t>
   </si>
@@ -77,28 +77,28 @@
     <t>65,13%</t>
   </si>
   <si>
-    <t>54,98%</t>
-  </si>
-  <si>
-    <t>73,25%</t>
+    <t>55,55%</t>
+  </si>
+  <si>
+    <t>74,03%</t>
   </si>
   <si>
     <t>54,74%</t>
   </si>
   <si>
-    <t>46,29%</t>
-  </si>
-  <si>
-    <t>64,51%</t>
+    <t>46,34%</t>
+  </si>
+  <si>
+    <t>63,43%</t>
   </si>
   <si>
     <t>59,97%</t>
   </si>
   <si>
-    <t>53,44%</t>
-  </si>
-  <si>
-    <t>65,98%</t>
+    <t>53,36%</t>
+  </si>
+  <si>
+    <t>66,05%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,28 +107,28 @@
     <t>34,87%</t>
   </si>
   <si>
-    <t>26,75%</t>
-  </si>
-  <si>
-    <t>45,02%</t>
+    <t>25,97%</t>
+  </si>
+  <si>
+    <t>44,45%</t>
   </si>
   <si>
     <t>45,26%</t>
   </si>
   <si>
-    <t>35,49%</t>
-  </si>
-  <si>
-    <t>53,71%</t>
+    <t>36,57%</t>
+  </si>
+  <si>
+    <t>53,66%</t>
   </si>
   <si>
     <t>40,03%</t>
   </si>
   <si>
-    <t>34,02%</t>
-  </si>
-  <si>
-    <t>46,56%</t>
+    <t>33,95%</t>
+  </si>
+  <si>
+    <t>46,64%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,55 +140,55 @@
     <t>62,77%</t>
   </si>
   <si>
-    <t>58,66%</t>
-  </si>
-  <si>
-    <t>66,58%</t>
+    <t>58,65%</t>
+  </si>
+  <si>
+    <t>66,66%</t>
   </si>
   <si>
     <t>51,78%</t>
   </si>
   <si>
-    <t>47,82%</t>
-  </si>
-  <si>
-    <t>56,08%</t>
+    <t>48,05%</t>
+  </si>
+  <si>
+    <t>55,98%</t>
   </si>
   <si>
     <t>57,32%</t>
   </si>
   <si>
-    <t>54,55%</t>
-  </si>
-  <si>
-    <t>60,24%</t>
+    <t>54,65%</t>
+  </si>
+  <si>
+    <t>60,26%</t>
   </si>
   <si>
     <t>37,23%</t>
   </si>
   <si>
-    <t>33,42%</t>
-  </si>
-  <si>
-    <t>41,34%</t>
+    <t>33,34%</t>
+  </si>
+  <si>
+    <t>41,35%</t>
   </si>
   <si>
     <t>48,22%</t>
   </si>
   <si>
-    <t>43,92%</t>
-  </si>
-  <si>
-    <t>52,18%</t>
+    <t>44,02%</t>
+  </si>
+  <si>
+    <t>51,95%</t>
   </si>
   <si>
     <t>42,68%</t>
   </si>
   <si>
-    <t>39,76%</t>
-  </si>
-  <si>
-    <t>45,45%</t>
+    <t>39,74%</t>
+  </si>
+  <si>
+    <t>45,35%</t>
   </si>
   <si>
     <t>10/50</t>
@@ -197,1165 +197,1123 @@
     <t>62,13%</t>
   </si>
   <si>
-    <t>58,93%</t>
+    <t>58,91%</t>
+  </si>
+  <si>
+    <t>65,33%</t>
+  </si>
+  <si>
+    <t>49,62%</t>
+  </si>
+  <si>
+    <t>46,25%</t>
+  </si>
+  <si>
+    <t>53,02%</t>
+  </si>
+  <si>
+    <t>55,87%</t>
+  </si>
+  <si>
+    <t>53,58%</t>
+  </si>
+  <si>
+    <t>58,06%</t>
+  </si>
+  <si>
+    <t>37,87%</t>
+  </si>
+  <si>
+    <t>34,67%</t>
+  </si>
+  <si>
+    <t>41,09%</t>
+  </si>
+  <si>
+    <t>50,38%</t>
+  </si>
+  <si>
+    <t>46,98%</t>
+  </si>
+  <si>
+    <t>53,75%</t>
+  </si>
+  <si>
+    <t>44,13%</t>
+  </si>
+  <si>
+    <t>41,94%</t>
+  </si>
+  <si>
+    <t>46,42%</t>
+  </si>
+  <si>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>55,99%</t>
+  </si>
+  <si>
+    <t>52,22%</t>
+  </si>
+  <si>
+    <t>59,54%</t>
+  </si>
+  <si>
+    <t>45,9%</t>
+  </si>
+  <si>
+    <t>42,19%</t>
+  </si>
+  <si>
+    <t>49,59%</t>
+  </si>
+  <si>
+    <t>50,92%</t>
+  </si>
+  <si>
+    <t>48,26%</t>
+  </si>
+  <si>
+    <t>53,55%</t>
+  </si>
+  <si>
+    <t>44,01%</t>
+  </si>
+  <si>
+    <t>40,46%</t>
+  </si>
+  <si>
+    <t>47,78%</t>
+  </si>
+  <si>
+    <t>54,1%</t>
+  </si>
+  <si>
+    <t>50,41%</t>
+  </si>
+  <si>
+    <t>57,81%</t>
+  </si>
+  <si>
+    <t>49,08%</t>
+  </si>
+  <si>
+    <t>46,45%</t>
+  </si>
+  <si>
+    <t>51,74%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>56,01%</t>
+  </si>
+  <si>
+    <t>52,64%</t>
+  </si>
+  <si>
+    <t>59,01%</t>
+  </si>
+  <si>
+    <t>42,61%</t>
+  </si>
+  <si>
+    <t>39,54%</t>
+  </si>
+  <si>
+    <t>45,82%</t>
+  </si>
+  <si>
+    <t>48,99%</t>
+  </si>
+  <si>
+    <t>46,87%</t>
+  </si>
+  <si>
+    <t>51,18%</t>
+  </si>
+  <si>
+    <t>43,99%</t>
+  </si>
+  <si>
+    <t>40,99%</t>
+  </si>
+  <si>
+    <t>47,36%</t>
+  </si>
+  <si>
+    <t>57,39%</t>
+  </si>
+  <si>
+    <t>54,18%</t>
+  </si>
+  <si>
+    <t>60,46%</t>
+  </si>
+  <si>
+    <t>51,01%</t>
+  </si>
+  <si>
+    <t>48,82%</t>
+  </si>
+  <si>
+    <t>53,13%</t>
+  </si>
+  <si>
+    <t>59,32%</t>
+  </si>
+  <si>
+    <t>57,65%</t>
+  </si>
+  <si>
+    <t>61,12%</t>
+  </si>
+  <si>
+    <t>47,26%</t>
+  </si>
+  <si>
+    <t>45,57%</t>
+  </si>
+  <si>
+    <t>48,91%</t>
+  </si>
+  <si>
+    <t>53,21%</t>
+  </si>
+  <si>
+    <t>52,04%</t>
+  </si>
+  <si>
+    <t>54,51%</t>
+  </si>
+  <si>
+    <t>40,68%</t>
+  </si>
+  <si>
+    <t>38,88%</t>
+  </si>
+  <si>
+    <t>42,35%</t>
+  </si>
+  <si>
+    <t>52,74%</t>
+  </si>
+  <si>
+    <t>51,09%</t>
+  </si>
+  <si>
+    <t>54,43%</t>
+  </si>
+  <si>
+    <t>46,79%</t>
+  </si>
+  <si>
+    <t>45,49%</t>
+  </si>
+  <si>
+    <t>47,96%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con sobrepeso u obesidad en 2012 (Tasa respuesta: 96,9%)</t>
+  </si>
+  <si>
+    <t>64,9%</t>
+  </si>
+  <si>
+    <t>54,91%</t>
+  </si>
+  <si>
+    <t>73,42%</t>
+  </si>
+  <si>
+    <t>53,63%</t>
+  </si>
+  <si>
+    <t>42,8%</t>
+  </si>
+  <si>
+    <t>63,23%</t>
+  </si>
+  <si>
+    <t>59,51%</t>
+  </si>
+  <si>
+    <t>52,56%</t>
+  </si>
+  <si>
+    <t>66,03%</t>
+  </si>
+  <si>
+    <t>35,1%</t>
+  </si>
+  <si>
+    <t>26,58%</t>
+  </si>
+  <si>
+    <t>45,09%</t>
+  </si>
+  <si>
+    <t>46,37%</t>
+  </si>
+  <si>
+    <t>36,77%</t>
+  </si>
+  <si>
+    <t>57,2%</t>
+  </si>
+  <si>
+    <t>40,49%</t>
+  </si>
+  <si>
+    <t>33,97%</t>
+  </si>
+  <si>
+    <t>47,44%</t>
+  </si>
+  <si>
+    <t>71,74%</t>
+  </si>
+  <si>
+    <t>67,98%</t>
+  </si>
+  <si>
+    <t>75,54%</t>
+  </si>
+  <si>
+    <t>54,89%</t>
+  </si>
+  <si>
+    <t>50,44%</t>
+  </si>
+  <si>
+    <t>59,07%</t>
+  </si>
+  <si>
+    <t>63,48%</t>
+  </si>
+  <si>
+    <t>66,38%</t>
+  </si>
+  <si>
+    <t>28,26%</t>
+  </si>
+  <si>
+    <t>24,46%</t>
+  </si>
+  <si>
+    <t>32,02%</t>
+  </si>
+  <si>
+    <t>45,11%</t>
+  </si>
+  <si>
+    <t>40,93%</t>
+  </si>
+  <si>
+    <t>49,56%</t>
+  </si>
+  <si>
+    <t>36,52%</t>
+  </si>
+  <si>
+    <t>33,62%</t>
+  </si>
+  <si>
+    <t>66,07%</t>
+  </si>
+  <si>
+    <t>62,52%</t>
+  </si>
+  <si>
+    <t>69,06%</t>
+  </si>
+  <si>
+    <t>55,73%</t>
+  </si>
+  <si>
+    <t>59,39%</t>
+  </si>
+  <si>
+    <t>60,9%</t>
+  </si>
+  <si>
+    <t>58,81%</t>
+  </si>
+  <si>
+    <t>63,34%</t>
+  </si>
+  <si>
+    <t>33,93%</t>
+  </si>
+  <si>
+    <t>30,94%</t>
+  </si>
+  <si>
+    <t>37,48%</t>
+  </si>
+  <si>
+    <t>44,27%</t>
+  </si>
+  <si>
+    <t>40,61%</t>
+  </si>
+  <si>
+    <t>39,1%</t>
+  </si>
+  <si>
+    <t>36,66%</t>
+  </si>
+  <si>
+    <t>41,19%</t>
+  </si>
+  <si>
+    <t>59,83%</t>
+  </si>
+  <si>
+    <t>63,47%</t>
+  </si>
+  <si>
+    <t>56,7%</t>
+  </si>
+  <si>
+    <t>52,84%</t>
+  </si>
+  <si>
+    <t>60,38%</t>
+  </si>
+  <si>
+    <t>58,26%</t>
+  </si>
+  <si>
+    <t>55,33%</t>
+  </si>
+  <si>
+    <t>60,95%</t>
+  </si>
+  <si>
+    <t>40,17%</t>
+  </si>
+  <si>
+    <t>36,53%</t>
+  </si>
+  <si>
+    <t>43,3%</t>
+  </si>
+  <si>
+    <t>39,62%</t>
+  </si>
+  <si>
+    <t>47,16%</t>
+  </si>
+  <si>
+    <t>41,74%</t>
+  </si>
+  <si>
+    <t>39,05%</t>
+  </si>
+  <si>
+    <t>44,67%</t>
+  </si>
+  <si>
+    <t>65,24%</t>
+  </si>
+  <si>
+    <t>61,82%</t>
+  </si>
+  <si>
+    <t>68,53%</t>
+  </si>
+  <si>
+    <t>50,97%</t>
+  </si>
+  <si>
+    <t>47,81%</t>
+  </si>
+  <si>
+    <t>54,58%</t>
+  </si>
+  <si>
+    <t>57,83%</t>
+  </si>
+  <si>
+    <t>55,61%</t>
+  </si>
+  <si>
+    <t>59,94%</t>
+  </si>
+  <si>
+    <t>34,76%</t>
+  </si>
+  <si>
+    <t>31,47%</t>
+  </si>
+  <si>
+    <t>38,18%</t>
+  </si>
+  <si>
+    <t>49,03%</t>
+  </si>
+  <si>
+    <t>45,42%</t>
+  </si>
+  <si>
+    <t>52,19%</t>
+  </si>
+  <si>
+    <t>42,17%</t>
+  </si>
+  <si>
+    <t>40,06%</t>
+  </si>
+  <si>
+    <t>44,39%</t>
+  </si>
+  <si>
+    <t>65,4%</t>
+  </si>
+  <si>
+    <t>63,58%</t>
+  </si>
+  <si>
+    <t>67,09%</t>
+  </si>
+  <si>
+    <t>54,33%</t>
+  </si>
+  <si>
+    <t>56,21%</t>
+  </si>
+  <si>
+    <t>59,82%</t>
+  </si>
+  <si>
+    <t>58,69%</t>
+  </si>
+  <si>
+    <t>61,13%</t>
+  </si>
+  <si>
+    <t>34,6%</t>
+  </si>
+  <si>
+    <t>32,91%</t>
+  </si>
+  <si>
+    <t>36,42%</t>
+  </si>
+  <si>
+    <t>45,67%</t>
+  </si>
+  <si>
+    <t>43,79%</t>
+  </si>
+  <si>
+    <t>40,18%</t>
+  </si>
+  <si>
+    <t>38,87%</t>
+  </si>
+  <si>
+    <t>41,31%</t>
+  </si>
+  <si>
+    <t>Población con sobrepeso u obesidad en 2015 (Tasa respuesta: 95,54%)</t>
+  </si>
+  <si>
+    <t>56,69%</t>
+  </si>
+  <si>
+    <t>47,66%</t>
+  </si>
+  <si>
+    <t>65,61%</t>
+  </si>
+  <si>
+    <t>59,81%</t>
+  </si>
+  <si>
+    <t>49,73%</t>
+  </si>
+  <si>
+    <t>68,9%</t>
+  </si>
+  <si>
+    <t>58,18%</t>
+  </si>
+  <si>
+    <t>64,85%</t>
+  </si>
+  <si>
+    <t>43,31%</t>
+  </si>
+  <si>
+    <t>34,39%</t>
+  </si>
+  <si>
+    <t>52,34%</t>
+  </si>
+  <si>
+    <t>40,19%</t>
+  </si>
+  <si>
+    <t>31,1%</t>
+  </si>
+  <si>
+    <t>50,27%</t>
+  </si>
+  <si>
+    <t>41,82%</t>
+  </si>
+  <si>
+    <t>35,15%</t>
+  </si>
+  <si>
+    <t>66,62%</t>
+  </si>
+  <si>
+    <t>62,31%</t>
+  </si>
+  <si>
+    <t>70,65%</t>
+  </si>
+  <si>
+    <t>53,29%</t>
+  </si>
+  <si>
+    <t>48,77%</t>
+  </si>
+  <si>
+    <t>57,88%</t>
+  </si>
+  <si>
+    <t>60,04%</t>
+  </si>
+  <si>
+    <t>56,79%</t>
+  </si>
+  <si>
+    <t>62,9%</t>
+  </si>
+  <si>
+    <t>33,38%</t>
+  </si>
+  <si>
+    <t>29,35%</t>
+  </si>
+  <si>
+    <t>37,69%</t>
+  </si>
+  <si>
+    <t>46,71%</t>
+  </si>
+  <si>
+    <t>42,12%</t>
+  </si>
+  <si>
+    <t>51,23%</t>
+  </si>
+  <si>
+    <t>39,96%</t>
+  </si>
+  <si>
+    <t>37,1%</t>
+  </si>
+  <si>
+    <t>43,21%</t>
+  </si>
+  <si>
+    <t>59,73%</t>
+  </si>
+  <si>
+    <t>56,52%</t>
+  </si>
+  <si>
+    <t>62,92%</t>
+  </si>
+  <si>
+    <t>55,74%</t>
+  </si>
+  <si>
+    <t>52,08%</t>
+  </si>
+  <si>
+    <t>58,61%</t>
+  </si>
+  <si>
+    <t>57,73%</t>
+  </si>
+  <si>
+    <t>55,5%</t>
+  </si>
+  <si>
+    <t>40,27%</t>
+  </si>
+  <si>
+    <t>37,08%</t>
+  </si>
+  <si>
+    <t>43,48%</t>
+  </si>
+  <si>
+    <t>44,26%</t>
+  </si>
+  <si>
+    <t>41,39%</t>
+  </si>
+  <si>
+    <t>47,92%</t>
+  </si>
+  <si>
+    <t>42,27%</t>
+  </si>
+  <si>
+    <t>44,5%</t>
+  </si>
+  <si>
+    <t>55,58%</t>
+  </si>
+  <si>
+    <t>62,99%</t>
+  </si>
+  <si>
+    <t>47,41%</t>
+  </si>
+  <si>
+    <t>43,29%</t>
+  </si>
+  <si>
+    <t>50,71%</t>
+  </si>
+  <si>
+    <t>50,9%</t>
+  </si>
+  <si>
+    <t>55,95%</t>
+  </si>
+  <si>
+    <t>37,01%</t>
+  </si>
+  <si>
+    <t>44,42%</t>
+  </si>
+  <si>
+    <t>52,59%</t>
+  </si>
+  <si>
+    <t>49,29%</t>
+  </si>
+  <si>
+    <t>56,71%</t>
+  </si>
+  <si>
+    <t>44,05%</t>
+  </si>
+  <si>
+    <t>49,1%</t>
+  </si>
+  <si>
+    <t>60,0%</t>
+  </si>
+  <si>
+    <t>56,86%</t>
+  </si>
+  <si>
+    <t>63,18%</t>
+  </si>
+  <si>
+    <t>51,15%</t>
+  </si>
+  <si>
+    <t>47,53%</t>
+  </si>
+  <si>
+    <t>54,56%</t>
+  </si>
+  <si>
+    <t>55,39%</t>
+  </si>
+  <si>
+    <t>53,0%</t>
+  </si>
+  <si>
+    <t>57,68%</t>
+  </si>
+  <si>
+    <t>40,0%</t>
+  </si>
+  <si>
+    <t>36,82%</t>
+  </si>
+  <si>
+    <t>43,14%</t>
+  </si>
+  <si>
+    <t>48,85%</t>
+  </si>
+  <si>
+    <t>45,44%</t>
+  </si>
+  <si>
+    <t>52,47%</t>
+  </si>
+  <si>
+    <t>44,61%</t>
+  </si>
+  <si>
+    <t>42,32%</t>
+  </si>
+  <si>
+    <t>47,0%</t>
+  </si>
+  <si>
+    <t>60,71%</t>
+  </si>
+  <si>
+    <t>58,98%</t>
+  </si>
+  <si>
+    <t>62,43%</t>
+  </si>
+  <si>
+    <t>52,28%</t>
+  </si>
+  <si>
+    <t>50,49%</t>
+  </si>
+  <si>
+    <t>54,04%</t>
+  </si>
+  <si>
+    <t>56,45%</t>
+  </si>
+  <si>
+    <t>55,06%</t>
+  </si>
+  <si>
+    <t>57,56%</t>
+  </si>
+  <si>
+    <t>39,29%</t>
+  </si>
+  <si>
+    <t>37,57%</t>
+  </si>
+  <si>
+    <t>41,02%</t>
+  </si>
+  <si>
+    <t>47,72%</t>
+  </si>
+  <si>
+    <t>45,96%</t>
+  </si>
+  <si>
+    <t>49,51%</t>
+  </si>
+  <si>
+    <t>43,55%</t>
+  </si>
+  <si>
+    <t>42,44%</t>
+  </si>
+  <si>
+    <t>44,94%</t>
+  </si>
+  <si>
+    <t>Población con sobrepeso u obesidad en 2023 (Tasa respuesta: 96,36%)</t>
+  </si>
+  <si>
+    <t>61,69%</t>
+  </si>
+  <si>
+    <t>50,84%</t>
+  </si>
+  <si>
+    <t>71,76%</t>
+  </si>
+  <si>
+    <t>59,06%</t>
+  </si>
+  <si>
+    <t>51,14%</t>
+  </si>
+  <si>
+    <t>60,22%</t>
+  </si>
+  <si>
+    <t>53,52%</t>
+  </si>
+  <si>
+    <t>65,93%</t>
+  </si>
+  <si>
+    <t>38,31%</t>
+  </si>
+  <si>
+    <t>28,24%</t>
+  </si>
+  <si>
+    <t>49,16%</t>
+  </si>
+  <si>
+    <t>40,94%</t>
+  </si>
+  <si>
+    <t>48,86%</t>
+  </si>
+  <si>
+    <t>39,78%</t>
+  </si>
+  <si>
+    <t>34,07%</t>
+  </si>
+  <si>
+    <t>46,48%</t>
+  </si>
+  <si>
+    <t>69,78%</t>
+  </si>
+  <si>
+    <t>65,28%</t>
+  </si>
+  <si>
+    <t>55,46%</t>
+  </si>
+  <si>
+    <t>52,12%</t>
+  </si>
+  <si>
+    <t>59,2%</t>
+  </si>
+  <si>
+    <t>62,42%</t>
+  </si>
+  <si>
+    <t>59,95%</t>
+  </si>
+  <si>
+    <t>30,22%</t>
+  </si>
+  <si>
+    <t>34,72%</t>
+  </si>
+  <si>
+    <t>44,54%</t>
+  </si>
+  <si>
+    <t>40,8%</t>
+  </si>
+  <si>
+    <t>47,88%</t>
+  </si>
+  <si>
+    <t>37,58%</t>
+  </si>
+  <si>
+    <t>40,05%</t>
+  </si>
+  <si>
+    <t>60,73%</t>
+  </si>
+  <si>
+    <t>56,73%</t>
+  </si>
+  <si>
+    <t>67,54%</t>
+  </si>
+  <si>
+    <t>50,87%</t>
+  </si>
+  <si>
+    <t>47,77%</t>
+  </si>
+  <si>
+    <t>53,7%</t>
+  </si>
+  <si>
+    <t>55,8%</t>
+  </si>
+  <si>
+    <t>53,32%</t>
+  </si>
+  <si>
+    <t>39,27%</t>
+  </si>
+  <si>
+    <t>32,46%</t>
+  </si>
+  <si>
+    <t>43,27%</t>
+  </si>
+  <si>
+    <t>49,13%</t>
+  </si>
+  <si>
+    <t>46,3%</t>
+  </si>
+  <si>
+    <t>52,23%</t>
+  </si>
+  <si>
+    <t>44,2%</t>
+  </si>
+  <si>
+    <t>46,68%</t>
+  </si>
+  <si>
+    <t>62,71%</t>
+  </si>
+  <si>
+    <t>66,68%</t>
+  </si>
+  <si>
+    <t>55,81%</t>
+  </si>
+  <si>
+    <t>47,91%</t>
+  </si>
+  <si>
+    <t>71,03%</t>
+  </si>
+  <si>
+    <t>58,99%</t>
+  </si>
+  <si>
+    <t>54,84%</t>
+  </si>
+  <si>
+    <t>68,1%</t>
+  </si>
+  <si>
+    <t>37,29%</t>
+  </si>
+  <si>
+    <t>33,32%</t>
+  </si>
+  <si>
+    <t>44,19%</t>
+  </si>
+  <si>
+    <t>28,97%</t>
+  </si>
+  <si>
+    <t>52,09%</t>
+  </si>
+  <si>
+    <t>41,01%</t>
+  </si>
+  <si>
+    <t>31,9%</t>
+  </si>
+  <si>
+    <t>45,16%</t>
+  </si>
+  <si>
+    <t>62,12%</t>
+  </si>
+  <si>
+    <t>58,56%</t>
+  </si>
+  <si>
+    <t>65,71%</t>
+  </si>
+  <si>
+    <t>50,83%</t>
+  </si>
+  <si>
+    <t>47,83%</t>
+  </si>
+  <si>
+    <t>54,17%</t>
+  </si>
+  <si>
+    <t>56,02%</t>
+  </si>
+  <si>
+    <t>53,49%</t>
+  </si>
+  <si>
+    <t>58,38%</t>
+  </si>
+  <si>
+    <t>37,88%</t>
+  </si>
+  <si>
+    <t>34,29%</t>
+  </si>
+  <si>
+    <t>41,44%</t>
+  </si>
+  <si>
+    <t>49,17%</t>
+  </si>
+  <si>
+    <t>45,83%</t>
+  </si>
+  <si>
+    <t>52,17%</t>
+  </si>
+  <si>
+    <t>43,98%</t>
+  </si>
+  <si>
+    <t>41,62%</t>
+  </si>
+  <si>
+    <t>46,51%</t>
+  </si>
+  <si>
+    <t>63,05%</t>
   </si>
   <si>
     <t>65,53%</t>
   </si>
   <si>
-    <t>49,62%</t>
-  </si>
-  <si>
-    <t>46,3%</t>
-  </si>
-  <si>
-    <t>52,71%</t>
-  </si>
-  <si>
-    <t>55,87%</t>
-  </si>
-  <si>
-    <t>53,23%</t>
-  </si>
-  <si>
-    <t>58,13%</t>
-  </si>
-  <si>
-    <t>37,87%</t>
+    <t>52,98%</t>
+  </si>
+  <si>
+    <t>51,02%</t>
+  </si>
+  <si>
+    <t>58,31%</t>
+  </si>
+  <si>
+    <t>57,77%</t>
+  </si>
+  <si>
+    <t>56,24%</t>
+  </si>
+  <si>
+    <t>60,36%</t>
+  </si>
+  <si>
+    <t>36,95%</t>
   </si>
   <si>
     <t>34,47%</t>
   </si>
   <si>
-    <t>41,07%</t>
-  </si>
-  <si>
-    <t>50,38%</t>
-  </si>
-  <si>
-    <t>47,29%</t>
-  </si>
-  <si>
-    <t>53,7%</t>
-  </si>
-  <si>
-    <t>44,13%</t>
-  </si>
-  <si>
-    <t>41,87%</t>
-  </si>
-  <si>
-    <t>46,77%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>55,99%</t>
-  </si>
-  <si>
-    <t>51,76%</t>
-  </si>
-  <si>
-    <t>59,96%</t>
-  </si>
-  <si>
-    <t>45,9%</t>
-  </si>
-  <si>
-    <t>42,47%</t>
-  </si>
-  <si>
-    <t>49,79%</t>
-  </si>
-  <si>
-    <t>50,92%</t>
-  </si>
-  <si>
-    <t>47,98%</t>
-  </si>
-  <si>
-    <t>53,48%</t>
-  </si>
-  <si>
-    <t>44,01%</t>
-  </si>
-  <si>
-    <t>40,04%</t>
-  </si>
-  <si>
-    <t>48,24%</t>
-  </si>
-  <si>
-    <t>54,1%</t>
-  </si>
-  <si>
-    <t>50,21%</t>
-  </si>
-  <si>
-    <t>57,53%</t>
-  </si>
-  <si>
-    <t>49,08%</t>
-  </si>
-  <si>
-    <t>46,52%</t>
-  </si>
-  <si>
-    <t>52,02%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>56,01%</t>
-  </si>
-  <si>
-    <t>52,56%</t>
-  </si>
-  <si>
-    <t>59,14%</t>
-  </si>
-  <si>
-    <t>42,61%</t>
-  </si>
-  <si>
-    <t>39,35%</t>
-  </si>
-  <si>
-    <t>45,58%</t>
-  </si>
-  <si>
-    <t>48,99%</t>
-  </si>
-  <si>
-    <t>46,72%</t>
-  </si>
-  <si>
-    <t>51,26%</t>
-  </si>
-  <si>
-    <t>43,99%</t>
-  </si>
-  <si>
-    <t>40,86%</t>
-  </si>
-  <si>
-    <t>47,44%</t>
-  </si>
-  <si>
-    <t>57,39%</t>
-  </si>
-  <si>
-    <t>54,42%</t>
-  </si>
-  <si>
-    <t>60,65%</t>
-  </si>
-  <si>
-    <t>51,01%</t>
-  </si>
-  <si>
-    <t>48,74%</t>
-  </si>
-  <si>
-    <t>53,28%</t>
-  </si>
-  <si>
-    <t>59,32%</t>
-  </si>
-  <si>
-    <t>57,64%</t>
-  </si>
-  <si>
-    <t>61,08%</t>
-  </si>
-  <si>
-    <t>47,26%</t>
-  </si>
-  <si>
-    <t>45,59%</t>
-  </si>
-  <si>
-    <t>48,95%</t>
-  </si>
-  <si>
-    <t>53,21%</t>
-  </si>
-  <si>
-    <t>52,04%</t>
-  </si>
-  <si>
-    <t>54,57%</t>
-  </si>
-  <si>
-    <t>40,68%</t>
-  </si>
-  <si>
-    <t>38,92%</t>
-  </si>
-  <si>
-    <t>42,36%</t>
-  </si>
-  <si>
-    <t>52,74%</t>
-  </si>
-  <si>
-    <t>51,05%</t>
-  </si>
-  <si>
-    <t>54,41%</t>
-  </si>
-  <si>
-    <t>46,79%</t>
-  </si>
-  <si>
-    <t>45,43%</t>
-  </si>
-  <si>
-    <t>47,96%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con sobrepeso u obesidad en 2012 (Tasa respuesta: 96,9%)</t>
-  </si>
-  <si>
-    <t>64,9%</t>
-  </si>
-  <si>
-    <t>55,72%</t>
-  </si>
-  <si>
-    <t>72,42%</t>
-  </si>
-  <si>
-    <t>53,63%</t>
-  </si>
-  <si>
-    <t>43,67%</t>
-  </si>
-  <si>
-    <t>65,11%</t>
-  </si>
-  <si>
-    <t>59,51%</t>
-  </si>
-  <si>
-    <t>52,42%</t>
-  </si>
-  <si>
-    <t>66,05%</t>
-  </si>
-  <si>
-    <t>35,1%</t>
-  </si>
-  <si>
-    <t>27,58%</t>
-  </si>
-  <si>
-    <t>44,28%</t>
-  </si>
-  <si>
-    <t>46,37%</t>
-  </si>
-  <si>
-    <t>34,89%</t>
-  </si>
-  <si>
-    <t>56,33%</t>
-  </si>
-  <si>
-    <t>40,49%</t>
-  </si>
-  <si>
-    <t>33,95%</t>
-  </si>
-  <si>
-    <t>47,58%</t>
-  </si>
-  <si>
-    <t>71,74%</t>
-  </si>
-  <si>
-    <t>67,75%</t>
-  </si>
-  <si>
-    <t>75,59%</t>
-  </si>
-  <si>
-    <t>54,89%</t>
-  </si>
-  <si>
-    <t>50,58%</t>
-  </si>
-  <si>
-    <t>59,17%</t>
-  </si>
-  <si>
-    <t>63,48%</t>
-  </si>
-  <si>
-    <t>60,5%</t>
-  </si>
-  <si>
-    <t>66,42%</t>
-  </si>
-  <si>
-    <t>28,26%</t>
-  </si>
-  <si>
-    <t>24,41%</t>
-  </si>
-  <si>
-    <t>32,25%</t>
-  </si>
-  <si>
-    <t>45,11%</t>
-  </si>
-  <si>
-    <t>40,83%</t>
-  </si>
-  <si>
-    <t>49,42%</t>
-  </si>
-  <si>
-    <t>36,52%</t>
-  </si>
-  <si>
-    <t>33,58%</t>
-  </si>
-  <si>
-    <t>39,5%</t>
-  </si>
-  <si>
-    <t>66,07%</t>
-  </si>
-  <si>
-    <t>62,96%</t>
-  </si>
-  <si>
-    <t>69,14%</t>
-  </si>
-  <si>
-    <t>55,73%</t>
-  </si>
-  <si>
-    <t>52,48%</t>
-  </si>
-  <si>
-    <t>59,09%</t>
-  </si>
-  <si>
-    <t>60,9%</t>
-  </si>
-  <si>
-    <t>58,67%</t>
-  </si>
-  <si>
-    <t>63,39%</t>
-  </si>
-  <si>
-    <t>33,93%</t>
-  </si>
-  <si>
-    <t>30,86%</t>
-  </si>
-  <si>
-    <t>37,04%</t>
-  </si>
-  <si>
-    <t>44,27%</t>
-  </si>
-  <si>
-    <t>40,91%</t>
-  </si>
-  <si>
-    <t>47,52%</t>
-  </si>
-  <si>
-    <t>39,1%</t>
-  </si>
-  <si>
-    <t>36,61%</t>
-  </si>
-  <si>
-    <t>41,33%</t>
-  </si>
-  <si>
-    <t>59,83%</t>
-  </si>
-  <si>
-    <t>55,8%</t>
-  </si>
-  <si>
-    <t>63,57%</t>
-  </si>
-  <si>
-    <t>56,7%</t>
-  </si>
-  <si>
-    <t>52,51%</t>
-  </si>
-  <si>
-    <t>60,29%</t>
-  </si>
-  <si>
-    <t>58,26%</t>
-  </si>
-  <si>
-    <t>55,57%</t>
-  </si>
-  <si>
-    <t>60,88%</t>
-  </si>
-  <si>
-    <t>40,17%</t>
-  </si>
-  <si>
-    <t>36,43%</t>
-  </si>
-  <si>
-    <t>44,2%</t>
-  </si>
-  <si>
-    <t>43,3%</t>
-  </si>
-  <si>
-    <t>39,71%</t>
-  </si>
-  <si>
-    <t>47,49%</t>
-  </si>
-  <si>
-    <t>41,74%</t>
-  </si>
-  <si>
-    <t>39,12%</t>
-  </si>
-  <si>
-    <t>44,43%</t>
-  </si>
-  <si>
-    <t>65,24%</t>
-  </si>
-  <si>
-    <t>62,1%</t>
-  </si>
-  <si>
-    <t>68,21%</t>
-  </si>
-  <si>
-    <t>50,97%</t>
-  </si>
-  <si>
-    <t>47,79%</t>
-  </si>
-  <si>
-    <t>54,05%</t>
-  </si>
-  <si>
-    <t>57,83%</t>
-  </si>
-  <si>
-    <t>55,51%</t>
-  </si>
-  <si>
-    <t>60,08%</t>
-  </si>
-  <si>
-    <t>34,76%</t>
-  </si>
-  <si>
-    <t>31,79%</t>
-  </si>
-  <si>
-    <t>37,9%</t>
-  </si>
-  <si>
-    <t>49,03%</t>
-  </si>
-  <si>
-    <t>45,95%</t>
-  </si>
-  <si>
-    <t>52,21%</t>
-  </si>
-  <si>
-    <t>42,17%</t>
-  </si>
-  <si>
-    <t>39,92%</t>
-  </si>
-  <si>
-    <t>44,49%</t>
-  </si>
-  <si>
-    <t>65,4%</t>
-  </si>
-  <si>
-    <t>63,75%</t>
-  </si>
-  <si>
-    <t>67,17%</t>
-  </si>
-  <si>
-    <t>54,33%</t>
-  </si>
-  <si>
-    <t>52,6%</t>
-  </si>
-  <si>
-    <t>56,17%</t>
-  </si>
-  <si>
-    <t>59,82%</t>
-  </si>
-  <si>
-    <t>58,52%</t>
-  </si>
-  <si>
-    <t>61,0%</t>
-  </si>
-  <si>
-    <t>34,6%</t>
-  </si>
-  <si>
-    <t>32,83%</t>
-  </si>
-  <si>
-    <t>36,25%</t>
-  </si>
-  <si>
-    <t>45,67%</t>
-  </si>
-  <si>
-    <t>43,83%</t>
-  </si>
-  <si>
-    <t>47,4%</t>
-  </si>
-  <si>
-    <t>40,18%</t>
-  </si>
-  <si>
-    <t>39,0%</t>
-  </si>
-  <si>
-    <t>41,48%</t>
-  </si>
-  <si>
-    <t>Población con sobrepeso u obesidad en 2015 (Tasa respuesta: 95,54%)</t>
-  </si>
-  <si>
-    <t>56,69%</t>
-  </si>
-  <si>
-    <t>46,85%</t>
-  </si>
-  <si>
-    <t>65,66%</t>
-  </si>
-  <si>
-    <t>59,81%</t>
-  </si>
-  <si>
-    <t>50,88%</t>
-  </si>
-  <si>
-    <t>68,7%</t>
-  </si>
-  <si>
-    <t>58,18%</t>
-  </si>
-  <si>
-    <t>51,9%</t>
-  </si>
-  <si>
-    <t>65,46%</t>
-  </si>
-  <si>
-    <t>43,31%</t>
-  </si>
-  <si>
-    <t>34,34%</t>
-  </si>
-  <si>
-    <t>53,15%</t>
-  </si>
-  <si>
-    <t>40,19%</t>
-  </si>
-  <si>
-    <t>31,3%</t>
-  </si>
-  <si>
-    <t>49,12%</t>
-  </si>
-  <si>
-    <t>41,82%</t>
-  </si>
-  <si>
-    <t>34,54%</t>
-  </si>
-  <si>
-    <t>48,1%</t>
-  </si>
-  <si>
-    <t>66,62%</t>
-  </si>
-  <si>
-    <t>62,45%</t>
-  </si>
-  <si>
-    <t>70,59%</t>
-  </si>
-  <si>
-    <t>53,29%</t>
-  </si>
-  <si>
-    <t>49,0%</t>
-  </si>
-  <si>
-    <t>58,09%</t>
-  </si>
-  <si>
-    <t>60,04%</t>
-  </si>
-  <si>
-    <t>57,14%</t>
-  </si>
-  <si>
-    <t>63,19%</t>
-  </si>
-  <si>
-    <t>33,38%</t>
-  </si>
-  <si>
-    <t>29,41%</t>
-  </si>
-  <si>
-    <t>37,55%</t>
-  </si>
-  <si>
-    <t>46,71%</t>
-  </si>
-  <si>
-    <t>41,91%</t>
-  </si>
-  <si>
-    <t>51,0%</t>
-  </si>
-  <si>
-    <t>39,96%</t>
-  </si>
-  <si>
-    <t>36,81%</t>
-  </si>
-  <si>
-    <t>42,86%</t>
-  </si>
-  <si>
-    <t>59,73%</t>
-  </si>
-  <si>
-    <t>56,64%</t>
-  </si>
-  <si>
-    <t>62,78%</t>
-  </si>
-  <si>
-    <t>55,74%</t>
-  </si>
-  <si>
-    <t>52,67%</t>
-  </si>
-  <si>
-    <t>58,74%</t>
-  </si>
-  <si>
-    <t>57,73%</t>
-  </si>
-  <si>
-    <t>55,44%</t>
-  </si>
-  <si>
-    <t>59,95%</t>
-  </si>
-  <si>
-    <t>40,27%</t>
-  </si>
-  <si>
-    <t>37,22%</t>
-  </si>
-  <si>
-    <t>43,36%</t>
-  </si>
-  <si>
-    <t>44,26%</t>
-  </si>
-  <si>
-    <t>41,26%</t>
-  </si>
-  <si>
-    <t>47,33%</t>
-  </si>
-  <si>
-    <t>42,27%</t>
-  </si>
-  <si>
-    <t>40,05%</t>
-  </si>
-  <si>
-    <t>44,56%</t>
-  </si>
-  <si>
-    <t>55,38%</t>
-  </si>
-  <si>
-    <t>63,04%</t>
-  </si>
-  <si>
-    <t>47,41%</t>
-  </si>
-  <si>
-    <t>43,63%</t>
-  </si>
-  <si>
-    <t>51,17%</t>
-  </si>
-  <si>
-    <t>53,36%</t>
-  </si>
-  <si>
-    <t>50,82%</t>
-  </si>
-  <si>
-    <t>36,96%</t>
-  </si>
-  <si>
-    <t>44,62%</t>
-  </si>
-  <si>
-    <t>52,59%</t>
-  </si>
-  <si>
-    <t>48,83%</t>
-  </si>
-  <si>
-    <t>56,37%</t>
-  </si>
-  <si>
-    <t>46,64%</t>
-  </si>
-  <si>
-    <t>49,18%</t>
-  </si>
-  <si>
-    <t>60,0%</t>
-  </si>
-  <si>
-    <t>56,85%</t>
-  </si>
-  <si>
-    <t>63,59%</t>
-  </si>
-  <si>
-    <t>51,15%</t>
-  </si>
-  <si>
-    <t>47,57%</t>
-  </si>
-  <si>
-    <t>54,0%</t>
-  </si>
-  <si>
-    <t>55,39%</t>
-  </si>
-  <si>
-    <t>53,3%</t>
-  </si>
-  <si>
-    <t>57,81%</t>
-  </si>
-  <si>
-    <t>40,0%</t>
-  </si>
-  <si>
-    <t>36,41%</t>
-  </si>
-  <si>
-    <t>43,15%</t>
-  </si>
-  <si>
-    <t>48,85%</t>
-  </si>
-  <si>
-    <t>46,0%</t>
-  </si>
-  <si>
-    <t>52,43%</t>
-  </si>
-  <si>
-    <t>44,61%</t>
-  </si>
-  <si>
-    <t>42,19%</t>
-  </si>
-  <si>
-    <t>46,7%</t>
-  </si>
-  <si>
-    <t>60,71%</t>
-  </si>
-  <si>
-    <t>58,94%</t>
-  </si>
-  <si>
-    <t>62,47%</t>
-  </si>
-  <si>
-    <t>52,28%</t>
-  </si>
-  <si>
-    <t>50,49%</t>
-  </si>
-  <si>
-    <t>53,87%</t>
-  </si>
-  <si>
-    <t>56,45%</t>
-  </si>
-  <si>
-    <t>55,19%</t>
-  </si>
-  <si>
-    <t>57,62%</t>
-  </si>
-  <si>
-    <t>39,29%</t>
-  </si>
-  <si>
-    <t>37,53%</t>
-  </si>
-  <si>
-    <t>41,06%</t>
-  </si>
-  <si>
-    <t>47,72%</t>
-  </si>
-  <si>
-    <t>46,13%</t>
-  </si>
-  <si>
-    <t>49,51%</t>
-  </si>
-  <si>
-    <t>43,55%</t>
-  </si>
-  <si>
-    <t>42,38%</t>
-  </si>
-  <si>
-    <t>44,81%</t>
-  </si>
-  <si>
-    <t>Población con sobrepeso u obesidad en 2023 (Tasa respuesta: 96,36%)</t>
-  </si>
-  <si>
-    <t>61,69%</t>
-  </si>
-  <si>
-    <t>50,41%</t>
-  </si>
-  <si>
-    <t>71,64%</t>
-  </si>
-  <si>
-    <t>59,06%</t>
-  </si>
-  <si>
-    <t>51,27%</t>
-  </si>
-  <si>
-    <t>66,13%</t>
-  </si>
-  <si>
-    <t>60,22%</t>
-  </si>
-  <si>
-    <t>66,51%</t>
-  </si>
-  <si>
-    <t>38,31%</t>
-  </si>
-  <si>
-    <t>28,36%</t>
-  </si>
-  <si>
-    <t>49,59%</t>
-  </si>
-  <si>
-    <t>40,94%</t>
-  </si>
-  <si>
-    <t>33,87%</t>
-  </si>
-  <si>
-    <t>48,73%</t>
-  </si>
-  <si>
-    <t>39,78%</t>
-  </si>
-  <si>
-    <t>33,49%</t>
-  </si>
-  <si>
-    <t>69,78%</t>
-  </si>
-  <si>
-    <t>65,36%</t>
-  </si>
-  <si>
-    <t>73,87%</t>
-  </si>
-  <si>
-    <t>55,46%</t>
-  </si>
-  <si>
-    <t>51,94%</t>
-  </si>
-  <si>
-    <t>62,42%</t>
-  </si>
-  <si>
-    <t>59,58%</t>
-  </si>
-  <si>
-    <t>65,2%</t>
-  </si>
-  <si>
-    <t>30,22%</t>
-  </si>
-  <si>
-    <t>26,13%</t>
-  </si>
-  <si>
-    <t>34,64%</t>
-  </si>
-  <si>
-    <t>44,54%</t>
-  </si>
-  <si>
-    <t>48,06%</t>
-  </si>
-  <si>
-    <t>37,58%</t>
-  </si>
-  <si>
-    <t>34,8%</t>
-  </si>
-  <si>
-    <t>40,42%</t>
-  </si>
-  <si>
-    <t>60,73%</t>
-  </si>
-  <si>
-    <t>56,43%</t>
-  </si>
-  <si>
-    <t>67,12%</t>
-  </si>
-  <si>
-    <t>50,87%</t>
-  </si>
-  <si>
-    <t>48,09%</t>
-  </si>
-  <si>
-    <t>53,66%</t>
-  </si>
-  <si>
-    <t>59,49%</t>
-  </si>
-  <si>
-    <t>39,27%</t>
-  </si>
-  <si>
-    <t>32,88%</t>
-  </si>
-  <si>
-    <t>43,57%</t>
-  </si>
-  <si>
-    <t>49,13%</t>
-  </si>
-  <si>
-    <t>46,34%</t>
-  </si>
-  <si>
-    <t>51,91%</t>
-  </si>
-  <si>
-    <t>40,51%</t>
-  </si>
-  <si>
-    <t>62,71%</t>
-  </si>
-  <si>
-    <t>58,84%</t>
-  </si>
-  <si>
-    <t>66,66%</t>
-  </si>
-  <si>
-    <t>55,81%</t>
-  </si>
-  <si>
-    <t>47,77%</t>
-  </si>
-  <si>
-    <t>71,42%</t>
-  </si>
-  <si>
-    <t>58,99%</t>
-  </si>
-  <si>
-    <t>54,82%</t>
-  </si>
-  <si>
-    <t>67,14%</t>
-  </si>
-  <si>
-    <t>37,29%</t>
-  </si>
-  <si>
-    <t>33,34%</t>
-  </si>
-  <si>
-    <t>41,16%</t>
-  </si>
-  <si>
-    <t>44,19%</t>
-  </si>
-  <si>
-    <t>28,58%</t>
-  </si>
-  <si>
-    <t>52,23%</t>
-  </si>
-  <si>
-    <t>41,01%</t>
-  </si>
-  <si>
-    <t>32,86%</t>
-  </si>
-  <si>
-    <t>45,18%</t>
-  </si>
-  <si>
-    <t>62,12%</t>
-  </si>
-  <si>
-    <t>58,45%</t>
-  </si>
-  <si>
-    <t>65,45%</t>
-  </si>
-  <si>
-    <t>50,83%</t>
-  </si>
-  <si>
-    <t>47,95%</t>
-  </si>
-  <si>
-    <t>53,98%</t>
-  </si>
-  <si>
-    <t>56,02%</t>
-  </si>
-  <si>
-    <t>53,89%</t>
-  </si>
-  <si>
-    <t>58,59%</t>
-  </si>
-  <si>
-    <t>37,88%</t>
-  </si>
-  <si>
-    <t>34,55%</t>
-  </si>
-  <si>
-    <t>41,55%</t>
-  </si>
-  <si>
-    <t>49,17%</t>
-  </si>
-  <si>
-    <t>46,02%</t>
-  </si>
-  <si>
-    <t>52,05%</t>
-  </si>
-  <si>
-    <t>43,98%</t>
-  </si>
-  <si>
-    <t>41,41%</t>
-  </si>
-  <si>
-    <t>46,11%</t>
-  </si>
-  <si>
-    <t>63,05%</t>
-  </si>
-  <si>
-    <t>61,01%</t>
-  </si>
-  <si>
-    <t>52,98%</t>
-  </si>
-  <si>
-    <t>50,9%</t>
-  </si>
-  <si>
-    <t>58,14%</t>
-  </si>
-  <si>
-    <t>57,77%</t>
-  </si>
-  <si>
-    <t>56,31%</t>
-  </si>
-  <si>
-    <t>60,1%</t>
-  </si>
-  <si>
-    <t>36,95%</t>
-  </si>
-  <si>
-    <t>38,99%</t>
-  </si>
-  <si>
     <t>47,02%</t>
   </si>
   <si>
-    <t>41,86%</t>
-  </si>
-  <si>
-    <t>49,1%</t>
+    <t>41,69%</t>
+  </si>
+  <si>
+    <t>48,98%</t>
   </si>
   <si>
     <t>42,23%</t>
   </si>
   <si>
-    <t>39,9%</t>
-  </si>
-  <si>
-    <t>43,69%</t>
+    <t>39,64%</t>
+  </si>
+  <si>
+    <t>43,76%</t>
   </si>
 </sst>
 </file>
@@ -1767,7 +1725,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB4CCA2D-D65F-47E6-9AF2-C81016FFD23E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA190CEA-2CEB-4222-959C-920DDAA29323}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2073,7 +2031,7 @@
         <v>653</v>
       </c>
       <c r="N7" s="7">
-        <v>654163</v>
+        <v>654162</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -2175,7 +2133,7 @@
         <v>1133</v>
       </c>
       <c r="N9" s="7">
-        <v>1141299</v>
+        <v>1141298</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -2693,7 +2651,7 @@
         <v>3444</v>
       </c>
       <c r="N19" s="7">
-        <v>3499588</v>
+        <v>3499587</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>113</v>
@@ -2795,7 +2753,7 @@
         <v>6437</v>
       </c>
       <c r="N21" s="7">
-        <v>6577058</v>
+        <v>6577057</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -2830,7 +2788,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44BBF260-FAC0-47AC-AFFC-3F4D3FFE88CF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D85A1908-B62E-4BFC-B5E7-0A139DED1802}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3142,10 +3100,10 @@
         <v>151</v>
       </c>
       <c r="P7" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3160,13 +3118,13 @@
         <v>163272</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>156</v>
       </c>
       <c r="H8" s="7">
         <v>235</v>
@@ -3175,13 +3133,13 @@
         <v>250778</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>159</v>
       </c>
       <c r="M8" s="7">
         <v>392</v>
@@ -3190,13 +3148,13 @@
         <v>414050</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="P8" s="7" t="s">
-        <v>161</v>
-      </c>
       <c r="Q8" s="7" t="s">
-        <v>162</v>
+        <v>93</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3264,13 +3222,13 @@
         <v>655266</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>165</v>
       </c>
       <c r="H10" s="7">
         <v>499</v>
@@ -3279,13 +3237,13 @@
         <v>551144</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>167</v>
+        <v>90</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="M10" s="7">
         <v>1102</v>
@@ -3294,13 +3252,13 @@
         <v>1206409</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3315,13 +3273,13 @@
         <v>336572</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="H11" s="7">
         <v>401</v>
@@ -3330,13 +3288,13 @@
         <v>437835</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>177</v>
+        <v>100</v>
       </c>
       <c r="M11" s="7">
         <v>712</v>
@@ -3345,13 +3303,13 @@
         <v>774407</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3419,13 +3377,13 @@
         <v>442673</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>182</v>
+        <v>37</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="H13" s="7">
         <v>386</v>
@@ -3434,13 +3392,13 @@
         <v>422747</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="M13" s="7">
         <v>785</v>
@@ -3449,13 +3407,13 @@
         <v>865420</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3470,13 +3428,13 @@
         <v>297271</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>192</v>
+        <v>45</v>
       </c>
       <c r="H14" s="7">
         <v>291</v>
@@ -3485,13 +3443,13 @@
         <v>322854</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="M14" s="7">
         <v>565</v>
@@ -3500,13 +3458,13 @@
         <v>620125</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3574,13 +3532,13 @@
         <v>609975</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="H16" s="7">
         <v>492</v>
@@ -3589,13 +3547,13 @@
         <v>515204</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="M16" s="7">
         <v>1073</v>
@@ -3604,13 +3562,13 @@
         <v>1125179</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3625,13 +3583,13 @@
         <v>324970</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="H17" s="7">
         <v>470</v>
@@ -3640,13 +3598,13 @@
         <v>495595</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="M17" s="7">
         <v>786</v>
@@ -3655,13 +3613,13 @@
         <v>820565</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3729,13 +3687,13 @@
         <v>2197624</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="H19" s="7">
         <v>1717</v>
@@ -3744,13 +3702,13 @@
         <v>1851209</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>221</v>
+        <v>119</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="M19" s="7">
         <v>3764</v>
@@ -3759,13 +3717,13 @@
         <v>4048833</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3780,13 +3738,13 @@
         <v>1162716</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="H20" s="7">
         <v>1439</v>
@@ -3795,13 +3753,13 @@
         <v>1556333</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>231</v>
+        <v>110</v>
       </c>
       <c r="M20" s="7">
         <v>2541</v>
@@ -3810,13 +3768,13 @@
         <v>2719049</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3893,7 +3851,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B57B82F-C928-4A2D-AFE0-6018C7537413}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3344CFAC-2E42-4023-804E-F356EB59F474}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3910,7 +3868,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4017,13 +3975,13 @@
         <v>64007</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="H4" s="7">
         <v>61</v>
@@ -4032,13 +3990,13 @@
         <v>61944</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="M4" s="7">
         <v>122</v>
@@ -4047,13 +4005,13 @@
         <v>125951</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>243</v>
+        <v>104</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>244</v>
+        <v>235</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4068,13 +4026,13 @@
         <v>48892</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="H5" s="7">
         <v>45</v>
@@ -4083,13 +4041,13 @@
         <v>41626</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="M5" s="7">
         <v>93</v>
@@ -4098,13 +4056,13 @@
         <v>90518</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>253</v>
+        <v>95</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4172,13 +4130,13 @@
         <v>350049</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="H7" s="7">
         <v>268</v>
@@ -4187,28 +4145,28 @@
         <v>272962</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="M7" s="7">
         <v>606</v>
       </c>
       <c r="N7" s="7">
-        <v>623011</v>
+        <v>623010</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4223,13 +4181,13 @@
         <v>175403</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
       <c r="H8" s="7">
         <v>240</v>
@@ -4238,13 +4196,13 @@
         <v>239292</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>266</v>
+        <v>256</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>267</v>
+        <v>257</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
       <c r="M8" s="7">
         <v>409</v>
@@ -4253,13 +4211,13 @@
         <v>414695</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>269</v>
+        <v>259</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4301,7 +4259,7 @@
         <v>1015</v>
       </c>
       <c r="N9" s="7">
-        <v>1037706</v>
+        <v>1037705</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -4327,13 +4285,13 @@
         <v>587910</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>273</v>
+        <v>263</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
       <c r="H10" s="7">
         <v>512</v>
@@ -4342,13 +4300,13 @@
         <v>554193</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>275</v>
+        <v>265</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>276</v>
+        <v>266</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>277</v>
+        <v>267</v>
       </c>
       <c r="M10" s="7">
         <v>1061</v>
@@ -4357,13 +4315,13 @@
         <v>1142104</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>280</v>
+        <v>231</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4378,13 +4336,13 @@
         <v>396343</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>281</v>
+        <v>270</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>282</v>
+        <v>271</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>283</v>
+        <v>272</v>
       </c>
       <c r="H11" s="7">
         <v>423</v>
@@ -4393,13 +4351,13 @@
         <v>440022</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>284</v>
+        <v>273</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
       <c r="M11" s="7">
         <v>790</v>
@@ -4408,13 +4366,13 @@
         <v>836364</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>288</v>
+        <v>239</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>289</v>
+        <v>277</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4485,10 +4443,10 @@
         <v>107</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>290</v>
+        <v>278</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>291</v>
+        <v>279</v>
       </c>
       <c r="H13" s="7">
         <v>326</v>
@@ -4497,13 +4455,13 @@
         <v>354356</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>293</v>
+        <v>281</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>294</v>
+        <v>282</v>
       </c>
       <c r="M13" s="7">
         <v>734</v>
@@ -4512,13 +4470,13 @@
         <v>796647</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>295</v>
+        <v>18</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>296</v>
+        <v>283</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>70</v>
+        <v>284</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4536,10 +4494,10 @@
         <v>116</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>297</v>
+        <v>285</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>298</v>
+        <v>286</v>
       </c>
       <c r="H14" s="7">
         <v>377</v>
@@ -4548,13 +4506,13 @@
         <v>393143</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>299</v>
+        <v>287</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>300</v>
+        <v>288</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>301</v>
+        <v>289</v>
       </c>
       <c r="M14" s="7">
         <v>651</v>
@@ -4563,13 +4521,13 @@
         <v>696407</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>302</v>
+        <v>29</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>79</v>
+        <v>290</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>303</v>
+        <v>291</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4637,13 +4595,13 @@
         <v>543471</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>304</v>
+        <v>292</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>305</v>
+        <v>293</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>306</v>
+        <v>294</v>
       </c>
       <c r="H16" s="7">
         <v>457</v>
@@ -4652,13 +4610,13 @@
         <v>503765</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>307</v>
+        <v>295</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>308</v>
+        <v>296</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>309</v>
+        <v>297</v>
       </c>
       <c r="M16" s="7">
         <v>998</v>
@@ -4667,13 +4625,13 @@
         <v>1047236</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>310</v>
+        <v>298</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>311</v>
+        <v>299</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>312</v>
+        <v>300</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4688,13 +4646,13 @@
         <v>362286</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>313</v>
+        <v>301</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>314</v>
+        <v>302</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>315</v>
+        <v>303</v>
       </c>
       <c r="H17" s="7">
         <v>451</v>
@@ -4703,13 +4661,13 @@
         <v>481026</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>316</v>
+        <v>304</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>317</v>
+        <v>305</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>318</v>
+        <v>306</v>
       </c>
       <c r="M17" s="7">
         <v>812</v>
@@ -4718,13 +4676,13 @@
         <v>843312</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>319</v>
+        <v>307</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>320</v>
+        <v>308</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>321</v>
+        <v>309</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4792,13 +4750,13 @@
         <v>1987728</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>322</v>
+        <v>310</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>323</v>
+        <v>311</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>324</v>
+        <v>312</v>
       </c>
       <c r="H19" s="7">
         <v>1624</v>
@@ -4807,13 +4765,13 @@
         <v>1747221</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>325</v>
+        <v>313</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>326</v>
+        <v>314</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>327</v>
+        <v>315</v>
       </c>
       <c r="M19" s="7">
         <v>3521</v>
@@ -4822,13 +4780,13 @@
         <v>3734948</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>328</v>
+        <v>316</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4843,13 +4801,13 @@
         <v>1286188</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>331</v>
+        <v>319</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>332</v>
+        <v>320</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>333</v>
+        <v>321</v>
       </c>
       <c r="H20" s="7">
         <v>1536</v>
@@ -4858,13 +4816,13 @@
         <v>1595107</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>334</v>
+        <v>322</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>335</v>
+        <v>323</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="M20" s="7">
         <v>2755</v>
@@ -4873,13 +4831,13 @@
         <v>2881296</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>337</v>
+        <v>325</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>338</v>
+        <v>326</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>339</v>
+        <v>327</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4956,7 +4914,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3018D16-343B-41C4-9334-6414EED61988}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A32407A0-3FAB-4DAA-8763-A91D0A88094E}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4973,7 +4931,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>340</v>
+        <v>328</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5080,13 +5038,13 @@
         <v>59243</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>341</v>
+        <v>329</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>342</v>
+        <v>330</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>343</v>
+        <v>331</v>
       </c>
       <c r="H4" s="7">
         <v>141</v>
@@ -5095,13 +5053,13 @@
         <v>71379</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>344</v>
+        <v>332</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>345</v>
+        <v>333</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>346</v>
+        <v>152</v>
       </c>
       <c r="M4" s="7">
         <v>215</v>
@@ -5110,13 +5068,13 @@
         <v>130622</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>347</v>
+        <v>334</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>309</v>
+        <v>335</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>348</v>
+        <v>336</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5131,13 +5089,13 @@
         <v>36791</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>349</v>
+        <v>337</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>350</v>
+        <v>338</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>351</v>
+        <v>339</v>
       </c>
       <c r="H5" s="7">
         <v>82</v>
@@ -5146,13 +5104,13 @@
         <v>49483</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>352</v>
+        <v>340</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>353</v>
+        <v>160</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>354</v>
+        <v>341</v>
       </c>
       <c r="M5" s="7">
         <v>119</v>
@@ -5161,13 +5119,13 @@
         <v>86274</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>355</v>
+        <v>342</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>356</v>
+        <v>343</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>317</v>
+        <v>344</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5235,13 +5193,13 @@
         <v>376790</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>357</v>
+        <v>345</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>358</v>
+        <v>346</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>359</v>
+        <v>13</v>
       </c>
       <c r="H7" s="7">
         <v>567</v>
@@ -5250,13 +5208,13 @@
         <v>316301</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>360</v>
+        <v>347</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>361</v>
+        <v>348</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>107</v>
+        <v>349</v>
       </c>
       <c r="M7" s="7">
         <v>995</v>
@@ -5265,13 +5223,13 @@
         <v>693091</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>362</v>
+        <v>350</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>363</v>
+        <v>351</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>364</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5286,13 +5244,13 @@
         <v>163172</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>365</v>
+        <v>352</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>366</v>
+        <v>22</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>367</v>
+        <v>353</v>
       </c>
       <c r="H8" s="7">
         <v>382</v>
@@ -5301,13 +5259,13 @@
         <v>254032</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>368</v>
+        <v>354</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>116</v>
+        <v>355</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>369</v>
+        <v>356</v>
       </c>
       <c r="M8" s="7">
         <v>551</v>
@@ -5316,13 +5274,13 @@
         <v>417204</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>370</v>
+        <v>357</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>371</v>
+        <v>21</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>372</v>
+        <v>358</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5390,13 +5348,13 @@
         <v>624052</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>373</v>
+        <v>359</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>374</v>
+        <v>360</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>375</v>
+        <v>361</v>
       </c>
       <c r="H10" s="7">
         <v>821</v>
@@ -5405,13 +5363,13 @@
         <v>522074</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>376</v>
+        <v>362</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>377</v>
+        <v>363</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>378</v>
+        <v>364</v>
       </c>
       <c r="M10" s="7">
         <v>1413</v>
@@ -5420,13 +5378,13 @@
         <v>1146126</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>182</v>
+        <v>365</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>257</v>
+        <v>366</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>379</v>
+        <v>262</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5441,13 +5399,13 @@
         <v>403453</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>380</v>
+        <v>367</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>381</v>
+        <v>368</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>382</v>
+        <v>369</v>
       </c>
       <c r="H11" s="7">
         <v>640</v>
@@ -5456,13 +5414,13 @@
         <v>504315</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>383</v>
+        <v>370</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>384</v>
+        <v>371</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>385</v>
+        <v>372</v>
       </c>
       <c r="M11" s="7">
         <v>999</v>
@@ -5471,13 +5429,13 @@
         <v>907768</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>192</v>
+        <v>373</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>386</v>
+        <v>270</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>266</v>
+        <v>374</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5545,13 +5503,13 @@
         <v>451801</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>388</v>
+        <v>59</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>389</v>
+        <v>376</v>
       </c>
       <c r="H13" s="7">
         <v>532</v>
@@ -5560,13 +5518,13 @@
         <v>468734</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>390</v>
+        <v>377</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>391</v>
+        <v>378</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>392</v>
+        <v>379</v>
       </c>
       <c r="M13" s="7">
         <v>976</v>
@@ -5575,13 +5533,13 @@
         <v>920535</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>393</v>
+        <v>380</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>394</v>
+        <v>381</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>395</v>
+        <v>382</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5596,13 +5554,13 @@
         <v>268674</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>396</v>
+        <v>383</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>397</v>
+        <v>384</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>398</v>
+        <v>67</v>
       </c>
       <c r="H14" s="7">
         <v>475</v>
@@ -5611,13 +5569,13 @@
         <v>371204</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>399</v>
+        <v>385</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>400</v>
+        <v>386</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>401</v>
+        <v>387</v>
       </c>
       <c r="M14" s="7">
         <v>697</v>
@@ -5626,13 +5584,13 @@
         <v>639877</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>402</v>
+        <v>388</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>403</v>
+        <v>389</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>404</v>
+        <v>390</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5697,16 +5655,16 @@
         <v>635</v>
       </c>
       <c r="D16" s="7">
-        <v>581029</v>
+        <v>581028</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>405</v>
+        <v>391</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>406</v>
+        <v>392</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>407</v>
+        <v>393</v>
       </c>
       <c r="H16" s="7">
         <v>809</v>
@@ -5715,13 +5673,13 @@
         <v>558641</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>408</v>
+        <v>394</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>409</v>
+        <v>395</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>410</v>
+        <v>396</v>
       </c>
       <c r="M16" s="7">
         <v>1444</v>
@@ -5730,13 +5688,13 @@
         <v>1139670</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>411</v>
+        <v>397</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>412</v>
+        <v>398</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>413</v>
+        <v>399</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5751,13 +5709,13 @@
         <v>354298</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>414</v>
+        <v>400</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>415</v>
+        <v>401</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>416</v>
+        <v>402</v>
       </c>
       <c r="H17" s="7">
         <v>680</v>
@@ -5766,13 +5724,13 @@
         <v>540382</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>417</v>
+        <v>403</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>418</v>
+        <v>404</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>419</v>
+        <v>405</v>
       </c>
       <c r="M17" s="7">
         <v>1016</v>
@@ -5781,13 +5739,13 @@
         <v>894680</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>420</v>
+        <v>406</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>421</v>
+        <v>407</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>422</v>
+        <v>408</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5799,7 +5757,7 @@
         <v>971</v>
       </c>
       <c r="D18" s="7">
-        <v>935327</v>
+        <v>935326</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -5855,13 +5813,13 @@
         <v>2092914</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>423</v>
+        <v>409</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>424</v>
+        <v>109</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>244</v>
+        <v>410</v>
       </c>
       <c r="H19" s="7">
         <v>2870</v>
@@ -5870,13 +5828,13 @@
         <v>1937128</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>425</v>
+        <v>411</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>426</v>
+        <v>412</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>427</v>
+        <v>413</v>
       </c>
       <c r="M19" s="7">
         <v>5043</v>
@@ -5885,13 +5843,13 @@
         <v>4030042</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>428</v>
+        <v>414</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>429</v>
+        <v>415</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>430</v>
+        <v>416</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5906,13 +5864,13 @@
         <v>1226388</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>431</v>
+        <v>417</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>252</v>
+        <v>418</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>432</v>
+        <v>117</v>
       </c>
       <c r="H20" s="7">
         <v>2259</v>
@@ -5921,13 +5879,13 @@
         <v>1719416</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>433</v>
+        <v>419</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>434</v>
+        <v>420</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>435</v>
+        <v>421</v>
       </c>
       <c r="M20" s="7">
         <v>3382</v>
@@ -5936,13 +5894,13 @@
         <v>2945804</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>436</v>
+        <v>422</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>437</v>
+        <v>423</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>438</v>
+        <v>424</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/IMC_R2-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IMC_R2-Habitat-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AC71DD3B-05FF-4FE6-82AA-712586DB094C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4C87DB29-5C48-460B-AC8E-4FF3DD6CA86E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{A9F9EB7F-B42E-4A66-B77E-8A4973A40DFD}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{FE0768A9-BD3D-4B78-B355-3DF5BD931B97}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="425">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="427">
   <si>
     <t>Población con sobrepeso u obesidad en 2007 (Tasa respuesta: 98,86%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Sí</t>
@@ -77,1225 +77,1231 @@
     <t>65,13%</t>
   </si>
   <si>
-    <t>55,55%</t>
+    <t>55,81%</t>
+  </si>
+  <si>
+    <t>73,87%</t>
+  </si>
+  <si>
+    <t>54,74%</t>
+  </si>
+  <si>
+    <t>45,79%</t>
+  </si>
+  <si>
+    <t>62,67%</t>
+  </si>
+  <si>
+    <t>59,97%</t>
+  </si>
+  <si>
+    <t>53,73%</t>
+  </si>
+  <si>
+    <t>65,76%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>34,87%</t>
+  </si>
+  <si>
+    <t>26,13%</t>
+  </si>
+  <si>
+    <t>44,19%</t>
+  </si>
+  <si>
+    <t>45,26%</t>
+  </si>
+  <si>
+    <t>37,33%</t>
+  </si>
+  <si>
+    <t>54,21%</t>
+  </si>
+  <si>
+    <t>40,03%</t>
+  </si>
+  <si>
+    <t>34,24%</t>
+  </si>
+  <si>
+    <t>46,27%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
+  </si>
+  <si>
+    <t>62,77%</t>
+  </si>
+  <si>
+    <t>58,43%</t>
+  </si>
+  <si>
+    <t>66,44%</t>
+  </si>
+  <si>
+    <t>51,78%</t>
+  </si>
+  <si>
+    <t>47,85%</t>
+  </si>
+  <si>
+    <t>56,3%</t>
+  </si>
+  <si>
+    <t>57,32%</t>
+  </si>
+  <si>
+    <t>54,55%</t>
+  </si>
+  <si>
+    <t>60,27%</t>
+  </si>
+  <si>
+    <t>37,23%</t>
+  </si>
+  <si>
+    <t>33,56%</t>
+  </si>
+  <si>
+    <t>41,57%</t>
+  </si>
+  <si>
+    <t>48,22%</t>
+  </si>
+  <si>
+    <t>43,7%</t>
+  </si>
+  <si>
+    <t>52,15%</t>
+  </si>
+  <si>
+    <t>42,68%</t>
+  </si>
+  <si>
+    <t>39,73%</t>
+  </si>
+  <si>
+    <t>45,45%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>62,13%</t>
+  </si>
+  <si>
+    <t>58,94%</t>
+  </si>
+  <si>
+    <t>65,3%</t>
+  </si>
+  <si>
+    <t>49,62%</t>
+  </si>
+  <si>
+    <t>46,23%</t>
+  </si>
+  <si>
+    <t>53,16%</t>
+  </si>
+  <si>
+    <t>55,87%</t>
+  </si>
+  <si>
+    <t>53,74%</t>
+  </si>
+  <si>
+    <t>58,3%</t>
+  </si>
+  <si>
+    <t>37,87%</t>
+  </si>
+  <si>
+    <t>34,7%</t>
+  </si>
+  <si>
+    <t>41,06%</t>
+  </si>
+  <si>
+    <t>50,38%</t>
+  </si>
+  <si>
+    <t>46,84%</t>
+  </si>
+  <si>
+    <t>53,77%</t>
+  </si>
+  <si>
+    <t>44,13%</t>
+  </si>
+  <si>
+    <t>41,7%</t>
+  </si>
+  <si>
+    <t>46,26%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>55,99%</t>
+  </si>
+  <si>
+    <t>52,1%</t>
+  </si>
+  <si>
+    <t>45,9%</t>
+  </si>
+  <si>
+    <t>42,44%</t>
+  </si>
+  <si>
+    <t>49,72%</t>
+  </si>
+  <si>
+    <t>50,92%</t>
+  </si>
+  <si>
+    <t>47,84%</t>
+  </si>
+  <si>
+    <t>53,51%</t>
+  </si>
+  <si>
+    <t>44,01%</t>
+  </si>
+  <si>
+    <t>47,9%</t>
+  </si>
+  <si>
+    <t>54,1%</t>
+  </si>
+  <si>
+    <t>50,28%</t>
+  </si>
+  <si>
+    <t>57,56%</t>
+  </si>
+  <si>
+    <t>49,08%</t>
+  </si>
+  <si>
+    <t>46,49%</t>
+  </si>
+  <si>
+    <t>52,16%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>56,01%</t>
+  </si>
+  <si>
+    <t>53,14%</t>
+  </si>
+  <si>
+    <t>59,31%</t>
+  </si>
+  <si>
+    <t>42,61%</t>
+  </si>
+  <si>
+    <t>39,62%</t>
+  </si>
+  <si>
+    <t>45,8%</t>
+  </si>
+  <si>
+    <t>48,99%</t>
+  </si>
+  <si>
+    <t>46,8%</t>
+  </si>
+  <si>
+    <t>51,23%</t>
+  </si>
+  <si>
+    <t>43,99%</t>
+  </si>
+  <si>
+    <t>40,69%</t>
+  </si>
+  <si>
+    <t>46,86%</t>
+  </si>
+  <si>
+    <t>57,39%</t>
+  </si>
+  <si>
+    <t>54,2%</t>
+  </si>
+  <si>
+    <t>60,38%</t>
+  </si>
+  <si>
+    <t>51,01%</t>
+  </si>
+  <si>
+    <t>48,77%</t>
+  </si>
+  <si>
+    <t>53,2%</t>
+  </si>
+  <si>
+    <t>59,32%</t>
+  </si>
+  <si>
+    <t>57,41%</t>
+  </si>
+  <si>
+    <t>60,98%</t>
+  </si>
+  <si>
+    <t>47,26%</t>
+  </si>
+  <si>
+    <t>45,59%</t>
+  </si>
+  <si>
+    <t>49,0%</t>
+  </si>
+  <si>
+    <t>53,21%</t>
+  </si>
+  <si>
+    <t>51,99%</t>
+  </si>
+  <si>
+    <t>54,41%</t>
+  </si>
+  <si>
+    <t>40,68%</t>
+  </si>
+  <si>
+    <t>39,02%</t>
+  </si>
+  <si>
+    <t>42,59%</t>
+  </si>
+  <si>
+    <t>52,74%</t>
+  </si>
+  <si>
+    <t>51,0%</t>
+  </si>
+  <si>
+    <t>46,79%</t>
+  </si>
+  <si>
+    <t>48,01%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con sobrepeso u obesidad en 2012 (Tasa respuesta: 96,9%)</t>
+  </si>
+  <si>
+    <t>64,9%</t>
+  </si>
+  <si>
+    <t>55,46%</t>
+  </si>
+  <si>
+    <t>73,16%</t>
+  </si>
+  <si>
+    <t>53,63%</t>
+  </si>
+  <si>
+    <t>43,84%</t>
+  </si>
+  <si>
+    <t>65,0%</t>
+  </si>
+  <si>
+    <t>59,51%</t>
+  </si>
+  <si>
+    <t>52,35%</t>
+  </si>
+  <si>
+    <t>66,67%</t>
+  </si>
+  <si>
+    <t>35,1%</t>
+  </si>
+  <si>
+    <t>26,84%</t>
+  </si>
+  <si>
+    <t>44,54%</t>
+  </si>
+  <si>
+    <t>46,37%</t>
+  </si>
+  <si>
+    <t>35,0%</t>
+  </si>
+  <si>
+    <t>56,16%</t>
+  </si>
+  <si>
+    <t>40,49%</t>
+  </si>
+  <si>
+    <t>33,33%</t>
+  </si>
+  <si>
+    <t>47,65%</t>
+  </si>
+  <si>
+    <t>71,74%</t>
+  </si>
+  <si>
+    <t>67,84%</t>
+  </si>
+  <si>
+    <t>75,66%</t>
+  </si>
+  <si>
+    <t>54,89%</t>
+  </si>
+  <si>
+    <t>50,16%</t>
+  </si>
+  <si>
+    <t>58,91%</t>
+  </si>
+  <si>
+    <t>63,48%</t>
+  </si>
+  <si>
+    <t>60,17%</t>
+  </si>
+  <si>
+    <t>66,08%</t>
+  </si>
+  <si>
+    <t>28,26%</t>
+  </si>
+  <si>
+    <t>24,34%</t>
+  </si>
+  <si>
+    <t>32,16%</t>
+  </si>
+  <si>
+    <t>45,11%</t>
+  </si>
+  <si>
+    <t>41,09%</t>
+  </si>
+  <si>
+    <t>49,84%</t>
+  </si>
+  <si>
+    <t>36,52%</t>
+  </si>
+  <si>
+    <t>33,92%</t>
+  </si>
+  <si>
+    <t>39,83%</t>
+  </si>
+  <si>
+    <t>66,07%</t>
+  </si>
+  <si>
+    <t>62,97%</t>
+  </si>
+  <si>
+    <t>69,22%</t>
+  </si>
+  <si>
+    <t>55,73%</t>
+  </si>
+  <si>
+    <t>52,38%</t>
+  </si>
+  <si>
+    <t>59,21%</t>
+  </si>
+  <si>
+    <t>60,9%</t>
+  </si>
+  <si>
+    <t>58,63%</t>
+  </si>
+  <si>
+    <t>63,1%</t>
+  </si>
+  <si>
+    <t>33,93%</t>
+  </si>
+  <si>
+    <t>30,78%</t>
+  </si>
+  <si>
+    <t>37,03%</t>
+  </si>
+  <si>
+    <t>44,27%</t>
+  </si>
+  <si>
+    <t>40,79%</t>
+  </si>
+  <si>
+    <t>47,62%</t>
+  </si>
+  <si>
+    <t>39,1%</t>
+  </si>
+  <si>
+    <t>36,9%</t>
+  </si>
+  <si>
+    <t>41,37%</t>
+  </si>
+  <si>
+    <t>59,83%</t>
+  </si>
+  <si>
+    <t>55,49%</t>
+  </si>
+  <si>
+    <t>63,17%</t>
+  </si>
+  <si>
+    <t>56,7%</t>
+  </si>
+  <si>
+    <t>53,04%</t>
+  </si>
+  <si>
+    <t>60,55%</t>
+  </si>
+  <si>
+    <t>58,26%</t>
+  </si>
+  <si>
+    <t>55,61%</t>
+  </si>
+  <si>
+    <t>60,92%</t>
+  </si>
+  <si>
+    <t>40,17%</t>
+  </si>
+  <si>
+    <t>36,83%</t>
+  </si>
+  <si>
+    <t>44,51%</t>
+  </si>
+  <si>
+    <t>43,3%</t>
+  </si>
+  <si>
+    <t>39,45%</t>
+  </si>
+  <si>
+    <t>46,96%</t>
+  </si>
+  <si>
+    <t>41,74%</t>
+  </si>
+  <si>
+    <t>39,08%</t>
+  </si>
+  <si>
+    <t>44,39%</t>
+  </si>
+  <si>
+    <t>65,24%</t>
+  </si>
+  <si>
+    <t>61,88%</t>
+  </si>
+  <si>
+    <t>68,58%</t>
+  </si>
+  <si>
+    <t>50,97%</t>
+  </si>
+  <si>
+    <t>47,6%</t>
+  </si>
+  <si>
+    <t>54,19%</t>
+  </si>
+  <si>
+    <t>57,83%</t>
+  </si>
+  <si>
+    <t>55,2%</t>
+  </si>
+  <si>
+    <t>59,9%</t>
+  </si>
+  <si>
+    <t>34,76%</t>
+  </si>
+  <si>
+    <t>31,42%</t>
+  </si>
+  <si>
+    <t>38,12%</t>
+  </si>
+  <si>
+    <t>49,03%</t>
+  </si>
+  <si>
+    <t>45,81%</t>
+  </si>
+  <si>
+    <t>52,4%</t>
+  </si>
+  <si>
+    <t>42,17%</t>
+  </si>
+  <si>
+    <t>40,1%</t>
+  </si>
+  <si>
+    <t>44,8%</t>
+  </si>
+  <si>
+    <t>65,4%</t>
+  </si>
+  <si>
+    <t>63,86%</t>
+  </si>
+  <si>
+    <t>67,15%</t>
+  </si>
+  <si>
+    <t>54,33%</t>
+  </si>
+  <si>
+    <t>52,53%</t>
+  </si>
+  <si>
+    <t>56,02%</t>
+  </si>
+  <si>
+    <t>59,82%</t>
+  </si>
+  <si>
+    <t>58,51%</t>
+  </si>
+  <si>
+    <t>60,95%</t>
+  </si>
+  <si>
+    <t>34,6%</t>
+  </si>
+  <si>
+    <t>32,85%</t>
+  </si>
+  <si>
+    <t>36,14%</t>
+  </si>
+  <si>
+    <t>45,67%</t>
+  </si>
+  <si>
+    <t>43,98%</t>
+  </si>
+  <si>
+    <t>47,47%</t>
+  </si>
+  <si>
+    <t>40,18%</t>
+  </si>
+  <si>
+    <t>39,05%</t>
+  </si>
+  <si>
+    <t>41,49%</t>
+  </si>
+  <si>
+    <t>Población con sobrepeso u obesidad en 2016 (Tasa respuesta: 95,54%)</t>
+  </si>
+  <si>
+    <t>56,69%</t>
+  </si>
+  <si>
+    <t>47,69%</t>
+  </si>
+  <si>
+    <t>66,54%</t>
+  </si>
+  <si>
+    <t>59,81%</t>
+  </si>
+  <si>
+    <t>49,44%</t>
+  </si>
+  <si>
+    <t>69,21%</t>
+  </si>
+  <si>
+    <t>58,18%</t>
+  </si>
+  <si>
+    <t>51,45%</t>
+  </si>
+  <si>
+    <t>64,47%</t>
+  </si>
+  <si>
+    <t>43,31%</t>
+  </si>
+  <si>
+    <t>33,46%</t>
+  </si>
+  <si>
+    <t>52,31%</t>
+  </si>
+  <si>
+    <t>40,19%</t>
+  </si>
+  <si>
+    <t>30,79%</t>
+  </si>
+  <si>
+    <t>50,56%</t>
+  </si>
+  <si>
+    <t>41,82%</t>
+  </si>
+  <si>
+    <t>35,53%</t>
+  </si>
+  <si>
+    <t>48,55%</t>
+  </si>
+  <si>
+    <t>66,62%</t>
+  </si>
+  <si>
+    <t>62,18%</t>
+  </si>
+  <si>
+    <t>70,94%</t>
+  </si>
+  <si>
+    <t>53,29%</t>
+  </si>
+  <si>
+    <t>57,85%</t>
+  </si>
+  <si>
+    <t>60,04%</t>
+  </si>
+  <si>
+    <t>56,41%</t>
+  </si>
+  <si>
+    <t>62,93%</t>
+  </si>
+  <si>
+    <t>33,38%</t>
+  </si>
+  <si>
+    <t>29,06%</t>
+  </si>
+  <si>
+    <t>37,82%</t>
+  </si>
+  <si>
+    <t>46,71%</t>
+  </si>
+  <si>
+    <t>42,15%</t>
+  </si>
+  <si>
+    <t>39,96%</t>
+  </si>
+  <si>
+    <t>37,07%</t>
+  </si>
+  <si>
+    <t>43,59%</t>
+  </si>
+  <si>
+    <t>59,73%</t>
+  </si>
+  <si>
+    <t>56,21%</t>
+  </si>
+  <si>
+    <t>62,83%</t>
+  </si>
+  <si>
+    <t>55,74%</t>
+  </si>
+  <si>
+    <t>52,43%</t>
+  </si>
+  <si>
+    <t>58,86%</t>
+  </si>
+  <si>
+    <t>57,73%</t>
+  </si>
+  <si>
+    <t>55,5%</t>
+  </si>
+  <si>
+    <t>40,27%</t>
+  </si>
+  <si>
+    <t>37,17%</t>
+  </si>
+  <si>
+    <t>43,79%</t>
+  </si>
+  <si>
+    <t>44,26%</t>
+  </si>
+  <si>
+    <t>41,14%</t>
+  </si>
+  <si>
+    <t>47,57%</t>
+  </si>
+  <si>
+    <t>42,27%</t>
+  </si>
+  <si>
+    <t>44,5%</t>
+  </si>
+  <si>
+    <t>55,17%</t>
+  </si>
+  <si>
+    <t>47,41%</t>
+  </si>
+  <si>
+    <t>50,98%</t>
+  </si>
+  <si>
+    <t>53,36%</t>
+  </si>
+  <si>
+    <t>50,57%</t>
+  </si>
+  <si>
+    <t>55,96%</t>
+  </si>
+  <si>
+    <t>44,83%</t>
+  </si>
+  <si>
+    <t>52,59%</t>
+  </si>
+  <si>
+    <t>49,02%</t>
+  </si>
+  <si>
+    <t>46,64%</t>
+  </si>
+  <si>
+    <t>44,04%</t>
+  </si>
+  <si>
+    <t>49,43%</t>
+  </si>
+  <si>
+    <t>60,0%</t>
+  </si>
+  <si>
+    <t>57,13%</t>
+  </si>
+  <si>
+    <t>63,45%</t>
+  </si>
+  <si>
+    <t>51,15%</t>
+  </si>
+  <si>
+    <t>47,96%</t>
+  </si>
+  <si>
+    <t>54,43%</t>
+  </si>
+  <si>
+    <t>55,39%</t>
+  </si>
+  <si>
+    <t>57,91%</t>
+  </si>
+  <si>
+    <t>40,0%</t>
+  </si>
+  <si>
+    <t>36,55%</t>
+  </si>
+  <si>
+    <t>42,87%</t>
+  </si>
+  <si>
+    <t>48,85%</t>
+  </si>
+  <si>
+    <t>45,57%</t>
+  </si>
+  <si>
+    <t>52,04%</t>
+  </si>
+  <si>
+    <t>44,61%</t>
+  </si>
+  <si>
+    <t>42,09%</t>
+  </si>
+  <si>
+    <t>60,71%</t>
+  </si>
+  <si>
+    <t>58,97%</t>
+  </si>
+  <si>
+    <t>62,49%</t>
+  </si>
+  <si>
+    <t>52,28%</t>
+  </si>
+  <si>
+    <t>50,52%</t>
+  </si>
+  <si>
+    <t>54,09%</t>
+  </si>
+  <si>
+    <t>56,45%</t>
+  </si>
+  <si>
+    <t>55,13%</t>
+  </si>
+  <si>
+    <t>57,62%</t>
+  </si>
+  <si>
+    <t>39,29%</t>
+  </si>
+  <si>
+    <t>37,51%</t>
+  </si>
+  <si>
+    <t>41,03%</t>
+  </si>
+  <si>
+    <t>47,72%</t>
+  </si>
+  <si>
+    <t>45,91%</t>
+  </si>
+  <si>
+    <t>49,48%</t>
+  </si>
+  <si>
+    <t>43,55%</t>
+  </si>
+  <si>
+    <t>42,38%</t>
+  </si>
+  <si>
+    <t>44,87%</t>
+  </si>
+  <si>
+    <t>Población con sobrepeso u obesidad en 2023 (Tasa respuesta: 96,36%)</t>
+  </si>
+  <si>
+    <t>61,69%</t>
+  </si>
+  <si>
+    <t>50,84%</t>
+  </si>
+  <si>
+    <t>71,76%</t>
+  </si>
+  <si>
+    <t>59,06%</t>
+  </si>
+  <si>
+    <t>51,14%</t>
+  </si>
+  <si>
+    <t>66,38%</t>
+  </si>
+  <si>
+    <t>60,22%</t>
+  </si>
+  <si>
+    <t>53,52%</t>
+  </si>
+  <si>
+    <t>65,93%</t>
+  </si>
+  <si>
+    <t>38,31%</t>
+  </si>
+  <si>
+    <t>28,24%</t>
+  </si>
+  <si>
+    <t>49,16%</t>
+  </si>
+  <si>
+    <t>40,94%</t>
+  </si>
+  <si>
+    <t>33,62%</t>
+  </si>
+  <si>
+    <t>48,86%</t>
+  </si>
+  <si>
+    <t>39,78%</t>
+  </si>
+  <si>
+    <t>34,07%</t>
+  </si>
+  <si>
+    <t>46,48%</t>
+  </si>
+  <si>
+    <t>69,78%</t>
+  </si>
+  <si>
+    <t>65,28%</t>
   </si>
   <si>
     <t>74,03%</t>
   </si>
   <si>
-    <t>54,74%</t>
-  </si>
-  <si>
-    <t>46,34%</t>
-  </si>
-  <si>
-    <t>63,43%</t>
-  </si>
-  <si>
-    <t>59,97%</t>
-  </si>
-  <si>
-    <t>53,36%</t>
-  </si>
-  <si>
-    <t>66,05%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>34,87%</t>
+    <t>52,12%</t>
+  </si>
+  <si>
+    <t>59,2%</t>
+  </si>
+  <si>
+    <t>62,42%</t>
+  </si>
+  <si>
+    <t>59,95%</t>
+  </si>
+  <si>
+    <t>30,22%</t>
   </si>
   <si>
     <t>25,97%</t>
   </si>
   <si>
-    <t>44,45%</t>
-  </si>
-  <si>
-    <t>45,26%</t>
-  </si>
-  <si>
-    <t>36,57%</t>
-  </si>
-  <si>
-    <t>53,66%</t>
-  </si>
-  <si>
-    <t>40,03%</t>
-  </si>
-  <si>
-    <t>33,95%</t>
-  </si>
-  <si>
-    <t>46,64%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>62,77%</t>
-  </si>
-  <si>
-    <t>58,65%</t>
-  </si>
-  <si>
-    <t>66,66%</t>
-  </si>
-  <si>
-    <t>51,78%</t>
-  </si>
-  <si>
-    <t>48,05%</t>
-  </si>
-  <si>
-    <t>55,98%</t>
-  </si>
-  <si>
-    <t>57,32%</t>
-  </si>
-  <si>
-    <t>54,65%</t>
-  </si>
-  <si>
-    <t>60,26%</t>
-  </si>
-  <si>
-    <t>37,23%</t>
-  </si>
-  <si>
-    <t>33,34%</t>
-  </si>
-  <si>
-    <t>41,35%</t>
-  </si>
-  <si>
-    <t>48,22%</t>
-  </si>
-  <si>
-    <t>44,02%</t>
-  </si>
-  <si>
-    <t>51,95%</t>
-  </si>
-  <si>
-    <t>42,68%</t>
-  </si>
-  <si>
-    <t>39,74%</t>
-  </si>
-  <si>
-    <t>45,35%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>62,13%</t>
-  </si>
-  <si>
-    <t>58,91%</t>
-  </si>
-  <si>
-    <t>65,33%</t>
-  </si>
-  <si>
-    <t>49,62%</t>
-  </si>
-  <si>
-    <t>46,25%</t>
-  </si>
-  <si>
-    <t>53,02%</t>
-  </si>
-  <si>
-    <t>55,87%</t>
-  </si>
-  <si>
-    <t>53,58%</t>
+    <t>34,72%</t>
+  </si>
+  <si>
+    <t>40,8%</t>
+  </si>
+  <si>
+    <t>47,88%</t>
+  </si>
+  <si>
+    <t>37,58%</t>
+  </si>
+  <si>
+    <t>40,05%</t>
+  </si>
+  <si>
+    <t>60,73%</t>
+  </si>
+  <si>
+    <t>56,73%</t>
+  </si>
+  <si>
+    <t>67,54%</t>
+  </si>
+  <si>
+    <t>50,87%</t>
+  </si>
+  <si>
+    <t>47,77%</t>
+  </si>
+  <si>
+    <t>53,7%</t>
+  </si>
+  <si>
+    <t>55,8%</t>
+  </si>
+  <si>
+    <t>53,32%</t>
+  </si>
+  <si>
+    <t>39,27%</t>
+  </si>
+  <si>
+    <t>32,46%</t>
+  </si>
+  <si>
+    <t>43,27%</t>
+  </si>
+  <si>
+    <t>49,13%</t>
+  </si>
+  <si>
+    <t>46,3%</t>
+  </si>
+  <si>
+    <t>52,23%</t>
+  </si>
+  <si>
+    <t>44,2%</t>
+  </si>
+  <si>
+    <t>46,68%</t>
+  </si>
+  <si>
+    <t>62,71%</t>
   </si>
   <si>
     <t>58,06%</t>
   </si>
   <si>
-    <t>37,87%</t>
-  </si>
-  <si>
-    <t>34,67%</t>
-  </si>
-  <si>
-    <t>41,09%</t>
-  </si>
-  <si>
-    <t>50,38%</t>
-  </si>
-  <si>
-    <t>46,98%</t>
-  </si>
-  <si>
-    <t>53,75%</t>
-  </si>
-  <si>
-    <t>44,13%</t>
+    <t>66,68%</t>
+  </si>
+  <si>
+    <t>47,91%</t>
+  </si>
+  <si>
+    <t>71,03%</t>
+  </si>
+  <si>
+    <t>58,99%</t>
+  </si>
+  <si>
+    <t>54,84%</t>
+  </si>
+  <si>
+    <t>68,1%</t>
+  </si>
+  <si>
+    <t>37,29%</t>
+  </si>
+  <si>
+    <t>33,32%</t>
   </si>
   <si>
     <t>41,94%</t>
   </si>
   <si>
-    <t>46,42%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>55,99%</t>
-  </si>
-  <si>
-    <t>52,22%</t>
-  </si>
-  <si>
-    <t>59,54%</t>
-  </si>
-  <si>
-    <t>45,9%</t>
-  </si>
-  <si>
-    <t>42,19%</t>
-  </si>
-  <si>
-    <t>49,59%</t>
-  </si>
-  <si>
-    <t>50,92%</t>
-  </si>
-  <si>
-    <t>48,26%</t>
-  </si>
-  <si>
-    <t>53,55%</t>
-  </si>
-  <si>
-    <t>44,01%</t>
-  </si>
-  <si>
-    <t>40,46%</t>
-  </si>
-  <si>
-    <t>47,78%</t>
-  </si>
-  <si>
-    <t>54,1%</t>
-  </si>
-  <si>
-    <t>50,41%</t>
-  </si>
-  <si>
-    <t>57,81%</t>
-  </si>
-  <si>
-    <t>49,08%</t>
-  </si>
-  <si>
-    <t>46,45%</t>
-  </si>
-  <si>
-    <t>51,74%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>56,01%</t>
-  </si>
-  <si>
-    <t>52,64%</t>
-  </si>
-  <si>
-    <t>59,01%</t>
-  </si>
-  <si>
-    <t>42,61%</t>
-  </si>
-  <si>
-    <t>39,54%</t>
-  </si>
-  <si>
-    <t>45,82%</t>
-  </si>
-  <si>
-    <t>48,99%</t>
-  </si>
-  <si>
-    <t>46,87%</t>
-  </si>
-  <si>
-    <t>51,18%</t>
-  </si>
-  <si>
-    <t>43,99%</t>
-  </si>
-  <si>
-    <t>40,99%</t>
-  </si>
-  <si>
-    <t>47,36%</t>
-  </si>
-  <si>
-    <t>57,39%</t>
-  </si>
-  <si>
-    <t>54,18%</t>
-  </si>
-  <si>
-    <t>60,46%</t>
-  </si>
-  <si>
-    <t>51,01%</t>
-  </si>
-  <si>
-    <t>48,82%</t>
-  </si>
-  <si>
-    <t>53,13%</t>
-  </si>
-  <si>
-    <t>59,32%</t>
-  </si>
-  <si>
-    <t>57,65%</t>
+    <t>28,97%</t>
+  </si>
+  <si>
+    <t>52,09%</t>
+  </si>
+  <si>
+    <t>41,01%</t>
+  </si>
+  <si>
+    <t>31,9%</t>
+  </si>
+  <si>
+    <t>45,16%</t>
+  </si>
+  <si>
+    <t>62,12%</t>
+  </si>
+  <si>
+    <t>58,56%</t>
+  </si>
+  <si>
+    <t>65,71%</t>
+  </si>
+  <si>
+    <t>50,83%</t>
+  </si>
+  <si>
+    <t>47,83%</t>
+  </si>
+  <si>
+    <t>54,17%</t>
+  </si>
+  <si>
+    <t>53,49%</t>
+  </si>
+  <si>
+    <t>58,38%</t>
+  </si>
+  <si>
+    <t>37,88%</t>
+  </si>
+  <si>
+    <t>34,29%</t>
+  </si>
+  <si>
+    <t>41,44%</t>
+  </si>
+  <si>
+    <t>49,17%</t>
+  </si>
+  <si>
+    <t>45,83%</t>
+  </si>
+  <si>
+    <t>52,17%</t>
+  </si>
+  <si>
+    <t>41,62%</t>
+  </si>
+  <si>
+    <t>46,51%</t>
+  </si>
+  <si>
+    <t>63,05%</t>
   </si>
   <si>
     <t>61,12%</t>
   </si>
   <si>
-    <t>47,26%</t>
-  </si>
-  <si>
-    <t>45,57%</t>
-  </si>
-  <si>
-    <t>48,91%</t>
-  </si>
-  <si>
-    <t>53,21%</t>
-  </si>
-  <si>
-    <t>52,04%</t>
-  </si>
-  <si>
-    <t>54,51%</t>
-  </si>
-  <si>
-    <t>40,68%</t>
+    <t>65,53%</t>
+  </si>
+  <si>
+    <t>52,98%</t>
+  </si>
+  <si>
+    <t>51,02%</t>
+  </si>
+  <si>
+    <t>58,31%</t>
+  </si>
+  <si>
+    <t>57,77%</t>
+  </si>
+  <si>
+    <t>56,24%</t>
+  </si>
+  <si>
+    <t>60,36%</t>
+  </si>
+  <si>
+    <t>36,95%</t>
+  </si>
+  <si>
+    <t>34,47%</t>
   </si>
   <si>
     <t>38,88%</t>
-  </si>
-  <si>
-    <t>42,35%</t>
-  </si>
-  <si>
-    <t>52,74%</t>
-  </si>
-  <si>
-    <t>51,09%</t>
-  </si>
-  <si>
-    <t>54,43%</t>
-  </si>
-  <si>
-    <t>46,79%</t>
-  </si>
-  <si>
-    <t>45,49%</t>
-  </si>
-  <si>
-    <t>47,96%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con sobrepeso u obesidad en 2012 (Tasa respuesta: 96,9%)</t>
-  </si>
-  <si>
-    <t>64,9%</t>
-  </si>
-  <si>
-    <t>54,91%</t>
-  </si>
-  <si>
-    <t>73,42%</t>
-  </si>
-  <si>
-    <t>53,63%</t>
-  </si>
-  <si>
-    <t>42,8%</t>
-  </si>
-  <si>
-    <t>63,23%</t>
-  </si>
-  <si>
-    <t>59,51%</t>
-  </si>
-  <si>
-    <t>52,56%</t>
-  </si>
-  <si>
-    <t>66,03%</t>
-  </si>
-  <si>
-    <t>35,1%</t>
-  </si>
-  <si>
-    <t>26,58%</t>
-  </si>
-  <si>
-    <t>45,09%</t>
-  </si>
-  <si>
-    <t>46,37%</t>
-  </si>
-  <si>
-    <t>36,77%</t>
-  </si>
-  <si>
-    <t>57,2%</t>
-  </si>
-  <si>
-    <t>40,49%</t>
-  </si>
-  <si>
-    <t>33,97%</t>
-  </si>
-  <si>
-    <t>47,44%</t>
-  </si>
-  <si>
-    <t>71,74%</t>
-  </si>
-  <si>
-    <t>67,98%</t>
-  </si>
-  <si>
-    <t>75,54%</t>
-  </si>
-  <si>
-    <t>54,89%</t>
-  </si>
-  <si>
-    <t>50,44%</t>
-  </si>
-  <si>
-    <t>59,07%</t>
-  </si>
-  <si>
-    <t>63,48%</t>
-  </si>
-  <si>
-    <t>66,38%</t>
-  </si>
-  <si>
-    <t>28,26%</t>
-  </si>
-  <si>
-    <t>24,46%</t>
-  </si>
-  <si>
-    <t>32,02%</t>
-  </si>
-  <si>
-    <t>45,11%</t>
-  </si>
-  <si>
-    <t>40,93%</t>
-  </si>
-  <si>
-    <t>49,56%</t>
-  </si>
-  <si>
-    <t>36,52%</t>
-  </si>
-  <si>
-    <t>33,62%</t>
-  </si>
-  <si>
-    <t>66,07%</t>
-  </si>
-  <si>
-    <t>62,52%</t>
-  </si>
-  <si>
-    <t>69,06%</t>
-  </si>
-  <si>
-    <t>55,73%</t>
-  </si>
-  <si>
-    <t>59,39%</t>
-  </si>
-  <si>
-    <t>60,9%</t>
-  </si>
-  <si>
-    <t>58,81%</t>
-  </si>
-  <si>
-    <t>63,34%</t>
-  </si>
-  <si>
-    <t>33,93%</t>
-  </si>
-  <si>
-    <t>30,94%</t>
-  </si>
-  <si>
-    <t>37,48%</t>
-  </si>
-  <si>
-    <t>44,27%</t>
-  </si>
-  <si>
-    <t>40,61%</t>
-  </si>
-  <si>
-    <t>39,1%</t>
-  </si>
-  <si>
-    <t>36,66%</t>
-  </si>
-  <si>
-    <t>41,19%</t>
-  </si>
-  <si>
-    <t>59,83%</t>
-  </si>
-  <si>
-    <t>63,47%</t>
-  </si>
-  <si>
-    <t>56,7%</t>
-  </si>
-  <si>
-    <t>52,84%</t>
-  </si>
-  <si>
-    <t>60,38%</t>
-  </si>
-  <si>
-    <t>58,26%</t>
-  </si>
-  <si>
-    <t>55,33%</t>
-  </si>
-  <si>
-    <t>60,95%</t>
-  </si>
-  <si>
-    <t>40,17%</t>
-  </si>
-  <si>
-    <t>36,53%</t>
-  </si>
-  <si>
-    <t>43,3%</t>
-  </si>
-  <si>
-    <t>39,62%</t>
-  </si>
-  <si>
-    <t>47,16%</t>
-  </si>
-  <si>
-    <t>41,74%</t>
-  </si>
-  <si>
-    <t>39,05%</t>
-  </si>
-  <si>
-    <t>44,67%</t>
-  </si>
-  <si>
-    <t>65,24%</t>
-  </si>
-  <si>
-    <t>61,82%</t>
-  </si>
-  <si>
-    <t>68,53%</t>
-  </si>
-  <si>
-    <t>50,97%</t>
-  </si>
-  <si>
-    <t>47,81%</t>
-  </si>
-  <si>
-    <t>54,58%</t>
-  </si>
-  <si>
-    <t>57,83%</t>
-  </si>
-  <si>
-    <t>55,61%</t>
-  </si>
-  <si>
-    <t>59,94%</t>
-  </si>
-  <si>
-    <t>34,76%</t>
-  </si>
-  <si>
-    <t>31,47%</t>
-  </si>
-  <si>
-    <t>38,18%</t>
-  </si>
-  <si>
-    <t>49,03%</t>
-  </si>
-  <si>
-    <t>45,42%</t>
-  </si>
-  <si>
-    <t>52,19%</t>
-  </si>
-  <si>
-    <t>42,17%</t>
-  </si>
-  <si>
-    <t>40,06%</t>
-  </si>
-  <si>
-    <t>44,39%</t>
-  </si>
-  <si>
-    <t>65,4%</t>
-  </si>
-  <si>
-    <t>63,58%</t>
-  </si>
-  <si>
-    <t>67,09%</t>
-  </si>
-  <si>
-    <t>54,33%</t>
-  </si>
-  <si>
-    <t>56,21%</t>
-  </si>
-  <si>
-    <t>59,82%</t>
-  </si>
-  <si>
-    <t>58,69%</t>
-  </si>
-  <si>
-    <t>61,13%</t>
-  </si>
-  <si>
-    <t>34,6%</t>
-  </si>
-  <si>
-    <t>32,91%</t>
-  </si>
-  <si>
-    <t>36,42%</t>
-  </si>
-  <si>
-    <t>45,67%</t>
-  </si>
-  <si>
-    <t>43,79%</t>
-  </si>
-  <si>
-    <t>40,18%</t>
-  </si>
-  <si>
-    <t>38,87%</t>
-  </si>
-  <si>
-    <t>41,31%</t>
-  </si>
-  <si>
-    <t>Población con sobrepeso u obesidad en 2015 (Tasa respuesta: 95,54%)</t>
-  </si>
-  <si>
-    <t>56,69%</t>
-  </si>
-  <si>
-    <t>47,66%</t>
-  </si>
-  <si>
-    <t>65,61%</t>
-  </si>
-  <si>
-    <t>59,81%</t>
-  </si>
-  <si>
-    <t>49,73%</t>
-  </si>
-  <si>
-    <t>68,9%</t>
-  </si>
-  <si>
-    <t>58,18%</t>
-  </si>
-  <si>
-    <t>64,85%</t>
-  </si>
-  <si>
-    <t>43,31%</t>
-  </si>
-  <si>
-    <t>34,39%</t>
-  </si>
-  <si>
-    <t>52,34%</t>
-  </si>
-  <si>
-    <t>40,19%</t>
-  </si>
-  <si>
-    <t>31,1%</t>
-  </si>
-  <si>
-    <t>50,27%</t>
-  </si>
-  <si>
-    <t>41,82%</t>
-  </si>
-  <si>
-    <t>35,15%</t>
-  </si>
-  <si>
-    <t>66,62%</t>
-  </si>
-  <si>
-    <t>62,31%</t>
-  </si>
-  <si>
-    <t>70,65%</t>
-  </si>
-  <si>
-    <t>53,29%</t>
-  </si>
-  <si>
-    <t>48,77%</t>
-  </si>
-  <si>
-    <t>57,88%</t>
-  </si>
-  <si>
-    <t>60,04%</t>
-  </si>
-  <si>
-    <t>56,79%</t>
-  </si>
-  <si>
-    <t>62,9%</t>
-  </si>
-  <si>
-    <t>33,38%</t>
-  </si>
-  <si>
-    <t>29,35%</t>
-  </si>
-  <si>
-    <t>37,69%</t>
-  </si>
-  <si>
-    <t>46,71%</t>
-  </si>
-  <si>
-    <t>42,12%</t>
-  </si>
-  <si>
-    <t>51,23%</t>
-  </si>
-  <si>
-    <t>39,96%</t>
-  </si>
-  <si>
-    <t>37,1%</t>
-  </si>
-  <si>
-    <t>43,21%</t>
-  </si>
-  <si>
-    <t>59,73%</t>
-  </si>
-  <si>
-    <t>56,52%</t>
-  </si>
-  <si>
-    <t>62,92%</t>
-  </si>
-  <si>
-    <t>55,74%</t>
-  </si>
-  <si>
-    <t>52,08%</t>
-  </si>
-  <si>
-    <t>58,61%</t>
-  </si>
-  <si>
-    <t>57,73%</t>
-  </si>
-  <si>
-    <t>55,5%</t>
-  </si>
-  <si>
-    <t>40,27%</t>
-  </si>
-  <si>
-    <t>37,08%</t>
-  </si>
-  <si>
-    <t>43,48%</t>
-  </si>
-  <si>
-    <t>44,26%</t>
-  </si>
-  <si>
-    <t>41,39%</t>
-  </si>
-  <si>
-    <t>47,92%</t>
-  </si>
-  <si>
-    <t>42,27%</t>
-  </si>
-  <si>
-    <t>44,5%</t>
-  </si>
-  <si>
-    <t>55,58%</t>
-  </si>
-  <si>
-    <t>62,99%</t>
-  </si>
-  <si>
-    <t>47,41%</t>
-  </si>
-  <si>
-    <t>43,29%</t>
-  </si>
-  <si>
-    <t>50,71%</t>
-  </si>
-  <si>
-    <t>50,9%</t>
-  </si>
-  <si>
-    <t>55,95%</t>
-  </si>
-  <si>
-    <t>37,01%</t>
-  </si>
-  <si>
-    <t>44,42%</t>
-  </si>
-  <si>
-    <t>52,59%</t>
-  </si>
-  <si>
-    <t>49,29%</t>
-  </si>
-  <si>
-    <t>56,71%</t>
-  </si>
-  <si>
-    <t>44,05%</t>
-  </si>
-  <si>
-    <t>49,1%</t>
-  </si>
-  <si>
-    <t>60,0%</t>
-  </si>
-  <si>
-    <t>56,86%</t>
-  </si>
-  <si>
-    <t>63,18%</t>
-  </si>
-  <si>
-    <t>51,15%</t>
-  </si>
-  <si>
-    <t>47,53%</t>
-  </si>
-  <si>
-    <t>54,56%</t>
-  </si>
-  <si>
-    <t>55,39%</t>
-  </si>
-  <si>
-    <t>53,0%</t>
-  </si>
-  <si>
-    <t>57,68%</t>
-  </si>
-  <si>
-    <t>40,0%</t>
-  </si>
-  <si>
-    <t>36,82%</t>
-  </si>
-  <si>
-    <t>43,14%</t>
-  </si>
-  <si>
-    <t>48,85%</t>
-  </si>
-  <si>
-    <t>45,44%</t>
-  </si>
-  <si>
-    <t>52,47%</t>
-  </si>
-  <si>
-    <t>44,61%</t>
-  </si>
-  <si>
-    <t>42,32%</t>
-  </si>
-  <si>
-    <t>47,0%</t>
-  </si>
-  <si>
-    <t>60,71%</t>
-  </si>
-  <si>
-    <t>58,98%</t>
-  </si>
-  <si>
-    <t>62,43%</t>
-  </si>
-  <si>
-    <t>52,28%</t>
-  </si>
-  <si>
-    <t>50,49%</t>
-  </si>
-  <si>
-    <t>54,04%</t>
-  </si>
-  <si>
-    <t>56,45%</t>
-  </si>
-  <si>
-    <t>55,06%</t>
-  </si>
-  <si>
-    <t>57,56%</t>
-  </si>
-  <si>
-    <t>39,29%</t>
-  </si>
-  <si>
-    <t>37,57%</t>
-  </si>
-  <si>
-    <t>41,02%</t>
-  </si>
-  <si>
-    <t>47,72%</t>
-  </si>
-  <si>
-    <t>45,96%</t>
-  </si>
-  <si>
-    <t>49,51%</t>
-  </si>
-  <si>
-    <t>43,55%</t>
-  </si>
-  <si>
-    <t>42,44%</t>
-  </si>
-  <si>
-    <t>44,94%</t>
-  </si>
-  <si>
-    <t>Población con sobrepeso u obesidad en 2023 (Tasa respuesta: 96,36%)</t>
-  </si>
-  <si>
-    <t>61,69%</t>
-  </si>
-  <si>
-    <t>50,84%</t>
-  </si>
-  <si>
-    <t>71,76%</t>
-  </si>
-  <si>
-    <t>59,06%</t>
-  </si>
-  <si>
-    <t>51,14%</t>
-  </si>
-  <si>
-    <t>60,22%</t>
-  </si>
-  <si>
-    <t>53,52%</t>
-  </si>
-  <si>
-    <t>65,93%</t>
-  </si>
-  <si>
-    <t>38,31%</t>
-  </si>
-  <si>
-    <t>28,24%</t>
-  </si>
-  <si>
-    <t>49,16%</t>
-  </si>
-  <si>
-    <t>40,94%</t>
-  </si>
-  <si>
-    <t>48,86%</t>
-  </si>
-  <si>
-    <t>39,78%</t>
-  </si>
-  <si>
-    <t>34,07%</t>
-  </si>
-  <si>
-    <t>46,48%</t>
-  </si>
-  <si>
-    <t>69,78%</t>
-  </si>
-  <si>
-    <t>65,28%</t>
-  </si>
-  <si>
-    <t>55,46%</t>
-  </si>
-  <si>
-    <t>52,12%</t>
-  </si>
-  <si>
-    <t>59,2%</t>
-  </si>
-  <si>
-    <t>62,42%</t>
-  </si>
-  <si>
-    <t>59,95%</t>
-  </si>
-  <si>
-    <t>30,22%</t>
-  </si>
-  <si>
-    <t>34,72%</t>
-  </si>
-  <si>
-    <t>44,54%</t>
-  </si>
-  <si>
-    <t>40,8%</t>
-  </si>
-  <si>
-    <t>47,88%</t>
-  </si>
-  <si>
-    <t>37,58%</t>
-  </si>
-  <si>
-    <t>40,05%</t>
-  </si>
-  <si>
-    <t>60,73%</t>
-  </si>
-  <si>
-    <t>56,73%</t>
-  </si>
-  <si>
-    <t>67,54%</t>
-  </si>
-  <si>
-    <t>50,87%</t>
-  </si>
-  <si>
-    <t>47,77%</t>
-  </si>
-  <si>
-    <t>53,7%</t>
-  </si>
-  <si>
-    <t>55,8%</t>
-  </si>
-  <si>
-    <t>53,32%</t>
-  </si>
-  <si>
-    <t>39,27%</t>
-  </si>
-  <si>
-    <t>32,46%</t>
-  </si>
-  <si>
-    <t>43,27%</t>
-  </si>
-  <si>
-    <t>49,13%</t>
-  </si>
-  <si>
-    <t>46,3%</t>
-  </si>
-  <si>
-    <t>52,23%</t>
-  </si>
-  <si>
-    <t>44,2%</t>
-  </si>
-  <si>
-    <t>46,68%</t>
-  </si>
-  <si>
-    <t>62,71%</t>
-  </si>
-  <si>
-    <t>66,68%</t>
-  </si>
-  <si>
-    <t>55,81%</t>
-  </si>
-  <si>
-    <t>47,91%</t>
-  </si>
-  <si>
-    <t>71,03%</t>
-  </si>
-  <si>
-    <t>58,99%</t>
-  </si>
-  <si>
-    <t>54,84%</t>
-  </si>
-  <si>
-    <t>68,1%</t>
-  </si>
-  <si>
-    <t>37,29%</t>
-  </si>
-  <si>
-    <t>33,32%</t>
-  </si>
-  <si>
-    <t>44,19%</t>
-  </si>
-  <si>
-    <t>28,97%</t>
-  </si>
-  <si>
-    <t>52,09%</t>
-  </si>
-  <si>
-    <t>41,01%</t>
-  </si>
-  <si>
-    <t>31,9%</t>
-  </si>
-  <si>
-    <t>45,16%</t>
-  </si>
-  <si>
-    <t>62,12%</t>
-  </si>
-  <si>
-    <t>58,56%</t>
-  </si>
-  <si>
-    <t>65,71%</t>
-  </si>
-  <si>
-    <t>50,83%</t>
-  </si>
-  <si>
-    <t>47,83%</t>
-  </si>
-  <si>
-    <t>54,17%</t>
-  </si>
-  <si>
-    <t>56,02%</t>
-  </si>
-  <si>
-    <t>53,49%</t>
-  </si>
-  <si>
-    <t>58,38%</t>
-  </si>
-  <si>
-    <t>37,88%</t>
-  </si>
-  <si>
-    <t>34,29%</t>
-  </si>
-  <si>
-    <t>41,44%</t>
-  </si>
-  <si>
-    <t>49,17%</t>
-  </si>
-  <si>
-    <t>45,83%</t>
-  </si>
-  <si>
-    <t>52,17%</t>
-  </si>
-  <si>
-    <t>43,98%</t>
-  </si>
-  <si>
-    <t>41,62%</t>
-  </si>
-  <si>
-    <t>46,51%</t>
-  </si>
-  <si>
-    <t>63,05%</t>
-  </si>
-  <si>
-    <t>65,53%</t>
-  </si>
-  <si>
-    <t>52,98%</t>
-  </si>
-  <si>
-    <t>51,02%</t>
-  </si>
-  <si>
-    <t>58,31%</t>
-  </si>
-  <si>
-    <t>57,77%</t>
-  </si>
-  <si>
-    <t>56,24%</t>
-  </si>
-  <si>
-    <t>60,36%</t>
-  </si>
-  <si>
-    <t>36,95%</t>
-  </si>
-  <si>
-    <t>34,47%</t>
   </si>
   <si>
     <t>47,02%</t>
@@ -1725,7 +1731,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA190CEA-2CEB-4222-959C-920DDAA29323}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D56B8DA-19ED-48F8-9E96-E457A6A221E6}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2031,7 +2037,7 @@
         <v>653</v>
       </c>
       <c r="N7" s="7">
-        <v>654162</v>
+        <v>654163</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -2133,7 +2139,7 @@
         <v>1133</v>
       </c>
       <c r="N9" s="7">
-        <v>1141298</v>
+        <v>1141299</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -2320,7 +2326,7 @@
         <v>71</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>72</v>
+        <v>17</v>
       </c>
       <c r="H13" s="7">
         <v>319</v>
@@ -2329,13 +2335,13 @@
         <v>310791</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="M13" s="7">
         <v>680</v>
@@ -2344,13 +2350,13 @@
         <v>687115</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2365,13 +2371,13 @@
         <v>295797</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="H14" s="7">
         <v>371</v>
@@ -2380,13 +2386,13 @@
         <v>366378</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="M14" s="7">
         <v>645</v>
@@ -2395,13 +2401,13 @@
         <v>662175</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2457,7 +2463,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2469,13 +2475,13 @@
         <v>520288</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="H16" s="7">
         <v>419</v>
@@ -2484,13 +2490,13 @@
         <v>435060</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M16" s="7">
         <v>971</v>
@@ -2499,13 +2505,13 @@
         <v>955348</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2520,13 +2526,13 @@
         <v>408635</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H17" s="7">
         <v>562</v>
@@ -2535,13 +2541,13 @@
         <v>586001</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M17" s="7">
         <v>990</v>
@@ -2550,13 +2556,13 @@
         <v>994636</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2624,13 +2630,13 @@
         <v>1924545</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="H19" s="7">
         <v>1540</v>
@@ -2639,13 +2645,13 @@
         <v>1575042</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="M19" s="7">
         <v>3444</v>
@@ -2654,13 +2660,13 @@
         <v>3499587</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2675,13 +2681,13 @@
         <v>1319534</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="H20" s="7">
         <v>1715</v>
@@ -2690,13 +2696,13 @@
         <v>1757936</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="M20" s="7">
         <v>2993</v>
@@ -2705,13 +2711,13 @@
         <v>3077470</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2767,7 +2773,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -2788,7 +2794,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D85A1908-B62E-4BFC-B5E7-0A139DED1802}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6744C9D-2FAA-47C6-A128-4E99AD92DB67}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2805,7 +2811,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2912,13 +2918,13 @@
         <v>75134</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="H4" s="7">
         <v>52</v>
@@ -2927,13 +2933,13 @@
         <v>56979</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="M4" s="7">
         <v>130</v>
@@ -2942,13 +2948,13 @@
         <v>132113</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2963,13 +2969,13 @@
         <v>40631</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="H5" s="7">
         <v>42</v>
@@ -2978,13 +2984,13 @@
         <v>49270</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="M5" s="7">
         <v>86</v>
@@ -2993,13 +2999,13 @@
         <v>89901</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3067,13 +3073,13 @@
         <v>414577</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="H7" s="7">
         <v>288</v>
@@ -3082,13 +3088,13 @@
         <v>305136</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="M7" s="7">
         <v>674</v>
@@ -3097,13 +3103,13 @@
         <v>719712</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>103</v>
+        <v>148</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3118,13 +3124,13 @@
         <v>163272</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="H8" s="7">
         <v>235</v>
@@ -3133,13 +3139,13 @@
         <v>250778</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="M8" s="7">
         <v>392</v>
@@ -3148,13 +3154,13 @@
         <v>414050</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>93</v>
+        <v>158</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3222,13 +3228,13 @@
         <v>655266</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>163</v>
       </c>
       <c r="H10" s="7">
         <v>499</v>
@@ -3237,13 +3243,13 @@
         <v>551144</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>165</v>
       </c>
       <c r="M10" s="7">
         <v>1102</v>
@@ -3252,13 +3258,13 @@
         <v>1206409</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3273,13 +3279,13 @@
         <v>336572</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>171</v>
       </c>
       <c r="H11" s="7">
         <v>401</v>
@@ -3288,13 +3294,13 @@
         <v>437835</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="M11" s="7">
         <v>712</v>
@@ -3380,10 +3386,10 @@
         <v>177</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>37</v>
+        <v>178</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="H13" s="7">
         <v>386</v>
@@ -3392,13 +3398,13 @@
         <v>422747</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M13" s="7">
         <v>785</v>
@@ -3407,13 +3413,13 @@
         <v>865420</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3428,13 +3434,13 @@
         <v>297271</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>45</v>
+        <v>188</v>
       </c>
       <c r="H14" s="7">
         <v>291</v>
@@ -3443,13 +3449,13 @@
         <v>322854</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="M14" s="7">
         <v>565</v>
@@ -3458,13 +3464,13 @@
         <v>620125</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3520,7 +3526,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3532,13 +3538,13 @@
         <v>609975</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="H16" s="7">
         <v>492</v>
@@ -3547,28 +3553,28 @@
         <v>515204</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="M16" s="7">
         <v>1073</v>
       </c>
       <c r="N16" s="7">
-        <v>1125179</v>
+        <v>1125178</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3583,13 +3589,13 @@
         <v>324970</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="H17" s="7">
         <v>470</v>
@@ -3598,13 +3604,13 @@
         <v>495595</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="M17" s="7">
         <v>786</v>
@@ -3613,13 +3619,13 @@
         <v>820565</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3661,7 +3667,7 @@
         <v>1859</v>
       </c>
       <c r="N18" s="7">
-        <v>1945744</v>
+        <v>1945743</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -3687,13 +3693,13 @@
         <v>2197624</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="H19" s="7">
         <v>1717</v>
@@ -3702,13 +3708,13 @@
         <v>1851209</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>119</v>
+        <v>217</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="M19" s="7">
         <v>3764</v>
@@ -3717,13 +3723,13 @@
         <v>4048833</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3738,13 +3744,13 @@
         <v>1162716</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="H20" s="7">
         <v>1439</v>
@@ -3753,13 +3759,13 @@
         <v>1556333</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>110</v>
+        <v>227</v>
       </c>
       <c r="M20" s="7">
         <v>2541</v>
@@ -3768,13 +3774,13 @@
         <v>2719049</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3830,7 +3836,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -3851,7 +3857,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3344CFAC-2E42-4023-804E-F356EB59F474}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{547375F9-4BA8-4820-9E27-B9445E8A6D1D}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3868,7 +3874,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3975,13 +3981,13 @@
         <v>64007</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="H4" s="7">
         <v>61</v>
@@ -3990,13 +3996,13 @@
         <v>61944</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="M4" s="7">
         <v>122</v>
@@ -4005,13 +4011,13 @@
         <v>125951</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>104</v>
+        <v>239</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4026,13 +4032,13 @@
         <v>48892</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="H5" s="7">
         <v>45</v>
@@ -4041,13 +4047,13 @@
         <v>41626</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="M5" s="7">
         <v>93</v>
@@ -4056,13 +4062,13 @@
         <v>90518</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>95</v>
+        <v>249</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4130,13 +4136,13 @@
         <v>350049</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="H7" s="7">
         <v>268</v>
@@ -4145,28 +4151,28 @@
         <v>272962</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>248</v>
+        <v>207</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="M7" s="7">
         <v>606</v>
       </c>
       <c r="N7" s="7">
-        <v>623010</v>
+        <v>623011</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4181,13 +4187,13 @@
         <v>175403</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="H8" s="7">
         <v>240</v>
@@ -4196,13 +4202,13 @@
         <v>239292</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>258</v>
+        <v>198</v>
       </c>
       <c r="M8" s="7">
         <v>409</v>
@@ -4211,13 +4217,13 @@
         <v>414695</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4259,7 +4265,7 @@
         <v>1015</v>
       </c>
       <c r="N9" s="7">
-        <v>1037705</v>
+        <v>1037706</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -4285,13 +4291,13 @@
         <v>587910</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="H10" s="7">
         <v>512</v>
@@ -4300,13 +4306,13 @@
         <v>554193</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="M10" s="7">
         <v>1061</v>
@@ -4315,13 +4321,13 @@
         <v>1142104</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>231</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4336,13 +4342,13 @@
         <v>396343</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="H11" s="7">
         <v>423</v>
@@ -4351,13 +4357,13 @@
         <v>440022</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="M11" s="7">
         <v>790</v>
@@ -4366,13 +4372,13 @@
         <v>836364</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>239</v>
+        <v>27</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4440,13 +4446,13 @@
         <v>442292</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>279</v>
+        <v>160</v>
       </c>
       <c r="H13" s="7">
         <v>326</v>
@@ -4455,13 +4461,13 @@
         <v>354356</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>281</v>
+        <v>127</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="M13" s="7">
         <v>734</v>
@@ -4470,13 +4476,13 @@
         <v>796647</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>18</v>
+        <v>285</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4491,13 +4497,13 @@
         <v>303264</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>285</v>
+        <v>170</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="H14" s="7">
         <v>377</v>
@@ -4506,13 +4512,13 @@
         <v>393143</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>289</v>
+        <v>137</v>
       </c>
       <c r="M14" s="7">
         <v>651</v>
@@ -4521,13 +4527,13 @@
         <v>696407</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>29</v>
+        <v>291</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4583,7 +4589,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4595,13 +4601,13 @@
         <v>543471</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="H16" s="7">
         <v>457</v>
@@ -4610,13 +4616,13 @@
         <v>503765</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="M16" s="7">
         <v>998</v>
@@ -4625,13 +4631,13 @@
         <v>1047236</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>299</v>
+        <v>111</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4646,13 +4652,13 @@
         <v>362286</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="H17" s="7">
         <v>451</v>
@@ -4661,13 +4667,13 @@
         <v>481026</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="M17" s="7">
         <v>812</v>
@@ -4676,13 +4682,13 @@
         <v>843312</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>309</v>
+        <v>119</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4893,7 +4899,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -4914,7 +4920,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A32407A0-3FAB-4DAA-8763-A91D0A88094E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{761F35AE-F11A-4A2D-80E6-AF68822CFB32}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5059,7 +5065,7 @@
         <v>333</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>152</v>
+        <v>334</v>
       </c>
       <c r="M4" s="7">
         <v>215</v>
@@ -5068,13 +5074,13 @@
         <v>130622</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5089,13 +5095,13 @@
         <v>36791</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="H5" s="7">
         <v>82</v>
@@ -5104,13 +5110,13 @@
         <v>49483</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>160</v>
+        <v>342</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="M5" s="7">
         <v>119</v>
@@ -5119,13 +5125,13 @@
         <v>86274</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5193,13 +5199,13 @@
         <v>376790</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>13</v>
+        <v>349</v>
       </c>
       <c r="H7" s="7">
         <v>567</v>
@@ -5208,13 +5214,13 @@
         <v>316301</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>347</v>
+        <v>124</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="M7" s="7">
         <v>995</v>
@@ -5223,10 +5229,10 @@
         <v>693091</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>11</v>
@@ -5244,13 +5250,13 @@
         <v>163172</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>22</v>
+        <v>355</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="H8" s="7">
         <v>382</v>
@@ -5259,13 +5265,13 @@
         <v>254032</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>354</v>
+        <v>134</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="M8" s="7">
         <v>551</v>
@@ -5274,13 +5280,13 @@
         <v>417204</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>21</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5348,13 +5354,13 @@
         <v>624052</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="H10" s="7">
         <v>821</v>
@@ -5363,13 +5369,13 @@
         <v>522074</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="M10" s="7">
         <v>1413</v>
@@ -5378,13 +5384,13 @@
         <v>1146126</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5399,13 +5405,13 @@
         <v>403453</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="H11" s="7">
         <v>640</v>
@@ -5414,13 +5420,13 @@
         <v>504315</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="M11" s="7">
         <v>999</v>
@@ -5429,13 +5435,13 @@
         <v>907768</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5503,13 +5509,13 @@
         <v>451801</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>59</v>
+        <v>378</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="H13" s="7">
         <v>532</v>
@@ -5518,13 +5524,13 @@
         <v>468734</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>377</v>
+        <v>12</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="M13" s="7">
         <v>976</v>
@@ -5533,13 +5539,13 @@
         <v>920535</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5554,13 +5560,13 @@
         <v>268674</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>67</v>
+        <v>387</v>
       </c>
       <c r="H14" s="7">
         <v>475</v>
@@ -5569,13 +5575,13 @@
         <v>371204</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>385</v>
+        <v>23</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="M14" s="7">
         <v>697</v>
@@ -5584,13 +5590,13 @@
         <v>639877</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5646,7 +5652,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5658,13 +5664,13 @@
         <v>581028</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="H16" s="7">
         <v>809</v>
@@ -5673,13 +5679,13 @@
         <v>558641</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="M16" s="7">
         <v>1444</v>
@@ -5688,13 +5694,13 @@
         <v>1139670</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>397</v>
+        <v>218</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5709,13 +5715,13 @@
         <v>354298</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="H17" s="7">
         <v>680</v>
@@ -5724,13 +5730,13 @@
         <v>540382</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="M17" s="7">
         <v>1016</v>
@@ -5739,7 +5745,7 @@
         <v>894680</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>406</v>
+        <v>226</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>407</v>
@@ -5816,10 +5822,10 @@
         <v>409</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>109</v>
+        <v>410</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="H19" s="7">
         <v>2870</v>
@@ -5828,13 +5834,13 @@
         <v>1937128</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="M19" s="7">
         <v>5043</v>
@@ -5843,13 +5849,13 @@
         <v>4030042</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5864,13 +5870,13 @@
         <v>1226388</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>117</v>
+        <v>420</v>
       </c>
       <c r="H20" s="7">
         <v>2259</v>
@@ -5879,13 +5885,13 @@
         <v>1719416</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="M20" s="7">
         <v>3382</v>
@@ -5894,13 +5900,13 @@
         <v>2945804</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5956,7 +5962,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IMC_R2-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IMC_R2-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4C87DB29-5C48-460B-AC8E-4FF3DD6CA86E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EF621B2F-4FC5-40E2-9D9F-374B43800DA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{FE0768A9-BD3D-4B78-B355-3DF5BD931B97}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{3F7D2548-DAA5-4EAD-BB20-E2E8C6BAA37E}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="427">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="439">
   <si>
     <t>Población con sobrepeso u obesidad en 2007 (Tasa respuesta: 98,86%)</t>
   </si>
@@ -77,1249 +77,1285 @@
     <t>65,13%</t>
   </si>
   <si>
+    <t>54,98%</t>
+  </si>
+  <si>
+    <t>73,25%</t>
+  </si>
+  <si>
+    <t>54,74%</t>
+  </si>
+  <si>
+    <t>46,29%</t>
+  </si>
+  <si>
+    <t>64,51%</t>
+  </si>
+  <si>
+    <t>59,97%</t>
+  </si>
+  <si>
+    <t>53,44%</t>
+  </si>
+  <si>
+    <t>65,98%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>34,87%</t>
+  </si>
+  <si>
+    <t>26,75%</t>
+  </si>
+  <si>
+    <t>45,02%</t>
+  </si>
+  <si>
+    <t>45,26%</t>
+  </si>
+  <si>
+    <t>35,49%</t>
+  </si>
+  <si>
+    <t>53,71%</t>
+  </si>
+  <si>
+    <t>40,03%</t>
+  </si>
+  <si>
+    <t>34,02%</t>
+  </si>
+  <si>
+    <t>46,56%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
+  </si>
+  <si>
+    <t>62,77%</t>
+  </si>
+  <si>
+    <t>58,66%</t>
+  </si>
+  <si>
+    <t>66,58%</t>
+  </si>
+  <si>
+    <t>51,78%</t>
+  </si>
+  <si>
+    <t>47,82%</t>
+  </si>
+  <si>
+    <t>56,08%</t>
+  </si>
+  <si>
+    <t>57,32%</t>
+  </si>
+  <si>
+    <t>54,55%</t>
+  </si>
+  <si>
+    <t>60,24%</t>
+  </si>
+  <si>
+    <t>37,23%</t>
+  </si>
+  <si>
+    <t>33,42%</t>
+  </si>
+  <si>
+    <t>41,34%</t>
+  </si>
+  <si>
+    <t>48,22%</t>
+  </si>
+  <si>
+    <t>43,92%</t>
+  </si>
+  <si>
+    <t>52,18%</t>
+  </si>
+  <si>
+    <t>42,68%</t>
+  </si>
+  <si>
+    <t>39,76%</t>
+  </si>
+  <si>
+    <t>45,45%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>62,13%</t>
+  </si>
+  <si>
+    <t>58,93%</t>
+  </si>
+  <si>
+    <t>65,53%</t>
+  </si>
+  <si>
+    <t>49,62%</t>
+  </si>
+  <si>
+    <t>46,3%</t>
+  </si>
+  <si>
+    <t>52,71%</t>
+  </si>
+  <si>
+    <t>55,87%</t>
+  </si>
+  <si>
+    <t>53,23%</t>
+  </si>
+  <si>
+    <t>58,13%</t>
+  </si>
+  <si>
+    <t>37,87%</t>
+  </si>
+  <si>
+    <t>34,47%</t>
+  </si>
+  <si>
+    <t>41,07%</t>
+  </si>
+  <si>
+    <t>50,38%</t>
+  </si>
+  <si>
+    <t>47,29%</t>
+  </si>
+  <si>
+    <t>53,7%</t>
+  </si>
+  <si>
+    <t>44,13%</t>
+  </si>
+  <si>
+    <t>41,87%</t>
+  </si>
+  <si>
+    <t>46,77%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>55,99%</t>
+  </si>
+  <si>
+    <t>51,76%</t>
+  </si>
+  <si>
+    <t>59,96%</t>
+  </si>
+  <si>
+    <t>45,9%</t>
+  </si>
+  <si>
+    <t>42,47%</t>
+  </si>
+  <si>
+    <t>49,79%</t>
+  </si>
+  <si>
+    <t>50,92%</t>
+  </si>
+  <si>
+    <t>47,98%</t>
+  </si>
+  <si>
+    <t>53,48%</t>
+  </si>
+  <si>
+    <t>44,01%</t>
+  </si>
+  <si>
+    <t>40,04%</t>
+  </si>
+  <si>
+    <t>48,24%</t>
+  </si>
+  <si>
+    <t>54,1%</t>
+  </si>
+  <si>
+    <t>50,21%</t>
+  </si>
+  <si>
+    <t>57,53%</t>
+  </si>
+  <si>
+    <t>49,08%</t>
+  </si>
+  <si>
+    <t>46,52%</t>
+  </si>
+  <si>
+    <t>52,02%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>56,01%</t>
+  </si>
+  <si>
+    <t>52,56%</t>
+  </si>
+  <si>
+    <t>59,14%</t>
+  </si>
+  <si>
+    <t>42,61%</t>
+  </si>
+  <si>
+    <t>39,35%</t>
+  </si>
+  <si>
+    <t>45,58%</t>
+  </si>
+  <si>
+    <t>48,99%</t>
+  </si>
+  <si>
+    <t>46,72%</t>
+  </si>
+  <si>
+    <t>51,26%</t>
+  </si>
+  <si>
+    <t>43,99%</t>
+  </si>
+  <si>
+    <t>40,86%</t>
+  </si>
+  <si>
+    <t>47,44%</t>
+  </si>
+  <si>
+    <t>57,39%</t>
+  </si>
+  <si>
+    <t>54,42%</t>
+  </si>
+  <si>
+    <t>60,65%</t>
+  </si>
+  <si>
+    <t>51,01%</t>
+  </si>
+  <si>
+    <t>48,74%</t>
+  </si>
+  <si>
+    <t>53,28%</t>
+  </si>
+  <si>
+    <t>59,32%</t>
+  </si>
+  <si>
+    <t>57,64%</t>
+  </si>
+  <si>
+    <t>61,08%</t>
+  </si>
+  <si>
+    <t>47,26%</t>
+  </si>
+  <si>
+    <t>45,59%</t>
+  </si>
+  <si>
+    <t>48,95%</t>
+  </si>
+  <si>
+    <t>53,21%</t>
+  </si>
+  <si>
+    <t>52,04%</t>
+  </si>
+  <si>
+    <t>54,57%</t>
+  </si>
+  <si>
+    <t>40,68%</t>
+  </si>
+  <si>
+    <t>38,92%</t>
+  </si>
+  <si>
+    <t>42,36%</t>
+  </si>
+  <si>
+    <t>52,74%</t>
+  </si>
+  <si>
+    <t>51,05%</t>
+  </si>
+  <si>
+    <t>54,41%</t>
+  </si>
+  <si>
+    <t>46,79%</t>
+  </si>
+  <si>
+    <t>45,43%</t>
+  </si>
+  <si>
+    <t>47,96%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con sobrepeso u obesidad en 2012 (Tasa respuesta: 96,9%)</t>
+  </si>
+  <si>
+    <t>64,9%</t>
+  </si>
+  <si>
+    <t>55,72%</t>
+  </si>
+  <si>
+    <t>72,42%</t>
+  </si>
+  <si>
+    <t>53,63%</t>
+  </si>
+  <si>
+    <t>43,67%</t>
+  </si>
+  <si>
+    <t>65,11%</t>
+  </si>
+  <si>
+    <t>59,51%</t>
+  </si>
+  <si>
+    <t>52,42%</t>
+  </si>
+  <si>
+    <t>66,05%</t>
+  </si>
+  <si>
+    <t>35,1%</t>
+  </si>
+  <si>
+    <t>27,58%</t>
+  </si>
+  <si>
+    <t>44,28%</t>
+  </si>
+  <si>
+    <t>46,37%</t>
+  </si>
+  <si>
+    <t>34,89%</t>
+  </si>
+  <si>
+    <t>56,33%</t>
+  </si>
+  <si>
+    <t>40,49%</t>
+  </si>
+  <si>
+    <t>33,95%</t>
+  </si>
+  <si>
+    <t>47,58%</t>
+  </si>
+  <si>
+    <t>71,74%</t>
+  </si>
+  <si>
+    <t>67,75%</t>
+  </si>
+  <si>
+    <t>75,59%</t>
+  </si>
+  <si>
+    <t>54,89%</t>
+  </si>
+  <si>
+    <t>50,58%</t>
+  </si>
+  <si>
+    <t>59,17%</t>
+  </si>
+  <si>
+    <t>63,48%</t>
+  </si>
+  <si>
+    <t>60,5%</t>
+  </si>
+  <si>
+    <t>66,42%</t>
+  </si>
+  <si>
+    <t>28,26%</t>
+  </si>
+  <si>
+    <t>24,41%</t>
+  </si>
+  <si>
+    <t>32,25%</t>
+  </si>
+  <si>
+    <t>45,11%</t>
+  </si>
+  <si>
+    <t>40,83%</t>
+  </si>
+  <si>
+    <t>49,42%</t>
+  </si>
+  <si>
+    <t>36,52%</t>
+  </si>
+  <si>
+    <t>33,58%</t>
+  </si>
+  <si>
+    <t>39,5%</t>
+  </si>
+  <si>
+    <t>66,07%</t>
+  </si>
+  <si>
+    <t>62,96%</t>
+  </si>
+  <si>
+    <t>69,14%</t>
+  </si>
+  <si>
+    <t>55,73%</t>
+  </si>
+  <si>
+    <t>52,48%</t>
+  </si>
+  <si>
+    <t>59,09%</t>
+  </si>
+  <si>
+    <t>60,9%</t>
+  </si>
+  <si>
+    <t>58,67%</t>
+  </si>
+  <si>
+    <t>63,39%</t>
+  </si>
+  <si>
+    <t>33,93%</t>
+  </si>
+  <si>
+    <t>30,86%</t>
+  </si>
+  <si>
+    <t>37,04%</t>
+  </si>
+  <si>
+    <t>44,27%</t>
+  </si>
+  <si>
+    <t>40,91%</t>
+  </si>
+  <si>
+    <t>47,52%</t>
+  </si>
+  <si>
+    <t>39,1%</t>
+  </si>
+  <si>
+    <t>36,61%</t>
+  </si>
+  <si>
+    <t>41,33%</t>
+  </si>
+  <si>
+    <t>59,83%</t>
+  </si>
+  <si>
+    <t>55,8%</t>
+  </si>
+  <si>
+    <t>63,57%</t>
+  </si>
+  <si>
+    <t>56,7%</t>
+  </si>
+  <si>
+    <t>52,51%</t>
+  </si>
+  <si>
+    <t>60,29%</t>
+  </si>
+  <si>
+    <t>58,26%</t>
+  </si>
+  <si>
+    <t>55,57%</t>
+  </si>
+  <si>
+    <t>60,88%</t>
+  </si>
+  <si>
+    <t>40,17%</t>
+  </si>
+  <si>
+    <t>36,43%</t>
+  </si>
+  <si>
+    <t>44,2%</t>
+  </si>
+  <si>
+    <t>43,3%</t>
+  </si>
+  <si>
+    <t>39,71%</t>
+  </si>
+  <si>
+    <t>47,49%</t>
+  </si>
+  <si>
+    <t>41,74%</t>
+  </si>
+  <si>
+    <t>39,12%</t>
+  </si>
+  <si>
+    <t>44,43%</t>
+  </si>
+  <si>
+    <t>65,24%</t>
+  </si>
+  <si>
+    <t>62,1%</t>
+  </si>
+  <si>
+    <t>68,21%</t>
+  </si>
+  <si>
+    <t>50,97%</t>
+  </si>
+  <si>
+    <t>47,79%</t>
+  </si>
+  <si>
+    <t>54,05%</t>
+  </si>
+  <si>
+    <t>57,83%</t>
+  </si>
+  <si>
+    <t>55,51%</t>
+  </si>
+  <si>
+    <t>60,08%</t>
+  </si>
+  <si>
+    <t>34,76%</t>
+  </si>
+  <si>
+    <t>31,79%</t>
+  </si>
+  <si>
+    <t>37,9%</t>
+  </si>
+  <si>
+    <t>49,03%</t>
+  </si>
+  <si>
+    <t>45,95%</t>
+  </si>
+  <si>
+    <t>52,21%</t>
+  </si>
+  <si>
+    <t>42,17%</t>
+  </si>
+  <si>
+    <t>39,92%</t>
+  </si>
+  <si>
+    <t>44,49%</t>
+  </si>
+  <si>
+    <t>65,4%</t>
+  </si>
+  <si>
+    <t>63,75%</t>
+  </si>
+  <si>
+    <t>67,17%</t>
+  </si>
+  <si>
+    <t>54,33%</t>
+  </si>
+  <si>
+    <t>52,6%</t>
+  </si>
+  <si>
+    <t>56,17%</t>
+  </si>
+  <si>
+    <t>59,82%</t>
+  </si>
+  <si>
+    <t>58,52%</t>
+  </si>
+  <si>
+    <t>61,0%</t>
+  </si>
+  <si>
+    <t>34,6%</t>
+  </si>
+  <si>
+    <t>32,83%</t>
+  </si>
+  <si>
+    <t>36,25%</t>
+  </si>
+  <si>
+    <t>45,67%</t>
+  </si>
+  <si>
+    <t>43,83%</t>
+  </si>
+  <si>
+    <t>47,4%</t>
+  </si>
+  <si>
+    <t>40,18%</t>
+  </si>
+  <si>
+    <t>39,0%</t>
+  </si>
+  <si>
+    <t>41,48%</t>
+  </si>
+  <si>
+    <t>Población con sobrepeso u obesidad en 2016 (Tasa respuesta: 95,54%)</t>
+  </si>
+  <si>
+    <t>56,69%</t>
+  </si>
+  <si>
+    <t>46,85%</t>
+  </si>
+  <si>
+    <t>65,66%</t>
+  </si>
+  <si>
+    <t>59,81%</t>
+  </si>
+  <si>
+    <t>50,88%</t>
+  </si>
+  <si>
+    <t>68,7%</t>
+  </si>
+  <si>
+    <t>58,18%</t>
+  </si>
+  <si>
+    <t>51,9%</t>
+  </si>
+  <si>
+    <t>65,46%</t>
+  </si>
+  <si>
+    <t>43,31%</t>
+  </si>
+  <si>
+    <t>34,34%</t>
+  </si>
+  <si>
+    <t>53,15%</t>
+  </si>
+  <si>
+    <t>40,19%</t>
+  </si>
+  <si>
+    <t>31,3%</t>
+  </si>
+  <si>
+    <t>49,12%</t>
+  </si>
+  <si>
+    <t>41,82%</t>
+  </si>
+  <si>
+    <t>34,54%</t>
+  </si>
+  <si>
+    <t>48,1%</t>
+  </si>
+  <si>
+    <t>66,62%</t>
+  </si>
+  <si>
+    <t>62,45%</t>
+  </si>
+  <si>
+    <t>70,59%</t>
+  </si>
+  <si>
+    <t>53,29%</t>
+  </si>
+  <si>
+    <t>49,0%</t>
+  </si>
+  <si>
+    <t>58,09%</t>
+  </si>
+  <si>
+    <t>60,04%</t>
+  </si>
+  <si>
+    <t>57,14%</t>
+  </si>
+  <si>
+    <t>63,19%</t>
+  </si>
+  <si>
+    <t>33,38%</t>
+  </si>
+  <si>
+    <t>29,41%</t>
+  </si>
+  <si>
+    <t>37,55%</t>
+  </si>
+  <si>
+    <t>46,71%</t>
+  </si>
+  <si>
+    <t>41,91%</t>
+  </si>
+  <si>
+    <t>51,0%</t>
+  </si>
+  <si>
+    <t>39,96%</t>
+  </si>
+  <si>
+    <t>36,81%</t>
+  </si>
+  <si>
+    <t>42,86%</t>
+  </si>
+  <si>
+    <t>59,73%</t>
+  </si>
+  <si>
+    <t>56,64%</t>
+  </si>
+  <si>
+    <t>62,78%</t>
+  </si>
+  <si>
+    <t>55,74%</t>
+  </si>
+  <si>
+    <t>52,67%</t>
+  </si>
+  <si>
+    <t>58,74%</t>
+  </si>
+  <si>
+    <t>57,73%</t>
+  </si>
+  <si>
+    <t>55,44%</t>
+  </si>
+  <si>
+    <t>59,95%</t>
+  </si>
+  <si>
+    <t>40,27%</t>
+  </si>
+  <si>
+    <t>37,22%</t>
+  </si>
+  <si>
+    <t>43,36%</t>
+  </si>
+  <si>
+    <t>44,26%</t>
+  </si>
+  <si>
+    <t>41,26%</t>
+  </si>
+  <si>
+    <t>47,33%</t>
+  </si>
+  <si>
+    <t>42,27%</t>
+  </si>
+  <si>
+    <t>40,05%</t>
+  </si>
+  <si>
+    <t>44,56%</t>
+  </si>
+  <si>
+    <t>55,38%</t>
+  </si>
+  <si>
+    <t>63,04%</t>
+  </si>
+  <si>
+    <t>47,41%</t>
+  </si>
+  <si>
+    <t>43,63%</t>
+  </si>
+  <si>
+    <t>51,17%</t>
+  </si>
+  <si>
+    <t>53,36%</t>
+  </si>
+  <si>
+    <t>50,82%</t>
+  </si>
+  <si>
+    <t>36,96%</t>
+  </si>
+  <si>
+    <t>44,62%</t>
+  </si>
+  <si>
+    <t>52,59%</t>
+  </si>
+  <si>
+    <t>48,83%</t>
+  </si>
+  <si>
+    <t>56,37%</t>
+  </si>
+  <si>
+    <t>46,64%</t>
+  </si>
+  <si>
+    <t>49,18%</t>
+  </si>
+  <si>
+    <t>60,0%</t>
+  </si>
+  <si>
+    <t>56,85%</t>
+  </si>
+  <si>
+    <t>63,59%</t>
+  </si>
+  <si>
+    <t>51,15%</t>
+  </si>
+  <si>
+    <t>47,57%</t>
+  </si>
+  <si>
+    <t>54,0%</t>
+  </si>
+  <si>
+    <t>55,39%</t>
+  </si>
+  <si>
+    <t>53,3%</t>
+  </si>
+  <si>
+    <t>57,81%</t>
+  </si>
+  <si>
+    <t>40,0%</t>
+  </si>
+  <si>
+    <t>36,41%</t>
+  </si>
+  <si>
+    <t>43,15%</t>
+  </si>
+  <si>
+    <t>48,85%</t>
+  </si>
+  <si>
+    <t>46,0%</t>
+  </si>
+  <si>
+    <t>52,43%</t>
+  </si>
+  <si>
+    <t>44,61%</t>
+  </si>
+  <si>
+    <t>42,19%</t>
+  </si>
+  <si>
+    <t>46,7%</t>
+  </si>
+  <si>
+    <t>60,71%</t>
+  </si>
+  <si>
+    <t>58,94%</t>
+  </si>
+  <si>
+    <t>62,47%</t>
+  </si>
+  <si>
+    <t>52,28%</t>
+  </si>
+  <si>
+    <t>50,49%</t>
+  </si>
+  <si>
+    <t>53,87%</t>
+  </si>
+  <si>
+    <t>56,45%</t>
+  </si>
+  <si>
+    <t>55,19%</t>
+  </si>
+  <si>
+    <t>57,62%</t>
+  </si>
+  <si>
+    <t>39,29%</t>
+  </si>
+  <si>
+    <t>37,53%</t>
+  </si>
+  <si>
+    <t>41,06%</t>
+  </si>
+  <si>
+    <t>47,72%</t>
+  </si>
+  <si>
+    <t>46,13%</t>
+  </si>
+  <si>
+    <t>49,51%</t>
+  </si>
+  <si>
+    <t>43,55%</t>
+  </si>
+  <si>
+    <t>42,38%</t>
+  </si>
+  <si>
+    <t>44,81%</t>
+  </si>
+  <si>
+    <t>Población con sobrepeso u obesidad en 2023 (Tasa respuesta: 96,36%)</t>
+  </si>
+  <si>
+    <t>61,69%</t>
+  </si>
+  <si>
+    <t>50,41%</t>
+  </si>
+  <si>
+    <t>71,64%</t>
+  </si>
+  <si>
+    <t>59,06%</t>
+  </si>
+  <si>
+    <t>51,27%</t>
+  </si>
+  <si>
+    <t>66,13%</t>
+  </si>
+  <si>
+    <t>60,22%</t>
+  </si>
+  <si>
+    <t>66,51%</t>
+  </si>
+  <si>
+    <t>38,31%</t>
+  </si>
+  <si>
+    <t>28,36%</t>
+  </si>
+  <si>
+    <t>49,59%</t>
+  </si>
+  <si>
+    <t>40,94%</t>
+  </si>
+  <si>
+    <t>33,87%</t>
+  </si>
+  <si>
+    <t>48,73%</t>
+  </si>
+  <si>
+    <t>39,78%</t>
+  </si>
+  <si>
+    <t>33,49%</t>
+  </si>
+  <si>
+    <t>69,78%</t>
+  </si>
+  <si>
+    <t>65,36%</t>
+  </si>
+  <si>
+    <t>73,87%</t>
+  </si>
+  <si>
+    <t>55,46%</t>
+  </si>
+  <si>
+    <t>51,94%</t>
+  </si>
+  <si>
+    <t>62,42%</t>
+  </si>
+  <si>
+    <t>59,58%</t>
+  </si>
+  <si>
+    <t>65,2%</t>
+  </si>
+  <si>
+    <t>30,22%</t>
+  </si>
+  <si>
+    <t>26,13%</t>
+  </si>
+  <si>
+    <t>34,64%</t>
+  </si>
+  <si>
+    <t>44,54%</t>
+  </si>
+  <si>
+    <t>48,06%</t>
+  </si>
+  <si>
+    <t>37,58%</t>
+  </si>
+  <si>
+    <t>34,8%</t>
+  </si>
+  <si>
+    <t>40,42%</t>
+  </si>
+  <si>
+    <t>60,73%</t>
+  </si>
+  <si>
+    <t>56,43%</t>
+  </si>
+  <si>
+    <t>67,12%</t>
+  </si>
+  <si>
+    <t>50,87%</t>
+  </si>
+  <si>
+    <t>48,09%</t>
+  </si>
+  <si>
+    <t>53,66%</t>
+  </si>
+  <si>
+    <t>59,49%</t>
+  </si>
+  <si>
+    <t>39,27%</t>
+  </si>
+  <si>
+    <t>32,88%</t>
+  </si>
+  <si>
+    <t>43,57%</t>
+  </si>
+  <si>
+    <t>49,13%</t>
+  </si>
+  <si>
+    <t>46,34%</t>
+  </si>
+  <si>
+    <t>51,91%</t>
+  </si>
+  <si>
+    <t>40,51%</t>
+  </si>
+  <si>
+    <t>62,71%</t>
+  </si>
+  <si>
+    <t>58,84%</t>
+  </si>
+  <si>
+    <t>66,66%</t>
+  </si>
+  <si>
     <t>55,81%</t>
   </si>
   <si>
-    <t>73,87%</t>
-  </si>
-  <si>
-    <t>54,74%</t>
-  </si>
-  <si>
-    <t>45,79%</t>
-  </si>
-  <si>
-    <t>62,67%</t>
-  </si>
-  <si>
-    <t>59,97%</t>
-  </si>
-  <si>
-    <t>53,73%</t>
-  </si>
-  <si>
-    <t>65,76%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>34,87%</t>
-  </si>
-  <si>
-    <t>26,13%</t>
+    <t>47,77%</t>
+  </si>
+  <si>
+    <t>71,42%</t>
+  </si>
+  <si>
+    <t>58,99%</t>
+  </si>
+  <si>
+    <t>54,82%</t>
+  </si>
+  <si>
+    <t>67,14%</t>
+  </si>
+  <si>
+    <t>37,29%</t>
+  </si>
+  <si>
+    <t>33,34%</t>
+  </si>
+  <si>
+    <t>41,16%</t>
   </si>
   <si>
     <t>44,19%</t>
   </si>
   <si>
-    <t>45,26%</t>
-  </si>
-  <si>
-    <t>37,33%</t>
-  </si>
-  <si>
-    <t>54,21%</t>
-  </si>
-  <si>
-    <t>40,03%</t>
-  </si>
-  <si>
-    <t>34,24%</t>
-  </si>
-  <si>
-    <t>46,27%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>62,77%</t>
-  </si>
-  <si>
-    <t>58,43%</t>
-  </si>
-  <si>
-    <t>66,44%</t>
-  </si>
-  <si>
-    <t>51,78%</t>
-  </si>
-  <si>
-    <t>47,85%</t>
-  </si>
-  <si>
-    <t>56,3%</t>
-  </si>
-  <si>
-    <t>57,32%</t>
-  </si>
-  <si>
-    <t>54,55%</t>
-  </si>
-  <si>
-    <t>60,27%</t>
-  </si>
-  <si>
-    <t>37,23%</t>
-  </si>
-  <si>
-    <t>33,56%</t>
-  </si>
-  <si>
-    <t>41,57%</t>
-  </si>
-  <si>
-    <t>48,22%</t>
-  </si>
-  <si>
-    <t>43,7%</t>
-  </si>
-  <si>
-    <t>52,15%</t>
-  </si>
-  <si>
-    <t>42,68%</t>
-  </si>
-  <si>
-    <t>39,73%</t>
-  </si>
-  <si>
-    <t>45,45%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>62,13%</t>
-  </si>
-  <si>
-    <t>58,94%</t>
-  </si>
-  <si>
-    <t>65,3%</t>
-  </si>
-  <si>
-    <t>49,62%</t>
-  </si>
-  <si>
-    <t>46,23%</t>
-  </si>
-  <si>
-    <t>53,16%</t>
-  </si>
-  <si>
-    <t>55,87%</t>
-  </si>
-  <si>
-    <t>53,74%</t>
-  </si>
-  <si>
-    <t>58,3%</t>
-  </si>
-  <si>
-    <t>37,87%</t>
-  </si>
-  <si>
-    <t>34,7%</t>
-  </si>
-  <si>
-    <t>41,06%</t>
-  </si>
-  <si>
-    <t>50,38%</t>
-  </si>
-  <si>
-    <t>46,84%</t>
-  </si>
-  <si>
-    <t>53,77%</t>
-  </si>
-  <si>
-    <t>44,13%</t>
-  </si>
-  <si>
-    <t>41,7%</t>
-  </si>
-  <si>
-    <t>46,26%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>55,99%</t>
-  </si>
-  <si>
-    <t>52,1%</t>
-  </si>
-  <si>
-    <t>45,9%</t>
-  </si>
-  <si>
-    <t>42,44%</t>
-  </si>
-  <si>
-    <t>49,72%</t>
-  </si>
-  <si>
-    <t>50,92%</t>
-  </si>
-  <si>
-    <t>47,84%</t>
-  </si>
-  <si>
-    <t>53,51%</t>
-  </si>
-  <si>
-    <t>44,01%</t>
-  </si>
-  <si>
-    <t>47,9%</t>
-  </si>
-  <si>
-    <t>54,1%</t>
-  </si>
-  <si>
-    <t>50,28%</t>
-  </si>
-  <si>
-    <t>57,56%</t>
-  </si>
-  <si>
-    <t>49,08%</t>
-  </si>
-  <si>
-    <t>46,49%</t>
-  </si>
-  <si>
-    <t>52,16%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>56,01%</t>
-  </si>
-  <si>
-    <t>53,14%</t>
-  </si>
-  <si>
-    <t>59,31%</t>
-  </si>
-  <si>
-    <t>42,61%</t>
-  </si>
-  <si>
-    <t>39,62%</t>
-  </si>
-  <si>
-    <t>45,8%</t>
-  </si>
-  <si>
-    <t>48,99%</t>
-  </si>
-  <si>
-    <t>46,8%</t>
-  </si>
-  <si>
-    <t>51,23%</t>
-  </si>
-  <si>
-    <t>43,99%</t>
-  </si>
-  <si>
-    <t>40,69%</t>
-  </si>
-  <si>
-    <t>46,86%</t>
-  </si>
-  <si>
-    <t>57,39%</t>
-  </si>
-  <si>
-    <t>54,2%</t>
-  </si>
-  <si>
-    <t>60,38%</t>
-  </si>
-  <si>
-    <t>51,01%</t>
-  </si>
-  <si>
-    <t>48,77%</t>
-  </si>
-  <si>
-    <t>53,2%</t>
-  </si>
-  <si>
-    <t>59,32%</t>
-  </si>
-  <si>
-    <t>57,41%</t>
-  </si>
-  <si>
-    <t>60,98%</t>
-  </si>
-  <si>
-    <t>47,26%</t>
-  </si>
-  <si>
-    <t>45,59%</t>
-  </si>
-  <si>
-    <t>49,0%</t>
-  </si>
-  <si>
-    <t>53,21%</t>
-  </si>
-  <si>
-    <t>51,99%</t>
-  </si>
-  <si>
-    <t>54,41%</t>
-  </si>
-  <si>
-    <t>40,68%</t>
-  </si>
-  <si>
-    <t>39,02%</t>
-  </si>
-  <si>
-    <t>42,59%</t>
-  </si>
-  <si>
-    <t>52,74%</t>
-  </si>
-  <si>
-    <t>51,0%</t>
-  </si>
-  <si>
-    <t>46,79%</t>
-  </si>
-  <si>
-    <t>48,01%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con sobrepeso u obesidad en 2012 (Tasa respuesta: 96,9%)</t>
-  </si>
-  <si>
-    <t>64,9%</t>
-  </si>
-  <si>
-    <t>55,46%</t>
-  </si>
-  <si>
-    <t>73,16%</t>
-  </si>
-  <si>
-    <t>53,63%</t>
-  </si>
-  <si>
-    <t>43,84%</t>
-  </si>
-  <si>
-    <t>65,0%</t>
-  </si>
-  <si>
-    <t>59,51%</t>
-  </si>
-  <si>
-    <t>52,35%</t>
-  </si>
-  <si>
-    <t>66,67%</t>
-  </si>
-  <si>
-    <t>35,1%</t>
-  </si>
-  <si>
-    <t>26,84%</t>
-  </si>
-  <si>
-    <t>44,54%</t>
-  </si>
-  <si>
-    <t>46,37%</t>
-  </si>
-  <si>
-    <t>35,0%</t>
-  </si>
-  <si>
-    <t>56,16%</t>
-  </si>
-  <si>
-    <t>40,49%</t>
-  </si>
-  <si>
-    <t>33,33%</t>
-  </si>
-  <si>
-    <t>47,65%</t>
-  </si>
-  <si>
-    <t>71,74%</t>
-  </si>
-  <si>
-    <t>67,84%</t>
-  </si>
-  <si>
-    <t>75,66%</t>
-  </si>
-  <si>
-    <t>54,89%</t>
-  </si>
-  <si>
-    <t>50,16%</t>
-  </si>
-  <si>
-    <t>58,91%</t>
-  </si>
-  <si>
-    <t>63,48%</t>
-  </si>
-  <si>
-    <t>60,17%</t>
-  </si>
-  <si>
-    <t>66,08%</t>
-  </si>
-  <si>
-    <t>28,26%</t>
-  </si>
-  <si>
-    <t>24,34%</t>
-  </si>
-  <si>
-    <t>32,16%</t>
-  </si>
-  <si>
-    <t>45,11%</t>
-  </si>
-  <si>
-    <t>41,09%</t>
-  </si>
-  <si>
-    <t>49,84%</t>
-  </si>
-  <si>
-    <t>36,52%</t>
-  </si>
-  <si>
-    <t>33,92%</t>
-  </si>
-  <si>
-    <t>39,83%</t>
-  </si>
-  <si>
-    <t>66,07%</t>
-  </si>
-  <si>
-    <t>62,97%</t>
-  </si>
-  <si>
-    <t>69,22%</t>
-  </si>
-  <si>
-    <t>55,73%</t>
-  </si>
-  <si>
-    <t>52,38%</t>
-  </si>
-  <si>
-    <t>59,21%</t>
-  </si>
-  <si>
-    <t>60,9%</t>
-  </si>
-  <si>
-    <t>58,63%</t>
-  </si>
-  <si>
-    <t>63,1%</t>
-  </si>
-  <si>
-    <t>33,93%</t>
-  </si>
-  <si>
-    <t>30,78%</t>
-  </si>
-  <si>
-    <t>37,03%</t>
-  </si>
-  <si>
-    <t>44,27%</t>
-  </si>
-  <si>
-    <t>40,79%</t>
-  </si>
-  <si>
-    <t>47,62%</t>
-  </si>
-  <si>
-    <t>39,1%</t>
-  </si>
-  <si>
-    <t>36,9%</t>
-  </si>
-  <si>
-    <t>41,37%</t>
-  </si>
-  <si>
-    <t>59,83%</t>
-  </si>
-  <si>
-    <t>55,49%</t>
-  </si>
-  <si>
-    <t>63,17%</t>
-  </si>
-  <si>
-    <t>56,7%</t>
-  </si>
-  <si>
-    <t>53,04%</t>
-  </si>
-  <si>
-    <t>60,55%</t>
-  </si>
-  <si>
-    <t>58,26%</t>
-  </si>
-  <si>
-    <t>55,61%</t>
-  </si>
-  <si>
-    <t>60,92%</t>
-  </si>
-  <si>
-    <t>40,17%</t>
-  </si>
-  <si>
-    <t>36,83%</t>
-  </si>
-  <si>
-    <t>44,51%</t>
-  </si>
-  <si>
-    <t>43,3%</t>
-  </si>
-  <si>
-    <t>39,45%</t>
-  </si>
-  <si>
-    <t>46,96%</t>
-  </si>
-  <si>
-    <t>41,74%</t>
-  </si>
-  <si>
-    <t>39,08%</t>
-  </si>
-  <si>
-    <t>44,39%</t>
-  </si>
-  <si>
-    <t>65,24%</t>
-  </si>
-  <si>
-    <t>61,88%</t>
-  </si>
-  <si>
-    <t>68,58%</t>
-  </si>
-  <si>
-    <t>50,97%</t>
-  </si>
-  <si>
-    <t>47,6%</t>
-  </si>
-  <si>
-    <t>54,19%</t>
-  </si>
-  <si>
-    <t>57,83%</t>
-  </si>
-  <si>
-    <t>55,2%</t>
-  </si>
-  <si>
-    <t>59,9%</t>
-  </si>
-  <si>
-    <t>34,76%</t>
-  </si>
-  <si>
-    <t>31,42%</t>
-  </si>
-  <si>
-    <t>38,12%</t>
-  </si>
-  <si>
-    <t>49,03%</t>
-  </si>
-  <si>
-    <t>45,81%</t>
-  </si>
-  <si>
-    <t>52,4%</t>
-  </si>
-  <si>
-    <t>42,17%</t>
-  </si>
-  <si>
-    <t>40,1%</t>
-  </si>
-  <si>
-    <t>44,8%</t>
-  </si>
-  <si>
-    <t>65,4%</t>
-  </si>
-  <si>
-    <t>63,86%</t>
-  </si>
-  <si>
-    <t>67,15%</t>
-  </si>
-  <si>
-    <t>54,33%</t>
-  </si>
-  <si>
-    <t>52,53%</t>
+    <t>28,58%</t>
+  </si>
+  <si>
+    <t>52,23%</t>
+  </si>
+  <si>
+    <t>41,01%</t>
+  </si>
+  <si>
+    <t>32,86%</t>
+  </si>
+  <si>
+    <t>45,18%</t>
+  </si>
+  <si>
+    <t>62,12%</t>
+  </si>
+  <si>
+    <t>58,45%</t>
+  </si>
+  <si>
+    <t>65,45%</t>
+  </si>
+  <si>
+    <t>50,83%</t>
+  </si>
+  <si>
+    <t>47,95%</t>
+  </si>
+  <si>
+    <t>53,98%</t>
   </si>
   <si>
     <t>56,02%</t>
   </si>
   <si>
-    <t>59,82%</t>
-  </si>
-  <si>
-    <t>58,51%</t>
-  </si>
-  <si>
-    <t>60,95%</t>
-  </si>
-  <si>
-    <t>34,6%</t>
-  </si>
-  <si>
-    <t>32,85%</t>
-  </si>
-  <si>
-    <t>36,14%</t>
-  </si>
-  <si>
-    <t>45,67%</t>
+    <t>53,89%</t>
+  </si>
+  <si>
+    <t>58,59%</t>
+  </si>
+  <si>
+    <t>37,88%</t>
+  </si>
+  <si>
+    <t>34,55%</t>
+  </si>
+  <si>
+    <t>41,55%</t>
+  </si>
+  <si>
+    <t>49,17%</t>
+  </si>
+  <si>
+    <t>46,02%</t>
+  </si>
+  <si>
+    <t>52,05%</t>
   </si>
   <si>
     <t>43,98%</t>
   </si>
   <si>
-    <t>47,47%</t>
-  </si>
-  <si>
-    <t>40,18%</t>
-  </si>
-  <si>
-    <t>39,05%</t>
-  </si>
-  <si>
-    <t>41,49%</t>
-  </si>
-  <si>
-    <t>Población con sobrepeso u obesidad en 2016 (Tasa respuesta: 95,54%)</t>
-  </si>
-  <si>
-    <t>56,69%</t>
-  </si>
-  <si>
-    <t>47,69%</t>
-  </si>
-  <si>
-    <t>66,54%</t>
-  </si>
-  <si>
-    <t>59,81%</t>
-  </si>
-  <si>
-    <t>49,44%</t>
-  </si>
-  <si>
-    <t>69,21%</t>
-  </si>
-  <si>
-    <t>58,18%</t>
-  </si>
-  <si>
-    <t>51,45%</t>
-  </si>
-  <si>
-    <t>64,47%</t>
-  </si>
-  <si>
-    <t>43,31%</t>
-  </si>
-  <si>
-    <t>33,46%</t>
-  </si>
-  <si>
-    <t>52,31%</t>
-  </si>
-  <si>
-    <t>40,19%</t>
-  </si>
-  <si>
-    <t>30,79%</t>
-  </si>
-  <si>
-    <t>50,56%</t>
-  </si>
-  <si>
-    <t>41,82%</t>
-  </si>
-  <si>
-    <t>35,53%</t>
-  </si>
-  <si>
-    <t>48,55%</t>
-  </si>
-  <si>
-    <t>66,62%</t>
-  </si>
-  <si>
-    <t>62,18%</t>
-  </si>
-  <si>
-    <t>70,94%</t>
-  </si>
-  <si>
-    <t>53,29%</t>
-  </si>
-  <si>
-    <t>57,85%</t>
-  </si>
-  <si>
-    <t>60,04%</t>
-  </si>
-  <si>
-    <t>56,41%</t>
-  </si>
-  <si>
-    <t>62,93%</t>
-  </si>
-  <si>
-    <t>33,38%</t>
-  </si>
-  <si>
-    <t>29,06%</t>
-  </si>
-  <si>
-    <t>37,82%</t>
-  </si>
-  <si>
-    <t>46,71%</t>
-  </si>
-  <si>
-    <t>42,15%</t>
-  </si>
-  <si>
-    <t>39,96%</t>
-  </si>
-  <si>
-    <t>37,07%</t>
-  </si>
-  <si>
-    <t>43,59%</t>
-  </si>
-  <si>
-    <t>59,73%</t>
-  </si>
-  <si>
-    <t>56,21%</t>
-  </si>
-  <si>
-    <t>62,83%</t>
-  </si>
-  <si>
-    <t>55,74%</t>
-  </si>
-  <si>
-    <t>52,43%</t>
-  </si>
-  <si>
-    <t>58,86%</t>
-  </si>
-  <si>
-    <t>57,73%</t>
-  </si>
-  <si>
-    <t>55,5%</t>
-  </si>
-  <si>
-    <t>40,27%</t>
-  </si>
-  <si>
-    <t>37,17%</t>
-  </si>
-  <si>
-    <t>43,79%</t>
-  </si>
-  <si>
-    <t>44,26%</t>
-  </si>
-  <si>
-    <t>41,14%</t>
-  </si>
-  <si>
-    <t>47,57%</t>
-  </si>
-  <si>
-    <t>42,27%</t>
-  </si>
-  <si>
-    <t>44,5%</t>
-  </si>
-  <si>
-    <t>55,17%</t>
-  </si>
-  <si>
-    <t>47,41%</t>
-  </si>
-  <si>
-    <t>50,98%</t>
-  </si>
-  <si>
-    <t>53,36%</t>
-  </si>
-  <si>
-    <t>50,57%</t>
-  </si>
-  <si>
-    <t>55,96%</t>
-  </si>
-  <si>
-    <t>44,83%</t>
-  </si>
-  <si>
-    <t>52,59%</t>
-  </si>
-  <si>
-    <t>49,02%</t>
-  </si>
-  <si>
-    <t>46,64%</t>
-  </si>
-  <si>
-    <t>44,04%</t>
-  </si>
-  <si>
-    <t>49,43%</t>
-  </si>
-  <si>
-    <t>60,0%</t>
-  </si>
-  <si>
-    <t>57,13%</t>
-  </si>
-  <si>
-    <t>63,45%</t>
-  </si>
-  <si>
-    <t>51,15%</t>
-  </si>
-  <si>
-    <t>47,96%</t>
-  </si>
-  <si>
-    <t>54,43%</t>
-  </si>
-  <si>
-    <t>55,39%</t>
-  </si>
-  <si>
-    <t>57,91%</t>
-  </si>
-  <si>
-    <t>40,0%</t>
-  </si>
-  <si>
-    <t>36,55%</t>
-  </si>
-  <si>
-    <t>42,87%</t>
-  </si>
-  <si>
-    <t>48,85%</t>
-  </si>
-  <si>
-    <t>45,57%</t>
-  </si>
-  <si>
-    <t>52,04%</t>
-  </si>
-  <si>
-    <t>44,61%</t>
-  </si>
-  <si>
-    <t>42,09%</t>
-  </si>
-  <si>
-    <t>60,71%</t>
-  </si>
-  <si>
-    <t>58,97%</t>
-  </si>
-  <si>
-    <t>62,49%</t>
-  </si>
-  <si>
-    <t>52,28%</t>
-  </si>
-  <si>
-    <t>50,52%</t>
-  </si>
-  <si>
-    <t>54,09%</t>
-  </si>
-  <si>
-    <t>56,45%</t>
-  </si>
-  <si>
-    <t>55,13%</t>
-  </si>
-  <si>
-    <t>57,62%</t>
-  </si>
-  <si>
-    <t>39,29%</t>
-  </si>
-  <si>
-    <t>37,51%</t>
-  </si>
-  <si>
-    <t>41,03%</t>
-  </si>
-  <si>
-    <t>47,72%</t>
-  </si>
-  <si>
-    <t>45,91%</t>
-  </si>
-  <si>
-    <t>49,48%</t>
-  </si>
-  <si>
-    <t>43,55%</t>
-  </si>
-  <si>
-    <t>42,38%</t>
-  </si>
-  <si>
-    <t>44,87%</t>
-  </si>
-  <si>
-    <t>Población con sobrepeso u obesidad en 2023 (Tasa respuesta: 96,36%)</t>
-  </si>
-  <si>
-    <t>61,69%</t>
-  </si>
-  <si>
-    <t>50,84%</t>
-  </si>
-  <si>
-    <t>71,76%</t>
-  </si>
-  <si>
-    <t>59,06%</t>
-  </si>
-  <si>
-    <t>51,14%</t>
-  </si>
-  <si>
-    <t>66,38%</t>
-  </si>
-  <si>
-    <t>60,22%</t>
-  </si>
-  <si>
-    <t>53,52%</t>
-  </si>
-  <si>
-    <t>65,93%</t>
-  </si>
-  <si>
-    <t>38,31%</t>
-  </si>
-  <si>
-    <t>28,24%</t>
-  </si>
-  <si>
-    <t>49,16%</t>
-  </si>
-  <si>
-    <t>40,94%</t>
-  </si>
-  <si>
-    <t>33,62%</t>
-  </si>
-  <si>
-    <t>48,86%</t>
-  </si>
-  <si>
-    <t>39,78%</t>
-  </si>
-  <si>
-    <t>34,07%</t>
-  </si>
-  <si>
-    <t>46,48%</t>
-  </si>
-  <si>
-    <t>69,78%</t>
-  </si>
-  <si>
-    <t>65,28%</t>
-  </si>
-  <si>
-    <t>74,03%</t>
-  </si>
-  <si>
-    <t>52,12%</t>
-  </si>
-  <si>
-    <t>59,2%</t>
-  </si>
-  <si>
-    <t>62,42%</t>
-  </si>
-  <si>
-    <t>59,95%</t>
-  </si>
-  <si>
-    <t>30,22%</t>
-  </si>
-  <si>
-    <t>25,97%</t>
-  </si>
-  <si>
-    <t>34,72%</t>
-  </si>
-  <si>
-    <t>40,8%</t>
-  </si>
-  <si>
-    <t>47,88%</t>
-  </si>
-  <si>
-    <t>37,58%</t>
-  </si>
-  <si>
-    <t>40,05%</t>
-  </si>
-  <si>
-    <t>60,73%</t>
-  </si>
-  <si>
-    <t>56,73%</t>
-  </si>
-  <si>
-    <t>67,54%</t>
-  </si>
-  <si>
-    <t>50,87%</t>
-  </si>
-  <si>
-    <t>47,77%</t>
-  </si>
-  <si>
-    <t>53,7%</t>
-  </si>
-  <si>
-    <t>55,8%</t>
-  </si>
-  <si>
-    <t>53,32%</t>
-  </si>
-  <si>
-    <t>39,27%</t>
-  </si>
-  <si>
-    <t>32,46%</t>
-  </si>
-  <si>
-    <t>43,27%</t>
-  </si>
-  <si>
-    <t>49,13%</t>
-  </si>
-  <si>
-    <t>46,3%</t>
-  </si>
-  <si>
-    <t>52,23%</t>
-  </si>
-  <si>
-    <t>44,2%</t>
-  </si>
-  <si>
-    <t>46,68%</t>
-  </si>
-  <si>
-    <t>62,71%</t>
-  </si>
-  <si>
-    <t>58,06%</t>
-  </si>
-  <si>
-    <t>66,68%</t>
-  </si>
-  <si>
-    <t>47,91%</t>
-  </si>
-  <si>
-    <t>71,03%</t>
-  </si>
-  <si>
-    <t>58,99%</t>
-  </si>
-  <si>
-    <t>54,84%</t>
-  </si>
-  <si>
-    <t>68,1%</t>
-  </si>
-  <si>
-    <t>37,29%</t>
-  </si>
-  <si>
-    <t>33,32%</t>
-  </si>
-  <si>
-    <t>41,94%</t>
-  </si>
-  <si>
-    <t>28,97%</t>
-  </si>
-  <si>
-    <t>52,09%</t>
-  </si>
-  <si>
-    <t>41,01%</t>
-  </si>
-  <si>
-    <t>31,9%</t>
-  </si>
-  <si>
-    <t>45,16%</t>
-  </si>
-  <si>
-    <t>62,12%</t>
-  </si>
-  <si>
-    <t>58,56%</t>
-  </si>
-  <si>
-    <t>65,71%</t>
-  </si>
-  <si>
-    <t>50,83%</t>
-  </si>
-  <si>
-    <t>47,83%</t>
-  </si>
-  <si>
-    <t>54,17%</t>
-  </si>
-  <si>
-    <t>53,49%</t>
-  </si>
-  <si>
-    <t>58,38%</t>
-  </si>
-  <si>
-    <t>37,88%</t>
-  </si>
-  <si>
-    <t>34,29%</t>
-  </si>
-  <si>
-    <t>41,44%</t>
-  </si>
-  <si>
-    <t>49,17%</t>
-  </si>
-  <si>
-    <t>45,83%</t>
-  </si>
-  <si>
-    <t>52,17%</t>
-  </si>
-  <si>
-    <t>41,62%</t>
-  </si>
-  <si>
-    <t>46,51%</t>
+    <t>41,41%</t>
+  </si>
+  <si>
+    <t>46,11%</t>
   </si>
   <si>
     <t>63,05%</t>
   </si>
   <si>
-    <t>61,12%</t>
-  </si>
-  <si>
-    <t>65,53%</t>
+    <t>61,01%</t>
   </si>
   <si>
     <t>52,98%</t>
   </si>
   <si>
-    <t>51,02%</t>
-  </si>
-  <si>
-    <t>58,31%</t>
+    <t>50,9%</t>
+  </si>
+  <si>
+    <t>58,14%</t>
   </si>
   <si>
     <t>57,77%</t>
   </si>
   <si>
-    <t>56,24%</t>
-  </si>
-  <si>
-    <t>60,36%</t>
+    <t>56,31%</t>
+  </si>
+  <si>
+    <t>60,1%</t>
   </si>
   <si>
     <t>36,95%</t>
   </si>
   <si>
-    <t>34,47%</t>
-  </si>
-  <si>
-    <t>38,88%</t>
+    <t>38,99%</t>
   </si>
   <si>
     <t>47,02%</t>
   </si>
   <si>
-    <t>41,69%</t>
-  </si>
-  <si>
-    <t>48,98%</t>
+    <t>41,86%</t>
+  </si>
+  <si>
+    <t>49,1%</t>
   </si>
   <si>
     <t>42,23%</t>
   </si>
   <si>
-    <t>39,64%</t>
-  </si>
-  <si>
-    <t>43,76%</t>
+    <t>39,9%</t>
+  </si>
+  <si>
+    <t>43,69%</t>
   </si>
 </sst>
 </file>
@@ -1731,7 +1767,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D56B8DA-19ED-48F8-9E96-E457A6A221E6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB9DAF0C-E1DB-454C-B5BA-3755FF4FD196}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2326,7 +2362,7 @@
         <v>71</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>17</v>
+        <v>72</v>
       </c>
       <c r="H13" s="7">
         <v>319</v>
@@ -2335,13 +2371,13 @@
         <v>310791</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M13" s="7">
         <v>680</v>
@@ -2350,13 +2386,13 @@
         <v>687115</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2371,13 +2407,13 @@
         <v>295797</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>27</v>
+        <v>80</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H14" s="7">
         <v>371</v>
@@ -2386,13 +2422,13 @@
         <v>366378</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M14" s="7">
         <v>645</v>
@@ -2401,13 +2437,13 @@
         <v>662175</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2463,7 +2499,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2475,13 +2511,13 @@
         <v>520288</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H16" s="7">
         <v>419</v>
@@ -2490,13 +2526,13 @@
         <v>435060</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="M16" s="7">
         <v>971</v>
@@ -2505,13 +2541,13 @@
         <v>955348</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2526,13 +2562,13 @@
         <v>408635</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="H17" s="7">
         <v>562</v>
@@ -2541,13 +2577,13 @@
         <v>586001</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="M17" s="7">
         <v>990</v>
@@ -2556,13 +2592,13 @@
         <v>994636</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2630,13 +2666,13 @@
         <v>1924545</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="H19" s="7">
         <v>1540</v>
@@ -2645,28 +2681,28 @@
         <v>1575042</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="M19" s="7">
         <v>3444</v>
       </c>
       <c r="N19" s="7">
-        <v>3499587</v>
+        <v>3499588</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2681,13 +2717,13 @@
         <v>1319534</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="H20" s="7">
         <v>1715</v>
@@ -2696,13 +2732,13 @@
         <v>1757936</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="M20" s="7">
         <v>2993</v>
@@ -2711,13 +2747,13 @@
         <v>3077470</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>109</v>
+        <v>123</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2759,7 +2795,7 @@
         <v>6437</v>
       </c>
       <c r="N21" s="7">
-        <v>6577057</v>
+        <v>6577058</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -2773,7 +2809,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -2794,7 +2830,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6744C9D-2FAA-47C6-A128-4E99AD92DB67}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E91E71B4-1833-4215-89E2-81010AE6B26C}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2811,7 +2847,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2918,13 +2954,13 @@
         <v>75134</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="H4" s="7">
         <v>52</v>
@@ -2933,13 +2969,13 @@
         <v>56979</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="M4" s="7">
         <v>130</v>
@@ -2948,13 +2984,13 @@
         <v>132113</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2969,13 +3005,13 @@
         <v>40631</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="H5" s="7">
         <v>42</v>
@@ -2984,13 +3020,13 @@
         <v>49270</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="M5" s="7">
         <v>86</v>
@@ -2999,13 +3035,13 @@
         <v>89901</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3073,13 +3109,13 @@
         <v>414577</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="H7" s="7">
         <v>288</v>
@@ -3088,13 +3124,13 @@
         <v>305136</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="M7" s="7">
         <v>674</v>
@@ -3103,13 +3139,13 @@
         <v>719712</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3124,13 +3160,13 @@
         <v>163272</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="H8" s="7">
         <v>235</v>
@@ -3139,13 +3175,13 @@
         <v>250778</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="M8" s="7">
         <v>392</v>
@@ -3154,13 +3190,13 @@
         <v>414050</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3228,13 +3264,13 @@
         <v>655266</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="H10" s="7">
         <v>499</v>
@@ -3243,13 +3279,13 @@
         <v>551144</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="M10" s="7">
         <v>1102</v>
@@ -3258,13 +3294,13 @@
         <v>1206409</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3279,13 +3315,13 @@
         <v>336572</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="H11" s="7">
         <v>401</v>
@@ -3294,13 +3330,13 @@
         <v>437835</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="M11" s="7">
         <v>712</v>
@@ -3309,13 +3345,13 @@
         <v>774407</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3383,13 +3419,13 @@
         <v>442673</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="H13" s="7">
         <v>386</v>
@@ -3398,13 +3434,13 @@
         <v>422747</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="M13" s="7">
         <v>785</v>
@@ -3413,13 +3449,13 @@
         <v>865420</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3434,13 +3470,13 @@
         <v>297271</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="H14" s="7">
         <v>291</v>
@@ -3449,13 +3485,13 @@
         <v>322854</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="M14" s="7">
         <v>565</v>
@@ -3464,13 +3500,13 @@
         <v>620125</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3526,7 +3562,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3538,13 +3574,13 @@
         <v>609975</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="H16" s="7">
         <v>492</v>
@@ -3553,28 +3589,28 @@
         <v>515204</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="M16" s="7">
         <v>1073</v>
       </c>
       <c r="N16" s="7">
-        <v>1125178</v>
+        <v>1125179</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3589,13 +3625,13 @@
         <v>324970</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="H17" s="7">
         <v>470</v>
@@ -3604,13 +3640,13 @@
         <v>495595</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="M17" s="7">
         <v>786</v>
@@ -3619,13 +3655,13 @@
         <v>820565</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3667,7 +3703,7 @@
         <v>1859</v>
       </c>
       <c r="N18" s="7">
-        <v>1945743</v>
+        <v>1945744</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -3693,13 +3729,13 @@
         <v>2197624</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="H19" s="7">
         <v>1717</v>
@@ -3708,13 +3744,13 @@
         <v>1851209</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="M19" s="7">
         <v>3764</v>
@@ -3723,13 +3759,13 @@
         <v>4048833</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3744,13 +3780,13 @@
         <v>1162716</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="H20" s="7">
         <v>1439</v>
@@ -3759,13 +3795,13 @@
         <v>1556333</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="M20" s="7">
         <v>2541</v>
@@ -3774,13 +3810,13 @@
         <v>2719049</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3836,7 +3872,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -3857,7 +3893,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{547375F9-4BA8-4820-9E27-B9445E8A6D1D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5A0E909-6A43-479F-AAC6-6F63785C7A81}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3874,7 +3910,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3981,13 +4017,13 @@
         <v>64007</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="H4" s="7">
         <v>61</v>
@@ -3996,13 +4032,13 @@
         <v>61944</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="M4" s="7">
         <v>122</v>
@@ -4011,13 +4047,13 @@
         <v>125951</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4032,13 +4068,13 @@
         <v>48892</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="H5" s="7">
         <v>45</v>
@@ -4047,13 +4083,13 @@
         <v>41626</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="M5" s="7">
         <v>93</v>
@@ -4062,13 +4098,13 @@
         <v>90518</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4136,13 +4172,13 @@
         <v>350049</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="H7" s="7">
         <v>268</v>
@@ -4151,13 +4187,13 @@
         <v>272962</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>207</v>
+        <v>258</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="M7" s="7">
         <v>606</v>
@@ -4166,13 +4202,13 @@
         <v>623011</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4187,13 +4223,13 @@
         <v>175403</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="H8" s="7">
         <v>240</v>
@@ -4202,13 +4238,13 @@
         <v>239292</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>198</v>
+        <v>268</v>
       </c>
       <c r="M8" s="7">
         <v>409</v>
@@ -4217,13 +4253,13 @@
         <v>414695</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4291,13 +4327,13 @@
         <v>587910</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="H10" s="7">
         <v>512</v>
@@ -4306,13 +4342,13 @@
         <v>554193</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="M10" s="7">
         <v>1061</v>
@@ -4321,13 +4357,13 @@
         <v>1142104</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>17</v>
+        <v>280</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4342,13 +4378,13 @@
         <v>396343</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>274</v>
+        <v>281</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>276</v>
+        <v>283</v>
       </c>
       <c r="H11" s="7">
         <v>423</v>
@@ -4357,13 +4393,13 @@
         <v>440022</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>278</v>
+        <v>285</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>279</v>
+        <v>286</v>
       </c>
       <c r="M11" s="7">
         <v>790</v>
@@ -4372,13 +4408,13 @@
         <v>836364</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>280</v>
+        <v>287</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>27</v>
+        <v>288</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>281</v>
+        <v>289</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4446,13 +4482,13 @@
         <v>442292</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>282</v>
+        <v>290</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>160</v>
+        <v>291</v>
       </c>
       <c r="H13" s="7">
         <v>326</v>
@@ -4461,13 +4497,13 @@
         <v>354356</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>283</v>
+        <v>292</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>127</v>
+        <v>293</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>284</v>
+        <v>294</v>
       </c>
       <c r="M13" s="7">
         <v>734</v>
@@ -4476,13 +4512,13 @@
         <v>796647</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>285</v>
+        <v>295</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>286</v>
+        <v>296</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>287</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4497,13 +4533,13 @@
         <v>303264</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>170</v>
+        <v>297</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>288</v>
+        <v>298</v>
       </c>
       <c r="H14" s="7">
         <v>377</v>
@@ -4512,13 +4548,13 @@
         <v>393143</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>289</v>
+        <v>299</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>137</v>
+        <v>301</v>
       </c>
       <c r="M14" s="7">
         <v>651</v>
@@ -4527,13 +4563,13 @@
         <v>696407</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>291</v>
+        <v>302</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>292</v>
+        <v>79</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>293</v>
+        <v>303</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4589,7 +4625,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4601,13 +4637,13 @@
         <v>543471</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>294</v>
+        <v>304</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>295</v>
+        <v>305</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>296</v>
+        <v>306</v>
       </c>
       <c r="H16" s="7">
         <v>457</v>
@@ -4616,13 +4652,13 @@
         <v>503765</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>297</v>
+        <v>307</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>298</v>
+        <v>308</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>299</v>
+        <v>309</v>
       </c>
       <c r="M16" s="7">
         <v>998</v>
@@ -4631,13 +4667,13 @@
         <v>1047236</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>300</v>
+        <v>310</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>111</v>
+        <v>311</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>301</v>
+        <v>312</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4652,13 +4688,13 @@
         <v>362286</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>302</v>
+        <v>313</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>303</v>
+        <v>314</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>304</v>
+        <v>315</v>
       </c>
       <c r="H17" s="7">
         <v>451</v>
@@ -4667,13 +4703,13 @@
         <v>481026</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>305</v>
+        <v>316</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>306</v>
+        <v>317</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>307</v>
+        <v>318</v>
       </c>
       <c r="M17" s="7">
         <v>812</v>
@@ -4682,13 +4718,13 @@
         <v>843312</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>308</v>
+        <v>319</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>309</v>
+        <v>320</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>119</v>
+        <v>321</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4756,13 +4792,13 @@
         <v>1987728</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>310</v>
+        <v>322</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>311</v>
+        <v>323</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>312</v>
+        <v>324</v>
       </c>
       <c r="H19" s="7">
         <v>1624</v>
@@ -4771,13 +4807,13 @@
         <v>1747221</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>313</v>
+        <v>325</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>314</v>
+        <v>326</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>315</v>
+        <v>327</v>
       </c>
       <c r="M19" s="7">
         <v>3521</v>
@@ -4786,13 +4822,13 @@
         <v>3734948</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>316</v>
+        <v>328</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>317</v>
+        <v>329</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>318</v>
+        <v>330</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4807,13 +4843,13 @@
         <v>1286188</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>319</v>
+        <v>331</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>320</v>
+        <v>332</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>321</v>
+        <v>333</v>
       </c>
       <c r="H20" s="7">
         <v>1536</v>
@@ -4822,13 +4858,13 @@
         <v>1595107</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>322</v>
+        <v>334</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>323</v>
+        <v>335</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>324</v>
+        <v>336</v>
       </c>
       <c r="M20" s="7">
         <v>2755</v>
@@ -4837,13 +4873,13 @@
         <v>2881296</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>325</v>
+        <v>337</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>326</v>
+        <v>338</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>327</v>
+        <v>339</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4899,7 +4935,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -4920,7 +4956,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{761F35AE-F11A-4A2D-80E6-AF68822CFB32}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15ADD323-339E-4CC9-B7A6-BBF79A7AB388}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4937,7 +4973,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>328</v>
+        <v>340</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5044,13 +5080,13 @@
         <v>59243</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>329</v>
+        <v>341</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>330</v>
+        <v>342</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>331</v>
+        <v>343</v>
       </c>
       <c r="H4" s="7">
         <v>141</v>
@@ -5059,13 +5095,13 @@
         <v>71379</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>332</v>
+        <v>344</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>333</v>
+        <v>345</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>334</v>
+        <v>346</v>
       </c>
       <c r="M4" s="7">
         <v>215</v>
@@ -5074,13 +5110,13 @@
         <v>130622</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>335</v>
+        <v>347</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>336</v>
+        <v>309</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>337</v>
+        <v>348</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5095,13 +5131,13 @@
         <v>36791</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>338</v>
+        <v>349</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>339</v>
+        <v>350</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>340</v>
+        <v>351</v>
       </c>
       <c r="H5" s="7">
         <v>82</v>
@@ -5110,13 +5146,13 @@
         <v>49483</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>341</v>
+        <v>352</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>342</v>
+        <v>353</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>343</v>
+        <v>354</v>
       </c>
       <c r="M5" s="7">
         <v>119</v>
@@ -5125,13 +5161,13 @@
         <v>86274</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>344</v>
+        <v>355</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>345</v>
+        <v>356</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>346</v>
+        <v>317</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5199,13 +5235,13 @@
         <v>376790</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>347</v>
+        <v>357</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>348</v>
+        <v>358</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>349</v>
+        <v>359</v>
       </c>
       <c r="H7" s="7">
         <v>567</v>
@@ -5214,13 +5250,13 @@
         <v>316301</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>124</v>
+        <v>360</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>350</v>
+        <v>361</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>351</v>
+        <v>107</v>
       </c>
       <c r="M7" s="7">
         <v>995</v>
@@ -5229,13 +5265,13 @@
         <v>693091</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>352</v>
+        <v>362</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>353</v>
+        <v>363</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>11</v>
+        <v>364</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5250,13 +5286,13 @@
         <v>163172</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>354</v>
+        <v>365</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>355</v>
+        <v>366</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>356</v>
+        <v>367</v>
       </c>
       <c r="H8" s="7">
         <v>382</v>
@@ -5265,13 +5301,13 @@
         <v>254032</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>134</v>
+        <v>368</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>357</v>
+        <v>116</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>358</v>
+        <v>369</v>
       </c>
       <c r="M8" s="7">
         <v>551</v>
@@ -5280,13 +5316,13 @@
         <v>417204</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>359</v>
+        <v>370</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>21</v>
+        <v>371</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>360</v>
+        <v>372</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5354,13 +5390,13 @@
         <v>624052</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>361</v>
+        <v>373</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>362</v>
+        <v>374</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>363</v>
+        <v>375</v>
       </c>
       <c r="H10" s="7">
         <v>821</v>
@@ -5369,13 +5405,13 @@
         <v>522074</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>364</v>
+        <v>376</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>365</v>
+        <v>377</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>366</v>
+        <v>378</v>
       </c>
       <c r="M10" s="7">
         <v>1413</v>
@@ -5384,13 +5420,13 @@
         <v>1146126</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>367</v>
+        <v>182</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>368</v>
+        <v>257</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>266</v>
+        <v>379</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5405,13 +5441,13 @@
         <v>403453</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>369</v>
+        <v>380</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>370</v>
+        <v>381</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>371</v>
+        <v>382</v>
       </c>
       <c r="H11" s="7">
         <v>640</v>
@@ -5420,13 +5456,13 @@
         <v>504315</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>372</v>
+        <v>383</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>373</v>
+        <v>384</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>374</v>
+        <v>385</v>
       </c>
       <c r="M11" s="7">
         <v>999</v>
@@ -5435,13 +5471,13 @@
         <v>907768</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>375</v>
+        <v>192</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>274</v>
+        <v>386</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>376</v>
+        <v>266</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5509,13 +5545,13 @@
         <v>451801</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>377</v>
+        <v>387</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>378</v>
+        <v>388</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>379</v>
+        <v>389</v>
       </c>
       <c r="H13" s="7">
         <v>532</v>
@@ -5524,13 +5560,13 @@
         <v>468734</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>12</v>
+        <v>390</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>380</v>
+        <v>391</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>381</v>
+        <v>392</v>
       </c>
       <c r="M13" s="7">
         <v>976</v>
@@ -5539,13 +5575,13 @@
         <v>920535</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>382</v>
+        <v>393</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>383</v>
+        <v>394</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>384</v>
+        <v>395</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5560,13 +5596,13 @@
         <v>268674</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>385</v>
+        <v>396</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>386</v>
+        <v>397</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>387</v>
+        <v>398</v>
       </c>
       <c r="H14" s="7">
         <v>475</v>
@@ -5575,13 +5611,13 @@
         <v>371204</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>23</v>
+        <v>399</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>388</v>
+        <v>400</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>389</v>
+        <v>401</v>
       </c>
       <c r="M14" s="7">
         <v>697</v>
@@ -5590,13 +5626,13 @@
         <v>639877</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>390</v>
+        <v>402</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>391</v>
+        <v>403</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>392</v>
+        <v>404</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5652,7 +5688,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5661,16 +5697,16 @@
         <v>635</v>
       </c>
       <c r="D16" s="7">
-        <v>581028</v>
+        <v>581029</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>393</v>
+        <v>405</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>394</v>
+        <v>406</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>395</v>
+        <v>407</v>
       </c>
       <c r="H16" s="7">
         <v>809</v>
@@ -5679,13 +5715,13 @@
         <v>558641</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>396</v>
+        <v>408</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>397</v>
+        <v>409</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>398</v>
+        <v>410</v>
       </c>
       <c r="M16" s="7">
         <v>1444</v>
@@ -5694,13 +5730,13 @@
         <v>1139670</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>218</v>
+        <v>411</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>399</v>
+        <v>412</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>400</v>
+        <v>413</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5715,13 +5751,13 @@
         <v>354298</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>401</v>
+        <v>414</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>402</v>
+        <v>415</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>403</v>
+        <v>416</v>
       </c>
       <c r="H17" s="7">
         <v>680</v>
@@ -5730,13 +5766,13 @@
         <v>540382</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>404</v>
+        <v>417</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>405</v>
+        <v>418</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>406</v>
+        <v>419</v>
       </c>
       <c r="M17" s="7">
         <v>1016</v>
@@ -5745,13 +5781,13 @@
         <v>894680</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>226</v>
+        <v>420</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>407</v>
+        <v>421</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>408</v>
+        <v>422</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5763,7 +5799,7 @@
         <v>971</v>
       </c>
       <c r="D18" s="7">
-        <v>935326</v>
+        <v>935327</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -5819,13 +5855,13 @@
         <v>2092914</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>409</v>
+        <v>423</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>410</v>
+        <v>424</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>411</v>
+        <v>244</v>
       </c>
       <c r="H19" s="7">
         <v>2870</v>
@@ -5834,13 +5870,13 @@
         <v>1937128</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>412</v>
+        <v>425</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>413</v>
+        <v>426</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>414</v>
+        <v>427</v>
       </c>
       <c r="M19" s="7">
         <v>5043</v>
@@ -5849,13 +5885,13 @@
         <v>4030042</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>415</v>
+        <v>428</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>416</v>
+        <v>429</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>417</v>
+        <v>430</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5870,13 +5906,13 @@
         <v>1226388</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>418</v>
+        <v>431</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>419</v>
+        <v>252</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>420</v>
+        <v>432</v>
       </c>
       <c r="H20" s="7">
         <v>2259</v>
@@ -5885,13 +5921,13 @@
         <v>1719416</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>421</v>
+        <v>433</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>422</v>
+        <v>434</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>423</v>
+        <v>435</v>
       </c>
       <c r="M20" s="7">
         <v>3382</v>
@@ -5900,13 +5936,13 @@
         <v>2945804</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>424</v>
+        <v>436</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>425</v>
+        <v>437</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>426</v>
+        <v>438</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5962,7 +5998,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IMC_R2-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IMC_R2-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EF621B2F-4FC5-40E2-9D9F-374B43800DA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{31ED8027-FA08-45ED-8032-5CB63F8B73CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{3F7D2548-DAA5-4EAD-BB20-E2E8C6BAA37E}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{3DEBE5C4-A7E3-4F06-9BE5-06A1CE99568C}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="439">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="370">
   <si>
     <t>Población con sobrepeso u obesidad en 2007 (Tasa respuesta: 98,86%)</t>
   </si>
@@ -68,1294 +68,1087 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Sí</t>
   </si>
   <si>
-    <t>65,13%</t>
-  </si>
-  <si>
-    <t>54,98%</t>
-  </si>
-  <si>
-    <t>73,25%</t>
-  </si>
-  <si>
-    <t>54,74%</t>
-  </si>
-  <si>
-    <t>46,29%</t>
-  </si>
-  <si>
-    <t>64,51%</t>
+    <t>63,16%</t>
+  </si>
+  <si>
+    <t>59,23%</t>
+  </si>
+  <si>
+    <t>66,64%</t>
+  </si>
+  <si>
+    <t>52,27%</t>
+  </si>
+  <si>
+    <t>48,36%</t>
+  </si>
+  <si>
+    <t>55,95%</t>
+  </si>
+  <si>
+    <t>57,76%</t>
+  </si>
+  <si>
+    <t>55,02%</t>
+  </si>
+  <si>
+    <t>60,35%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>36,84%</t>
+  </si>
+  <si>
+    <t>33,36%</t>
+  </si>
+  <si>
+    <t>40,77%</t>
+  </si>
+  <si>
+    <t>47,73%</t>
+  </si>
+  <si>
+    <t>44,05%</t>
+  </si>
+  <si>
+    <t>51,64%</t>
+  </si>
+  <si>
+    <t>42,24%</t>
+  </si>
+  <si>
+    <t>39,65%</t>
+  </si>
+  <si>
+    <t>44,98%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>62,13%</t>
+  </si>
+  <si>
+    <t>58,93%</t>
+  </si>
+  <si>
+    <t>65,53%</t>
+  </si>
+  <si>
+    <t>49,62%</t>
+  </si>
+  <si>
+    <t>46,3%</t>
+  </si>
+  <si>
+    <t>52,71%</t>
+  </si>
+  <si>
+    <t>55,87%</t>
+  </si>
+  <si>
+    <t>53,23%</t>
+  </si>
+  <si>
+    <t>58,13%</t>
+  </si>
+  <si>
+    <t>37,87%</t>
+  </si>
+  <si>
+    <t>34,47%</t>
+  </si>
+  <si>
+    <t>41,07%</t>
+  </si>
+  <si>
+    <t>50,38%</t>
+  </si>
+  <si>
+    <t>47,29%</t>
+  </si>
+  <si>
+    <t>53,7%</t>
+  </si>
+  <si>
+    <t>44,13%</t>
+  </si>
+  <si>
+    <t>41,87%</t>
+  </si>
+  <si>
+    <t>46,77%</t>
+  </si>
+  <si>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
+    <t>55,99%</t>
+  </si>
+  <si>
+    <t>51,76%</t>
+  </si>
+  <si>
+    <t>59,96%</t>
+  </si>
+  <si>
+    <t>45,9%</t>
+  </si>
+  <si>
+    <t>42,47%</t>
+  </si>
+  <si>
+    <t>49,79%</t>
+  </si>
+  <si>
+    <t>50,92%</t>
+  </si>
+  <si>
+    <t>47,98%</t>
+  </si>
+  <si>
+    <t>53,48%</t>
+  </si>
+  <si>
+    <t>44,01%</t>
+  </si>
+  <si>
+    <t>40,04%</t>
+  </si>
+  <si>
+    <t>48,24%</t>
+  </si>
+  <si>
+    <t>54,1%</t>
+  </si>
+  <si>
+    <t>50,21%</t>
+  </si>
+  <si>
+    <t>57,53%</t>
+  </si>
+  <si>
+    <t>49,08%</t>
+  </si>
+  <si>
+    <t>46,52%</t>
+  </si>
+  <si>
+    <t>52,02%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>56,01%</t>
+  </si>
+  <si>
+    <t>52,56%</t>
+  </si>
+  <si>
+    <t>59,14%</t>
+  </si>
+  <si>
+    <t>42,61%</t>
+  </si>
+  <si>
+    <t>39,35%</t>
+  </si>
+  <si>
+    <t>45,58%</t>
+  </si>
+  <si>
+    <t>48,99%</t>
+  </si>
+  <si>
+    <t>46,72%</t>
+  </si>
+  <si>
+    <t>51,26%</t>
+  </si>
+  <si>
+    <t>43,99%</t>
+  </si>
+  <si>
+    <t>40,86%</t>
+  </si>
+  <si>
+    <t>47,44%</t>
+  </si>
+  <si>
+    <t>57,39%</t>
+  </si>
+  <si>
+    <t>54,42%</t>
+  </si>
+  <si>
+    <t>60,65%</t>
+  </si>
+  <si>
+    <t>51,01%</t>
+  </si>
+  <si>
+    <t>48,74%</t>
+  </si>
+  <si>
+    <t>53,28%</t>
+  </si>
+  <si>
+    <t>59,32%</t>
+  </si>
+  <si>
+    <t>57,64%</t>
+  </si>
+  <si>
+    <t>61,08%</t>
+  </si>
+  <si>
+    <t>47,26%</t>
+  </si>
+  <si>
+    <t>45,59%</t>
+  </si>
+  <si>
+    <t>48,95%</t>
+  </si>
+  <si>
+    <t>53,21%</t>
+  </si>
+  <si>
+    <t>52,04%</t>
+  </si>
+  <si>
+    <t>54,57%</t>
+  </si>
+  <si>
+    <t>40,68%</t>
+  </si>
+  <si>
+    <t>38,92%</t>
+  </si>
+  <si>
+    <t>42,36%</t>
+  </si>
+  <si>
+    <t>52,74%</t>
+  </si>
+  <si>
+    <t>51,05%</t>
+  </si>
+  <si>
+    <t>54,41%</t>
+  </si>
+  <si>
+    <t>46,79%</t>
+  </si>
+  <si>
+    <t>45,43%</t>
+  </si>
+  <si>
+    <t>47,96%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con sobrepeso u obesidad en 2012 (Tasa respuesta: 96,9%)</t>
+  </si>
+  <si>
+    <t>70,6%</t>
+  </si>
+  <si>
+    <t>66,96%</t>
+  </si>
+  <si>
+    <t>74,0%</t>
+  </si>
+  <si>
+    <t>54,69%</t>
+  </si>
+  <si>
+    <t>50,4%</t>
+  </si>
+  <si>
+    <t>58,64%</t>
+  </si>
+  <si>
+    <t>62,83%</t>
+  </si>
+  <si>
+    <t>59,82%</t>
+  </si>
+  <si>
+    <t>65,14%</t>
+  </si>
+  <si>
+    <t>29,4%</t>
+  </si>
+  <si>
+    <t>26,0%</t>
+  </si>
+  <si>
+    <t>33,04%</t>
+  </si>
+  <si>
+    <t>45,31%</t>
+  </si>
+  <si>
+    <t>41,36%</t>
+  </si>
+  <si>
+    <t>49,6%</t>
+  </si>
+  <si>
+    <t>37,17%</t>
+  </si>
+  <si>
+    <t>34,86%</t>
+  </si>
+  <si>
+    <t>40,18%</t>
+  </si>
+  <si>
+    <t>66,07%</t>
+  </si>
+  <si>
+    <t>62,96%</t>
+  </si>
+  <si>
+    <t>69,14%</t>
+  </si>
+  <si>
+    <t>55,73%</t>
+  </si>
+  <si>
+    <t>52,48%</t>
+  </si>
+  <si>
+    <t>59,09%</t>
+  </si>
+  <si>
+    <t>60,9%</t>
+  </si>
+  <si>
+    <t>58,67%</t>
+  </si>
+  <si>
+    <t>63,39%</t>
+  </si>
+  <si>
+    <t>33,93%</t>
+  </si>
+  <si>
+    <t>30,86%</t>
+  </si>
+  <si>
+    <t>37,04%</t>
+  </si>
+  <si>
+    <t>44,27%</t>
+  </si>
+  <si>
+    <t>40,91%</t>
+  </si>
+  <si>
+    <t>47,52%</t>
+  </si>
+  <si>
+    <t>39,1%</t>
+  </si>
+  <si>
+    <t>36,61%</t>
+  </si>
+  <si>
+    <t>41,33%</t>
+  </si>
+  <si>
+    <t>59,83%</t>
+  </si>
+  <si>
+    <t>55,8%</t>
+  </si>
+  <si>
+    <t>63,57%</t>
+  </si>
+  <si>
+    <t>56,7%</t>
+  </si>
+  <si>
+    <t>52,51%</t>
+  </si>
+  <si>
+    <t>60,29%</t>
+  </si>
+  <si>
+    <t>58,26%</t>
+  </si>
+  <si>
+    <t>55,57%</t>
+  </si>
+  <si>
+    <t>60,88%</t>
+  </si>
+  <si>
+    <t>40,17%</t>
+  </si>
+  <si>
+    <t>36,43%</t>
+  </si>
+  <si>
+    <t>44,2%</t>
+  </si>
+  <si>
+    <t>43,3%</t>
+  </si>
+  <si>
+    <t>39,71%</t>
+  </si>
+  <si>
+    <t>47,49%</t>
+  </si>
+  <si>
+    <t>41,74%</t>
+  </si>
+  <si>
+    <t>39,12%</t>
+  </si>
+  <si>
+    <t>44,43%</t>
+  </si>
+  <si>
+    <t>65,24%</t>
+  </si>
+  <si>
+    <t>62,1%</t>
+  </si>
+  <si>
+    <t>68,21%</t>
+  </si>
+  <si>
+    <t>50,97%</t>
+  </si>
+  <si>
+    <t>47,79%</t>
+  </si>
+  <si>
+    <t>54,05%</t>
+  </si>
+  <si>
+    <t>57,83%</t>
+  </si>
+  <si>
+    <t>55,51%</t>
+  </si>
+  <si>
+    <t>60,08%</t>
+  </si>
+  <si>
+    <t>34,76%</t>
+  </si>
+  <si>
+    <t>31,79%</t>
+  </si>
+  <si>
+    <t>37,9%</t>
+  </si>
+  <si>
+    <t>49,03%</t>
+  </si>
+  <si>
+    <t>45,95%</t>
+  </si>
+  <si>
+    <t>52,21%</t>
+  </si>
+  <si>
+    <t>42,17%</t>
+  </si>
+  <si>
+    <t>39,92%</t>
+  </si>
+  <si>
+    <t>44,49%</t>
+  </si>
+  <si>
+    <t>65,4%</t>
+  </si>
+  <si>
+    <t>63,75%</t>
+  </si>
+  <si>
+    <t>67,17%</t>
+  </si>
+  <si>
+    <t>54,33%</t>
+  </si>
+  <si>
+    <t>52,6%</t>
+  </si>
+  <si>
+    <t>56,17%</t>
+  </si>
+  <si>
+    <t>58,52%</t>
+  </si>
+  <si>
+    <t>61,0%</t>
+  </si>
+  <si>
+    <t>34,6%</t>
+  </si>
+  <si>
+    <t>32,83%</t>
+  </si>
+  <si>
+    <t>36,25%</t>
+  </si>
+  <si>
+    <t>45,67%</t>
+  </si>
+  <si>
+    <t>43,83%</t>
+  </si>
+  <si>
+    <t>47,4%</t>
+  </si>
+  <si>
+    <t>39,0%</t>
+  </si>
+  <si>
+    <t>41,48%</t>
+  </si>
+  <si>
+    <t>Población con sobrepeso u obesidad en 2016 (Tasa respuesta: 95,54%)</t>
+  </si>
+  <si>
+    <t>64,86%</t>
+  </si>
+  <si>
+    <t>61,17%</t>
+  </si>
+  <si>
+    <t>68,73%</t>
+  </si>
+  <si>
+    <t>54,38%</t>
+  </si>
+  <si>
+    <t>50,53%</t>
+  </si>
+  <si>
+    <t>58,37%</t>
+  </si>
+  <si>
+    <t>59,72%</t>
+  </si>
+  <si>
+    <t>57,12%</t>
+  </si>
+  <si>
+    <t>62,33%</t>
+  </si>
+  <si>
+    <t>35,14%</t>
+  </si>
+  <si>
+    <t>31,27%</t>
+  </si>
+  <si>
+    <t>38,83%</t>
+  </si>
+  <si>
+    <t>45,62%</t>
+  </si>
+  <si>
+    <t>41,63%</t>
+  </si>
+  <si>
+    <t>49,47%</t>
+  </si>
+  <si>
+    <t>40,28%</t>
+  </si>
+  <si>
+    <t>37,67%</t>
+  </si>
+  <si>
+    <t>42,88%</t>
+  </si>
+  <si>
+    <t>59,73%</t>
+  </si>
+  <si>
+    <t>56,64%</t>
+  </si>
+  <si>
+    <t>62,78%</t>
+  </si>
+  <si>
+    <t>55,74%</t>
+  </si>
+  <si>
+    <t>52,67%</t>
+  </si>
+  <si>
+    <t>58,74%</t>
+  </si>
+  <si>
+    <t>57,73%</t>
+  </si>
+  <si>
+    <t>55,44%</t>
+  </si>
+  <si>
+    <t>59,95%</t>
+  </si>
+  <si>
+    <t>40,27%</t>
+  </si>
+  <si>
+    <t>37,22%</t>
+  </si>
+  <si>
+    <t>43,36%</t>
+  </si>
+  <si>
+    <t>44,26%</t>
+  </si>
+  <si>
+    <t>41,26%</t>
+  </si>
+  <si>
+    <t>47,33%</t>
+  </si>
+  <si>
+    <t>42,27%</t>
+  </si>
+  <si>
+    <t>40,05%</t>
+  </si>
+  <si>
+    <t>44,56%</t>
+  </si>
+  <si>
+    <t>55,38%</t>
+  </si>
+  <si>
+    <t>63,04%</t>
+  </si>
+  <si>
+    <t>47,41%</t>
+  </si>
+  <si>
+    <t>43,63%</t>
+  </si>
+  <si>
+    <t>51,17%</t>
+  </si>
+  <si>
+    <t>53,36%</t>
+  </si>
+  <si>
+    <t>50,82%</t>
+  </si>
+  <si>
+    <t>36,96%</t>
+  </si>
+  <si>
+    <t>44,62%</t>
+  </si>
+  <si>
+    <t>52,59%</t>
+  </si>
+  <si>
+    <t>48,83%</t>
+  </si>
+  <si>
+    <t>56,37%</t>
+  </si>
+  <si>
+    <t>46,64%</t>
+  </si>
+  <si>
+    <t>49,18%</t>
+  </si>
+  <si>
+    <t>60,0%</t>
+  </si>
+  <si>
+    <t>56,85%</t>
+  </si>
+  <si>
+    <t>63,59%</t>
+  </si>
+  <si>
+    <t>51,15%</t>
+  </si>
+  <si>
+    <t>47,57%</t>
+  </si>
+  <si>
+    <t>54,0%</t>
+  </si>
+  <si>
+    <t>55,39%</t>
+  </si>
+  <si>
+    <t>53,3%</t>
+  </si>
+  <si>
+    <t>57,81%</t>
+  </si>
+  <si>
+    <t>40,0%</t>
+  </si>
+  <si>
+    <t>36,41%</t>
+  </si>
+  <si>
+    <t>43,15%</t>
+  </si>
+  <si>
+    <t>48,85%</t>
+  </si>
+  <si>
+    <t>46,0%</t>
+  </si>
+  <si>
+    <t>52,43%</t>
+  </si>
+  <si>
+    <t>44,61%</t>
+  </si>
+  <si>
+    <t>42,19%</t>
+  </si>
+  <si>
+    <t>46,7%</t>
+  </si>
+  <si>
+    <t>60,71%</t>
+  </si>
+  <si>
+    <t>58,94%</t>
+  </si>
+  <si>
+    <t>62,47%</t>
+  </si>
+  <si>
+    <t>52,28%</t>
+  </si>
+  <si>
+    <t>50,49%</t>
+  </si>
+  <si>
+    <t>53,87%</t>
+  </si>
+  <si>
+    <t>56,45%</t>
+  </si>
+  <si>
+    <t>55,19%</t>
+  </si>
+  <si>
+    <t>57,62%</t>
+  </si>
+  <si>
+    <t>39,29%</t>
+  </si>
+  <si>
+    <t>37,53%</t>
+  </si>
+  <si>
+    <t>41,06%</t>
+  </si>
+  <si>
+    <t>47,72%</t>
+  </si>
+  <si>
+    <t>46,13%</t>
+  </si>
+  <si>
+    <t>49,51%</t>
+  </si>
+  <si>
+    <t>43,55%</t>
+  </si>
+  <si>
+    <t>42,38%</t>
+  </si>
+  <si>
+    <t>44,81%</t>
+  </si>
+  <si>
+    <t>Población con sobrepeso u obesidad en 2023 (Tasa respuesta: 96,36%)</t>
+  </si>
+  <si>
+    <t>68,89%</t>
+  </si>
+  <si>
+    <t>64,74%</t>
+  </si>
+  <si>
+    <t>72,85%</t>
+  </si>
+  <si>
+    <t>56,19%</t>
+  </si>
+  <si>
+    <t>52,88%</t>
+  </si>
+  <si>
+    <t>59,44%</t>
+  </si>
+  <si>
+    <t>62,42%</t>
+  </si>
+  <si>
+    <t>59,75%</t>
+  </si>
+  <si>
+    <t>65,01%</t>
+  </si>
+  <si>
+    <t>31,11%</t>
+  </si>
+  <si>
+    <t>27,15%</t>
+  </si>
+  <si>
+    <t>35,26%</t>
+  </si>
+  <si>
+    <t>43,81%</t>
+  </si>
+  <si>
+    <t>40,56%</t>
+  </si>
+  <si>
+    <t>47,12%</t>
+  </si>
+  <si>
+    <t>37,58%</t>
+  </si>
+  <si>
+    <t>34,99%</t>
+  </si>
+  <si>
+    <t>40,25%</t>
+  </si>
+  <si>
+    <t>66,98%</t>
+  </si>
+  <si>
+    <t>56,99%</t>
+  </si>
+  <si>
+    <t>83,18%</t>
+  </si>
+  <si>
+    <t>51,08%</t>
+  </si>
+  <si>
+    <t>48,35%</t>
+  </si>
+  <si>
+    <t>53,82%</t>
+  </si>
+  <si>
+    <t>59,99%</t>
+  </si>
+  <si>
+    <t>53,85%</t>
+  </si>
+  <si>
+    <t>72,07%</t>
+  </si>
+  <si>
+    <t>33,02%</t>
+  </si>
+  <si>
+    <t>16,82%</t>
+  </si>
+  <si>
+    <t>43,01%</t>
+  </si>
+  <si>
+    <t>48,92%</t>
+  </si>
+  <si>
+    <t>46,18%</t>
+  </si>
+  <si>
+    <t>51,65%</t>
+  </si>
+  <si>
+    <t>40,01%</t>
+  </si>
+  <si>
+    <t>27,93%</t>
+  </si>
+  <si>
+    <t>46,15%</t>
+  </si>
+  <si>
+    <t>62,06%</t>
+  </si>
+  <si>
+    <t>58,02%</t>
+  </si>
+  <si>
+    <t>66,22%</t>
+  </si>
+  <si>
+    <t>60,85%</t>
+  </si>
+  <si>
+    <t>47,82%</t>
+  </si>
+  <si>
+    <t>80,62%</t>
+  </si>
+  <si>
+    <t>61,38%</t>
+  </si>
+  <si>
+    <t>54,72%</t>
+  </si>
+  <si>
+    <t>74,05%</t>
+  </si>
+  <si>
+    <t>37,94%</t>
+  </si>
+  <si>
+    <t>33,78%</t>
+  </si>
+  <si>
+    <t>41,98%</t>
+  </si>
+  <si>
+    <t>39,15%</t>
+  </si>
+  <si>
+    <t>19,38%</t>
+  </si>
+  <si>
+    <t>52,18%</t>
+  </si>
+  <si>
+    <t>38,62%</t>
+  </si>
+  <si>
+    <t>25,95%</t>
+  </si>
+  <si>
+    <t>45,28%</t>
+  </si>
+  <si>
+    <t>61,91%</t>
+  </si>
+  <si>
+    <t>65,16%</t>
+  </si>
+  <si>
+    <t>48,86%</t>
+  </si>
+  <si>
+    <t>61,78%</t>
+  </si>
+  <si>
+    <t>57,22%</t>
+  </si>
+  <si>
+    <t>54,5%</t>
+  </si>
+  <si>
+    <t>62,76%</t>
+  </si>
+  <si>
+    <t>38,09%</t>
+  </si>
+  <si>
+    <t>34,84%</t>
+  </si>
+  <si>
+    <t>38,22%</t>
+  </si>
+  <si>
+    <t>51,14%</t>
+  </si>
+  <si>
+    <t>42,78%</t>
+  </si>
+  <si>
+    <t>37,24%</t>
+  </si>
+  <si>
+    <t>45,5%</t>
+  </si>
+  <si>
+    <t>64,98%</t>
+  </si>
+  <si>
+    <t>61,6%</t>
+  </si>
+  <si>
+    <t>74,65%</t>
+  </si>
+  <si>
+    <t>55,11%</t>
+  </si>
+  <si>
+    <t>51,48%</t>
+  </si>
+  <si>
+    <t>63,44%</t>
   </si>
   <si>
     <t>59,97%</t>
   </si>
   <si>
-    <t>53,44%</t>
-  </si>
-  <si>
-    <t>65,98%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>34,87%</t>
-  </si>
-  <si>
-    <t>26,75%</t>
-  </si>
-  <si>
-    <t>45,02%</t>
-  </si>
-  <si>
-    <t>45,26%</t>
-  </si>
-  <si>
-    <t>35,49%</t>
-  </si>
-  <si>
-    <t>53,71%</t>
+    <t>57,15%</t>
+  </si>
+  <si>
+    <t>66,02%</t>
+  </si>
+  <si>
+    <t>35,02%</t>
+  </si>
+  <si>
+    <t>25,35%</t>
+  </si>
+  <si>
+    <t>38,4%</t>
+  </si>
+  <si>
+    <t>44,89%</t>
+  </si>
+  <si>
+    <t>36,56%</t>
+  </si>
+  <si>
+    <t>48,52%</t>
   </si>
   <si>
     <t>40,03%</t>
   </si>
   <si>
-    <t>34,02%</t>
-  </si>
-  <si>
-    <t>46,56%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>62,77%</t>
-  </si>
-  <si>
-    <t>58,66%</t>
-  </si>
-  <si>
-    <t>66,58%</t>
-  </si>
-  <si>
-    <t>51,78%</t>
-  </si>
-  <si>
-    <t>47,82%</t>
-  </si>
-  <si>
-    <t>56,08%</t>
-  </si>
-  <si>
-    <t>57,32%</t>
-  </si>
-  <si>
-    <t>54,55%</t>
-  </si>
-  <si>
-    <t>60,24%</t>
-  </si>
-  <si>
-    <t>37,23%</t>
-  </si>
-  <si>
-    <t>33,42%</t>
-  </si>
-  <si>
-    <t>41,34%</t>
-  </si>
-  <si>
-    <t>48,22%</t>
-  </si>
-  <si>
-    <t>43,92%</t>
-  </si>
-  <si>
-    <t>52,18%</t>
-  </si>
-  <si>
-    <t>42,68%</t>
-  </si>
-  <si>
-    <t>39,76%</t>
-  </si>
-  <si>
-    <t>45,45%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>62,13%</t>
-  </si>
-  <si>
-    <t>58,93%</t>
-  </si>
-  <si>
-    <t>65,53%</t>
-  </si>
-  <si>
-    <t>49,62%</t>
-  </si>
-  <si>
-    <t>46,3%</t>
-  </si>
-  <si>
-    <t>52,71%</t>
-  </si>
-  <si>
-    <t>55,87%</t>
-  </si>
-  <si>
-    <t>53,23%</t>
-  </si>
-  <si>
-    <t>58,13%</t>
-  </si>
-  <si>
-    <t>37,87%</t>
-  </si>
-  <si>
-    <t>34,47%</t>
-  </si>
-  <si>
-    <t>41,07%</t>
-  </si>
-  <si>
-    <t>50,38%</t>
-  </si>
-  <si>
-    <t>47,29%</t>
-  </si>
-  <si>
-    <t>53,7%</t>
-  </si>
-  <si>
-    <t>44,13%</t>
-  </si>
-  <si>
-    <t>41,87%</t>
-  </si>
-  <si>
-    <t>46,77%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>55,99%</t>
-  </si>
-  <si>
-    <t>51,76%</t>
-  </si>
-  <si>
-    <t>59,96%</t>
-  </si>
-  <si>
-    <t>45,9%</t>
-  </si>
-  <si>
-    <t>42,47%</t>
-  </si>
-  <si>
-    <t>49,79%</t>
-  </si>
-  <si>
-    <t>50,92%</t>
-  </si>
-  <si>
-    <t>47,98%</t>
-  </si>
-  <si>
-    <t>53,48%</t>
-  </si>
-  <si>
-    <t>44,01%</t>
-  </si>
-  <si>
-    <t>40,04%</t>
-  </si>
-  <si>
-    <t>48,24%</t>
-  </si>
-  <si>
-    <t>54,1%</t>
-  </si>
-  <si>
-    <t>50,21%</t>
-  </si>
-  <si>
-    <t>57,53%</t>
-  </si>
-  <si>
-    <t>49,08%</t>
-  </si>
-  <si>
-    <t>46,52%</t>
-  </si>
-  <si>
-    <t>52,02%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>56,01%</t>
-  </si>
-  <si>
-    <t>52,56%</t>
-  </si>
-  <si>
-    <t>59,14%</t>
-  </si>
-  <si>
-    <t>42,61%</t>
-  </si>
-  <si>
-    <t>39,35%</t>
-  </si>
-  <si>
-    <t>45,58%</t>
-  </si>
-  <si>
-    <t>48,99%</t>
-  </si>
-  <si>
-    <t>46,72%</t>
-  </si>
-  <si>
-    <t>51,26%</t>
-  </si>
-  <si>
-    <t>43,99%</t>
-  </si>
-  <si>
-    <t>40,86%</t>
-  </si>
-  <si>
-    <t>47,44%</t>
-  </si>
-  <si>
-    <t>57,39%</t>
-  </si>
-  <si>
-    <t>54,42%</t>
-  </si>
-  <si>
-    <t>60,65%</t>
-  </si>
-  <si>
-    <t>51,01%</t>
-  </si>
-  <si>
-    <t>48,74%</t>
-  </si>
-  <si>
-    <t>53,28%</t>
-  </si>
-  <si>
-    <t>59,32%</t>
-  </si>
-  <si>
-    <t>57,64%</t>
-  </si>
-  <si>
-    <t>61,08%</t>
-  </si>
-  <si>
-    <t>47,26%</t>
-  </si>
-  <si>
-    <t>45,59%</t>
-  </si>
-  <si>
-    <t>48,95%</t>
-  </si>
-  <si>
-    <t>53,21%</t>
-  </si>
-  <si>
-    <t>52,04%</t>
-  </si>
-  <si>
-    <t>54,57%</t>
-  </si>
-  <si>
-    <t>40,68%</t>
-  </si>
-  <si>
-    <t>38,92%</t>
-  </si>
-  <si>
-    <t>42,36%</t>
-  </si>
-  <si>
-    <t>52,74%</t>
-  </si>
-  <si>
-    <t>51,05%</t>
-  </si>
-  <si>
-    <t>54,41%</t>
-  </si>
-  <si>
-    <t>46,79%</t>
-  </si>
-  <si>
-    <t>45,43%</t>
-  </si>
-  <si>
-    <t>47,96%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con sobrepeso u obesidad en 2012 (Tasa respuesta: 96,9%)</t>
-  </si>
-  <si>
-    <t>64,9%</t>
-  </si>
-  <si>
-    <t>55,72%</t>
-  </si>
-  <si>
-    <t>72,42%</t>
-  </si>
-  <si>
-    <t>53,63%</t>
-  </si>
-  <si>
-    <t>43,67%</t>
-  </si>
-  <si>
-    <t>65,11%</t>
-  </si>
-  <si>
-    <t>59,51%</t>
-  </si>
-  <si>
-    <t>52,42%</t>
-  </si>
-  <si>
-    <t>66,05%</t>
-  </si>
-  <si>
-    <t>35,1%</t>
-  </si>
-  <si>
-    <t>27,58%</t>
-  </si>
-  <si>
-    <t>44,28%</t>
-  </si>
-  <si>
-    <t>46,37%</t>
-  </si>
-  <si>
-    <t>34,89%</t>
-  </si>
-  <si>
-    <t>56,33%</t>
-  </si>
-  <si>
-    <t>40,49%</t>
-  </si>
-  <si>
-    <t>33,95%</t>
-  </si>
-  <si>
-    <t>47,58%</t>
-  </si>
-  <si>
-    <t>71,74%</t>
-  </si>
-  <si>
-    <t>67,75%</t>
-  </si>
-  <si>
-    <t>75,59%</t>
-  </si>
-  <si>
-    <t>54,89%</t>
-  </si>
-  <si>
-    <t>50,58%</t>
-  </si>
-  <si>
-    <t>59,17%</t>
-  </si>
-  <si>
-    <t>63,48%</t>
-  </si>
-  <si>
-    <t>60,5%</t>
-  </si>
-  <si>
-    <t>66,42%</t>
-  </si>
-  <si>
-    <t>28,26%</t>
-  </si>
-  <si>
-    <t>24,41%</t>
-  </si>
-  <si>
-    <t>32,25%</t>
-  </si>
-  <si>
-    <t>45,11%</t>
-  </si>
-  <si>
-    <t>40,83%</t>
-  </si>
-  <si>
-    <t>49,42%</t>
-  </si>
-  <si>
-    <t>36,52%</t>
-  </si>
-  <si>
-    <t>33,58%</t>
-  </si>
-  <si>
-    <t>39,5%</t>
-  </si>
-  <si>
-    <t>66,07%</t>
-  </si>
-  <si>
-    <t>62,96%</t>
-  </si>
-  <si>
-    <t>69,14%</t>
-  </si>
-  <si>
-    <t>55,73%</t>
-  </si>
-  <si>
-    <t>52,48%</t>
-  </si>
-  <si>
-    <t>59,09%</t>
-  </si>
-  <si>
-    <t>60,9%</t>
-  </si>
-  <si>
-    <t>58,67%</t>
-  </si>
-  <si>
-    <t>63,39%</t>
-  </si>
-  <si>
-    <t>33,93%</t>
-  </si>
-  <si>
-    <t>30,86%</t>
-  </si>
-  <si>
-    <t>37,04%</t>
-  </si>
-  <si>
-    <t>44,27%</t>
-  </si>
-  <si>
-    <t>40,91%</t>
-  </si>
-  <si>
-    <t>47,52%</t>
-  </si>
-  <si>
-    <t>39,1%</t>
-  </si>
-  <si>
-    <t>36,61%</t>
-  </si>
-  <si>
-    <t>41,33%</t>
-  </si>
-  <si>
-    <t>59,83%</t>
-  </si>
-  <si>
-    <t>55,8%</t>
-  </si>
-  <si>
-    <t>63,57%</t>
-  </si>
-  <si>
-    <t>56,7%</t>
-  </si>
-  <si>
-    <t>52,51%</t>
-  </si>
-  <si>
-    <t>60,29%</t>
-  </si>
-  <si>
-    <t>58,26%</t>
-  </si>
-  <si>
-    <t>55,57%</t>
-  </si>
-  <si>
-    <t>60,88%</t>
-  </si>
-  <si>
-    <t>40,17%</t>
-  </si>
-  <si>
-    <t>36,43%</t>
-  </si>
-  <si>
-    <t>44,2%</t>
-  </si>
-  <si>
-    <t>43,3%</t>
-  </si>
-  <si>
-    <t>39,71%</t>
-  </si>
-  <si>
-    <t>47,49%</t>
-  </si>
-  <si>
-    <t>41,74%</t>
-  </si>
-  <si>
-    <t>39,12%</t>
-  </si>
-  <si>
-    <t>44,43%</t>
-  </si>
-  <si>
-    <t>65,24%</t>
-  </si>
-  <si>
-    <t>62,1%</t>
-  </si>
-  <si>
-    <t>68,21%</t>
-  </si>
-  <si>
-    <t>50,97%</t>
-  </si>
-  <si>
-    <t>47,79%</t>
-  </si>
-  <si>
-    <t>54,05%</t>
-  </si>
-  <si>
-    <t>57,83%</t>
-  </si>
-  <si>
-    <t>55,51%</t>
-  </si>
-  <si>
-    <t>60,08%</t>
-  </si>
-  <si>
-    <t>34,76%</t>
-  </si>
-  <si>
-    <t>31,79%</t>
-  </si>
-  <si>
-    <t>37,9%</t>
-  </si>
-  <si>
-    <t>49,03%</t>
-  </si>
-  <si>
-    <t>45,95%</t>
-  </si>
-  <si>
-    <t>52,21%</t>
-  </si>
-  <si>
-    <t>42,17%</t>
-  </si>
-  <si>
-    <t>39,92%</t>
-  </si>
-  <si>
-    <t>44,49%</t>
-  </si>
-  <si>
-    <t>65,4%</t>
-  </si>
-  <si>
-    <t>63,75%</t>
-  </si>
-  <si>
-    <t>67,17%</t>
-  </si>
-  <si>
-    <t>54,33%</t>
-  </si>
-  <si>
-    <t>52,6%</t>
-  </si>
-  <si>
-    <t>56,17%</t>
-  </si>
-  <si>
-    <t>59,82%</t>
-  </si>
-  <si>
-    <t>58,52%</t>
-  </si>
-  <si>
-    <t>61,0%</t>
-  </si>
-  <si>
-    <t>34,6%</t>
-  </si>
-  <si>
-    <t>32,83%</t>
-  </si>
-  <si>
-    <t>36,25%</t>
-  </si>
-  <si>
-    <t>45,67%</t>
-  </si>
-  <si>
-    <t>43,83%</t>
-  </si>
-  <si>
-    <t>47,4%</t>
-  </si>
-  <si>
-    <t>40,18%</t>
-  </si>
-  <si>
-    <t>39,0%</t>
-  </si>
-  <si>
-    <t>41,48%</t>
-  </si>
-  <si>
-    <t>Población con sobrepeso u obesidad en 2016 (Tasa respuesta: 95,54%)</t>
-  </si>
-  <si>
-    <t>56,69%</t>
-  </si>
-  <si>
-    <t>46,85%</t>
-  </si>
-  <si>
-    <t>65,66%</t>
-  </si>
-  <si>
-    <t>59,81%</t>
-  </si>
-  <si>
-    <t>50,88%</t>
-  </si>
-  <si>
-    <t>68,7%</t>
-  </si>
-  <si>
-    <t>58,18%</t>
-  </si>
-  <si>
-    <t>51,9%</t>
-  </si>
-  <si>
-    <t>65,46%</t>
-  </si>
-  <si>
-    <t>43,31%</t>
-  </si>
-  <si>
-    <t>34,34%</t>
-  </si>
-  <si>
-    <t>53,15%</t>
-  </si>
-  <si>
-    <t>40,19%</t>
-  </si>
-  <si>
-    <t>31,3%</t>
-  </si>
-  <si>
-    <t>49,12%</t>
-  </si>
-  <si>
-    <t>41,82%</t>
-  </si>
-  <si>
-    <t>34,54%</t>
-  </si>
-  <si>
-    <t>48,1%</t>
-  </si>
-  <si>
-    <t>66,62%</t>
-  </si>
-  <si>
-    <t>62,45%</t>
-  </si>
-  <si>
-    <t>70,59%</t>
-  </si>
-  <si>
-    <t>53,29%</t>
-  </si>
-  <si>
-    <t>49,0%</t>
-  </si>
-  <si>
-    <t>58,09%</t>
-  </si>
-  <si>
-    <t>60,04%</t>
-  </si>
-  <si>
-    <t>57,14%</t>
-  </si>
-  <si>
-    <t>63,19%</t>
-  </si>
-  <si>
-    <t>33,38%</t>
-  </si>
-  <si>
-    <t>29,41%</t>
-  </si>
-  <si>
-    <t>37,55%</t>
-  </si>
-  <si>
-    <t>46,71%</t>
-  </si>
-  <si>
-    <t>41,91%</t>
-  </si>
-  <si>
-    <t>51,0%</t>
-  </si>
-  <si>
-    <t>39,96%</t>
-  </si>
-  <si>
-    <t>36,81%</t>
-  </si>
-  <si>
-    <t>42,86%</t>
-  </si>
-  <si>
-    <t>59,73%</t>
-  </si>
-  <si>
-    <t>56,64%</t>
-  </si>
-  <si>
-    <t>62,78%</t>
-  </si>
-  <si>
-    <t>55,74%</t>
-  </si>
-  <si>
-    <t>52,67%</t>
-  </si>
-  <si>
-    <t>58,74%</t>
-  </si>
-  <si>
-    <t>57,73%</t>
-  </si>
-  <si>
-    <t>55,44%</t>
-  </si>
-  <si>
-    <t>59,95%</t>
-  </si>
-  <si>
-    <t>40,27%</t>
-  </si>
-  <si>
-    <t>37,22%</t>
-  </si>
-  <si>
-    <t>43,36%</t>
-  </si>
-  <si>
-    <t>44,26%</t>
-  </si>
-  <si>
-    <t>41,26%</t>
-  </si>
-  <si>
-    <t>47,33%</t>
-  </si>
-  <si>
-    <t>42,27%</t>
-  </si>
-  <si>
-    <t>40,05%</t>
-  </si>
-  <si>
-    <t>44,56%</t>
-  </si>
-  <si>
-    <t>55,38%</t>
-  </si>
-  <si>
-    <t>63,04%</t>
-  </si>
-  <si>
-    <t>47,41%</t>
-  </si>
-  <si>
-    <t>43,63%</t>
-  </si>
-  <si>
-    <t>51,17%</t>
-  </si>
-  <si>
-    <t>53,36%</t>
-  </si>
-  <si>
-    <t>50,82%</t>
-  </si>
-  <si>
-    <t>36,96%</t>
-  </si>
-  <si>
-    <t>44,62%</t>
-  </si>
-  <si>
-    <t>52,59%</t>
-  </si>
-  <si>
-    <t>48,83%</t>
-  </si>
-  <si>
-    <t>56,37%</t>
-  </si>
-  <si>
-    <t>46,64%</t>
-  </si>
-  <si>
-    <t>49,18%</t>
-  </si>
-  <si>
-    <t>60,0%</t>
-  </si>
-  <si>
-    <t>56,85%</t>
-  </si>
-  <si>
-    <t>63,59%</t>
-  </si>
-  <si>
-    <t>51,15%</t>
-  </si>
-  <si>
-    <t>47,57%</t>
-  </si>
-  <si>
-    <t>54,0%</t>
-  </si>
-  <si>
-    <t>55,39%</t>
-  </si>
-  <si>
-    <t>53,3%</t>
-  </si>
-  <si>
-    <t>57,81%</t>
-  </si>
-  <si>
-    <t>40,0%</t>
-  </si>
-  <si>
-    <t>36,41%</t>
-  </si>
-  <si>
-    <t>43,15%</t>
-  </si>
-  <si>
-    <t>48,85%</t>
-  </si>
-  <si>
-    <t>46,0%</t>
-  </si>
-  <si>
-    <t>52,43%</t>
-  </si>
-  <si>
-    <t>44,61%</t>
-  </si>
-  <si>
-    <t>42,19%</t>
-  </si>
-  <si>
-    <t>46,7%</t>
-  </si>
-  <si>
-    <t>60,71%</t>
-  </si>
-  <si>
-    <t>58,94%</t>
-  </si>
-  <si>
-    <t>62,47%</t>
-  </si>
-  <si>
-    <t>52,28%</t>
-  </si>
-  <si>
-    <t>50,49%</t>
-  </si>
-  <si>
-    <t>53,87%</t>
-  </si>
-  <si>
-    <t>56,45%</t>
-  </si>
-  <si>
-    <t>55,19%</t>
-  </si>
-  <si>
-    <t>57,62%</t>
-  </si>
-  <si>
-    <t>39,29%</t>
-  </si>
-  <si>
-    <t>37,53%</t>
-  </si>
-  <si>
-    <t>41,06%</t>
-  </si>
-  <si>
-    <t>47,72%</t>
-  </si>
-  <si>
-    <t>46,13%</t>
-  </si>
-  <si>
-    <t>49,51%</t>
-  </si>
-  <si>
-    <t>43,55%</t>
-  </si>
-  <si>
-    <t>42,38%</t>
-  </si>
-  <si>
-    <t>44,81%</t>
-  </si>
-  <si>
-    <t>Población con sobrepeso u obesidad en 2023 (Tasa respuesta: 96,36%)</t>
-  </si>
-  <si>
-    <t>61,69%</t>
-  </si>
-  <si>
-    <t>50,41%</t>
-  </si>
-  <si>
-    <t>71,64%</t>
-  </si>
-  <si>
-    <t>59,06%</t>
-  </si>
-  <si>
-    <t>51,27%</t>
-  </si>
-  <si>
-    <t>66,13%</t>
-  </si>
-  <si>
-    <t>60,22%</t>
-  </si>
-  <si>
-    <t>66,51%</t>
-  </si>
-  <si>
-    <t>38,31%</t>
-  </si>
-  <si>
-    <t>28,36%</t>
-  </si>
-  <si>
-    <t>49,59%</t>
-  </si>
-  <si>
-    <t>40,94%</t>
-  </si>
-  <si>
-    <t>33,87%</t>
-  </si>
-  <si>
-    <t>48,73%</t>
-  </si>
-  <si>
-    <t>39,78%</t>
-  </si>
-  <si>
-    <t>33,49%</t>
-  </si>
-  <si>
-    <t>69,78%</t>
-  </si>
-  <si>
-    <t>65,36%</t>
-  </si>
-  <si>
-    <t>73,87%</t>
-  </si>
-  <si>
-    <t>55,46%</t>
-  </si>
-  <si>
-    <t>51,94%</t>
-  </si>
-  <si>
-    <t>62,42%</t>
-  </si>
-  <si>
-    <t>59,58%</t>
-  </si>
-  <si>
-    <t>65,2%</t>
-  </si>
-  <si>
-    <t>30,22%</t>
-  </si>
-  <si>
-    <t>26,13%</t>
-  </si>
-  <si>
-    <t>34,64%</t>
-  </si>
-  <si>
-    <t>44,54%</t>
-  </si>
-  <si>
-    <t>48,06%</t>
-  </si>
-  <si>
-    <t>37,58%</t>
-  </si>
-  <si>
-    <t>34,8%</t>
-  </si>
-  <si>
-    <t>40,42%</t>
-  </si>
-  <si>
-    <t>60,73%</t>
-  </si>
-  <si>
-    <t>56,43%</t>
-  </si>
-  <si>
-    <t>67,12%</t>
-  </si>
-  <si>
-    <t>50,87%</t>
-  </si>
-  <si>
-    <t>48,09%</t>
-  </si>
-  <si>
-    <t>53,66%</t>
-  </si>
-  <si>
-    <t>59,49%</t>
-  </si>
-  <si>
-    <t>39,27%</t>
-  </si>
-  <si>
-    <t>32,88%</t>
-  </si>
-  <si>
-    <t>43,57%</t>
-  </si>
-  <si>
-    <t>49,13%</t>
-  </si>
-  <si>
-    <t>46,34%</t>
-  </si>
-  <si>
-    <t>51,91%</t>
-  </si>
-  <si>
-    <t>40,51%</t>
-  </si>
-  <si>
-    <t>62,71%</t>
-  </si>
-  <si>
-    <t>58,84%</t>
-  </si>
-  <si>
-    <t>66,66%</t>
-  </si>
-  <si>
-    <t>55,81%</t>
-  </si>
-  <si>
-    <t>47,77%</t>
-  </si>
-  <si>
-    <t>71,42%</t>
-  </si>
-  <si>
-    <t>58,99%</t>
-  </si>
-  <si>
-    <t>54,82%</t>
-  </si>
-  <si>
-    <t>67,14%</t>
-  </si>
-  <si>
-    <t>37,29%</t>
-  </si>
-  <si>
-    <t>33,34%</t>
-  </si>
-  <si>
-    <t>41,16%</t>
-  </si>
-  <si>
-    <t>44,19%</t>
-  </si>
-  <si>
-    <t>28,58%</t>
-  </si>
-  <si>
-    <t>52,23%</t>
-  </si>
-  <si>
-    <t>41,01%</t>
-  </si>
-  <si>
-    <t>32,86%</t>
-  </si>
-  <si>
-    <t>45,18%</t>
-  </si>
-  <si>
-    <t>62,12%</t>
-  </si>
-  <si>
-    <t>58,45%</t>
-  </si>
-  <si>
-    <t>65,45%</t>
-  </si>
-  <si>
-    <t>50,83%</t>
-  </si>
-  <si>
-    <t>47,95%</t>
-  </si>
-  <si>
-    <t>53,98%</t>
-  </si>
-  <si>
-    <t>56,02%</t>
-  </si>
-  <si>
-    <t>53,89%</t>
-  </si>
-  <si>
-    <t>58,59%</t>
-  </si>
-  <si>
-    <t>37,88%</t>
-  </si>
-  <si>
-    <t>34,55%</t>
-  </si>
-  <si>
-    <t>41,55%</t>
-  </si>
-  <si>
-    <t>49,17%</t>
-  </si>
-  <si>
-    <t>46,02%</t>
-  </si>
-  <si>
-    <t>52,05%</t>
-  </si>
-  <si>
-    <t>43,98%</t>
-  </si>
-  <si>
-    <t>41,41%</t>
-  </si>
-  <si>
-    <t>46,11%</t>
-  </si>
-  <si>
-    <t>63,05%</t>
-  </si>
-  <si>
-    <t>61,01%</t>
-  </si>
-  <si>
-    <t>52,98%</t>
-  </si>
-  <si>
-    <t>50,9%</t>
-  </si>
-  <si>
-    <t>58,14%</t>
-  </si>
-  <si>
-    <t>57,77%</t>
-  </si>
-  <si>
-    <t>56,31%</t>
-  </si>
-  <si>
-    <t>60,1%</t>
-  </si>
-  <si>
-    <t>36,95%</t>
-  </si>
-  <si>
-    <t>38,99%</t>
-  </si>
-  <si>
-    <t>47,02%</t>
-  </si>
-  <si>
-    <t>41,86%</t>
-  </si>
-  <si>
-    <t>49,1%</t>
-  </si>
-  <si>
-    <t>42,23%</t>
-  </si>
-  <si>
-    <t>39,9%</t>
-  </si>
-  <si>
-    <t>43,69%</t>
+    <t>33,98%</t>
+  </si>
+  <si>
+    <t>42,85%</t>
   </si>
 </sst>
 </file>
@@ -1767,8 +1560,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB9DAF0C-E1DB-454C-B5BA-3755FF4FD196}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D012DB2-6AF4-4B5A-9444-E544AA995205}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1885,10 +1678,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>67</v>
+        <v>431</v>
       </c>
       <c r="D4" s="7">
-        <v>74461</v>
+        <v>435377</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1900,10 +1693,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>71</v>
+        <v>360</v>
       </c>
       <c r="I4" s="7">
-        <v>61716</v>
+        <v>354962</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1915,10 +1708,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>138</v>
+        <v>791</v>
       </c>
       <c r="N4" s="7">
-        <v>136177</v>
+        <v>790339</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1936,10 +1729,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>37</v>
+        <v>247</v>
       </c>
       <c r="D5" s="7">
-        <v>39866</v>
+        <v>253948</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1951,10 +1744,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>57</v>
+        <v>327</v>
       </c>
       <c r="I5" s="7">
-        <v>51039</v>
+        <v>324094</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1966,10 +1759,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>94</v>
+        <v>574</v>
       </c>
       <c r="N5" s="7">
-        <v>90905</v>
+        <v>578041</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1987,10 +1780,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>104</v>
+        <v>678</v>
       </c>
       <c r="D6" s="7">
-        <v>114327</v>
+        <v>689325</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -2002,10 +1795,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>128</v>
+        <v>687</v>
       </c>
       <c r="I6" s="7">
-        <v>112755</v>
+        <v>679056</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -2017,10 +1810,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>232</v>
+        <v>1365</v>
       </c>
       <c r="N6" s="7">
-        <v>227082</v>
+        <v>1368380</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -2040,10 +1833,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>364</v>
+        <v>560</v>
       </c>
       <c r="D7" s="7">
-        <v>360917</v>
+        <v>592556</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -2055,10 +1848,10 @@
         <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>289</v>
+        <v>442</v>
       </c>
       <c r="I7" s="7">
-        <v>293246</v>
+        <v>474229</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -2070,10 +1863,10 @@
         <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>653</v>
+        <v>1002</v>
       </c>
       <c r="N7" s="7">
-        <v>654163</v>
+        <v>1066786</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -2091,10 +1884,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>210</v>
+        <v>329</v>
       </c>
       <c r="D8" s="7">
-        <v>214081</v>
+        <v>361154</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -2106,10 +1899,10 @@
         <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>270</v>
+        <v>455</v>
       </c>
       <c r="I8" s="7">
-        <v>273055</v>
+        <v>481464</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -2121,10 +1914,10 @@
         <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>480</v>
+        <v>784</v>
       </c>
       <c r="N8" s="7">
-        <v>487136</v>
+        <v>842617</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -2142,10 +1935,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>574</v>
+        <v>889</v>
       </c>
       <c r="D9" s="7">
-        <v>574998</v>
+        <v>953710</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -2157,10 +1950,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>559</v>
+        <v>897</v>
       </c>
       <c r="I9" s="7">
-        <v>566301</v>
+        <v>955693</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -2172,10 +1965,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1133</v>
+        <v>1786</v>
       </c>
       <c r="N9" s="7">
-        <v>1141299</v>
+        <v>1909403</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -2195,10 +1988,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>560</v>
+        <v>361</v>
       </c>
       <c r="D10" s="7">
-        <v>592556</v>
+        <v>376324</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -2210,10 +2003,10 @@
         <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>442</v>
+        <v>319</v>
       </c>
       <c r="I10" s="7">
-        <v>474229</v>
+        <v>310791</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -2225,10 +2018,10 @@
         <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>1002</v>
+        <v>680</v>
       </c>
       <c r="N10" s="7">
-        <v>1066786</v>
+        <v>687115</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>57</v>
@@ -2246,10 +2039,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>329</v>
+        <v>274</v>
       </c>
       <c r="D11" s="7">
-        <v>361154</v>
+        <v>295797</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>60</v>
@@ -2261,10 +2054,10 @@
         <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>455</v>
+        <v>371</v>
       </c>
       <c r="I11" s="7">
-        <v>481464</v>
+        <v>366378</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>63</v>
@@ -2276,10 +2069,10 @@
         <v>65</v>
       </c>
       <c r="M11" s="7">
-        <v>784</v>
+        <v>645</v>
       </c>
       <c r="N11" s="7">
-        <v>842618</v>
+        <v>662175</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>66</v>
@@ -2297,10 +2090,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>889</v>
+        <v>635</v>
       </c>
       <c r="D12" s="7">
-        <v>953710</v>
+        <v>672121</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -2312,10 +2105,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>897</v>
+        <v>690</v>
       </c>
       <c r="I12" s="7">
-        <v>955693</v>
+        <v>677169</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -2327,10 +2120,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1786</v>
+        <v>1325</v>
       </c>
       <c r="N12" s="7">
-        <v>1909404</v>
+        <v>1349290</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -2350,10 +2143,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>361</v>
+        <v>552</v>
       </c>
       <c r="D13" s="7">
-        <v>376324</v>
+        <v>520288</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>70</v>
@@ -2365,10 +2158,10 @@
         <v>72</v>
       </c>
       <c r="H13" s="7">
-        <v>319</v>
+        <v>419</v>
       </c>
       <c r="I13" s="7">
-        <v>310791</v>
+        <v>435060</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>73</v>
@@ -2380,10 +2173,10 @@
         <v>75</v>
       </c>
       <c r="M13" s="7">
-        <v>680</v>
+        <v>971</v>
       </c>
       <c r="N13" s="7">
-        <v>687115</v>
+        <v>955348</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>76</v>
@@ -2401,10 +2194,10 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>274</v>
+        <v>428</v>
       </c>
       <c r="D14" s="7">
-        <v>295797</v>
+        <v>408635</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>79</v>
@@ -2416,10 +2209,10 @@
         <v>81</v>
       </c>
       <c r="H14" s="7">
-        <v>371</v>
+        <v>562</v>
       </c>
       <c r="I14" s="7">
-        <v>366378</v>
+        <v>586001</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>82</v>
@@ -2431,10 +2224,10 @@
         <v>84</v>
       </c>
       <c r="M14" s="7">
-        <v>645</v>
+        <v>990</v>
       </c>
       <c r="N14" s="7">
-        <v>662175</v>
+        <v>994636</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>85</v>
@@ -2452,10 +2245,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>635</v>
+        <v>980</v>
       </c>
       <c r="D15" s="7">
-        <v>672121</v>
+        <v>928923</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -2467,10 +2260,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>690</v>
+        <v>981</v>
       </c>
       <c r="I15" s="7">
-        <v>677169</v>
+        <v>1021061</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -2482,10 +2275,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1325</v>
+        <v>1961</v>
       </c>
       <c r="N15" s="7">
-        <v>1349290</v>
+        <v>1949984</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -2499,55 +2292,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>552</v>
+        <v>1904</v>
       </c>
       <c r="D16" s="7">
-        <v>520288</v>
+        <v>1924545</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="H16" s="7">
+        <v>1540</v>
+      </c>
+      <c r="I16" s="7">
+        <v>1575042</v>
+      </c>
+      <c r="J16" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="H16" s="7">
-        <v>419</v>
-      </c>
-      <c r="I16" s="7">
-        <v>435060</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="K16" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="L16" s="7" t="s">
+      <c r="M16" s="7">
+        <v>3444</v>
+      </c>
+      <c r="N16" s="7">
+        <v>3499587</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="M16" s="7">
-        <v>971</v>
-      </c>
-      <c r="N16" s="7">
-        <v>955348</v>
-      </c>
-      <c r="O16" s="7" t="s">
+      <c r="P16" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2556,49 +2349,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>428</v>
+        <v>1278</v>
       </c>
       <c r="D17" s="7">
-        <v>408635</v>
+        <v>1319534</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="H17" s="7">
+        <v>1715</v>
+      </c>
+      <c r="I17" s="7">
+        <v>1757936</v>
+      </c>
+      <c r="J17" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="H17" s="7">
-        <v>562</v>
-      </c>
-      <c r="I17" s="7">
-        <v>586001</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="K17" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="L17" s="7" t="s">
+      <c r="M17" s="7">
+        <v>2993</v>
+      </c>
+      <c r="N17" s="7">
+        <v>3077470</v>
+      </c>
+      <c r="O17" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="M17" s="7">
-        <v>990</v>
-      </c>
-      <c r="N17" s="7">
-        <v>994636</v>
-      </c>
-      <c r="O17" s="7" t="s">
+      <c r="P17" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2607,10 +2400,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>980</v>
+        <v>3182</v>
       </c>
       <c r="D18" s="7">
-        <v>928923</v>
+        <v>3244079</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -2622,10 +2415,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>981</v>
+        <v>3255</v>
       </c>
       <c r="I18" s="7">
-        <v>1021061</v>
+        <v>3332978</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -2637,10 +2430,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>1961</v>
+        <v>6437</v>
       </c>
       <c r="N18" s="7">
-        <v>1949984</v>
+        <v>6577057</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -2653,171 +2446,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>1904</v>
-      </c>
-      <c r="D19" s="7">
-        <v>1924545</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="H19" s="7">
-        <v>1540</v>
-      </c>
-      <c r="I19" s="7">
-        <v>1575042</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="M19" s="7">
-        <v>3444</v>
-      </c>
-      <c r="N19" s="7">
-        <v>3499588</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>1278</v>
-      </c>
-      <c r="D20" s="7">
-        <v>1319534</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="H20" s="7">
-        <v>1715</v>
-      </c>
-      <c r="I20" s="7">
-        <v>1757936</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="M20" s="7">
-        <v>2993</v>
-      </c>
-      <c r="N20" s="7">
-        <v>3077470</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3182</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3244079</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>3255</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3332978</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>6437</v>
-      </c>
-      <c r="N21" s="7">
-        <v>6577058</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>125</v>
+      <c r="A19" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2830,8 +2467,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E91E71B4-1833-4215-89E2-81010AE6B26C}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2017E2F5-FCD2-42FE-BE27-5490CA4F3E86}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2847,7 +2484,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>126</v>
+        <v>107</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2948,49 +2585,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>78</v>
+        <v>464</v>
       </c>
       <c r="D4" s="7">
-        <v>75134</v>
+        <v>489711</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>127</v>
+        <v>108</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>128</v>
+        <v>109</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>129</v>
+        <v>110</v>
       </c>
       <c r="H4" s="7">
-        <v>52</v>
+        <v>340</v>
       </c>
       <c r="I4" s="7">
-        <v>56979</v>
+        <v>362114</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>130</v>
+        <v>111</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>131</v>
+        <v>112</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>132</v>
+        <v>113</v>
       </c>
       <c r="M4" s="7">
-        <v>130</v>
+        <v>804</v>
       </c>
       <c r="N4" s="7">
-        <v>132113</v>
+        <v>851825</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>133</v>
+        <v>114</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>134</v>
+        <v>115</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>135</v>
+        <v>116</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2999,49 +2636,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>44</v>
+        <v>201</v>
       </c>
       <c r="D5" s="7">
-        <v>40631</v>
+        <v>203903</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>136</v>
+        <v>117</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>137</v>
+        <v>118</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>138</v>
+        <v>119</v>
       </c>
       <c r="H5" s="7">
-        <v>42</v>
+        <v>277</v>
       </c>
       <c r="I5" s="7">
-        <v>49270</v>
+        <v>300049</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>139</v>
+        <v>120</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>140</v>
+        <v>121</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>141</v>
+        <v>122</v>
       </c>
       <c r="M5" s="7">
-        <v>86</v>
+        <v>478</v>
       </c>
       <c r="N5" s="7">
-        <v>89901</v>
+        <v>503952</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>142</v>
+        <v>123</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>144</v>
+        <v>125</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3050,10 +2687,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>122</v>
+        <v>665</v>
       </c>
       <c r="D6" s="7">
-        <v>115765</v>
+        <v>693614</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -3065,10 +2702,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>94</v>
+        <v>617</v>
       </c>
       <c r="I6" s="7">
-        <v>106249</v>
+        <v>662163</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -3080,10 +2717,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>216</v>
+        <v>1282</v>
       </c>
       <c r="N6" s="7">
-        <v>222014</v>
+        <v>1355777</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -3103,49 +2740,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>386</v>
+        <v>603</v>
       </c>
       <c r="D7" s="7">
-        <v>414577</v>
+        <v>655266</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>145</v>
+        <v>126</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>146</v>
+        <v>127</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>147</v>
+        <v>128</v>
       </c>
       <c r="H7" s="7">
-        <v>288</v>
+        <v>499</v>
       </c>
       <c r="I7" s="7">
-        <v>305136</v>
+        <v>551144</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>148</v>
+        <v>129</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>149</v>
+        <v>130</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>150</v>
+        <v>131</v>
       </c>
       <c r="M7" s="7">
-        <v>674</v>
+        <v>1102</v>
       </c>
       <c r="N7" s="7">
-        <v>719712</v>
+        <v>1206409</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>151</v>
+        <v>132</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>152</v>
+        <v>133</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>153</v>
+        <v>134</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3154,49 +2791,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>157</v>
+        <v>311</v>
       </c>
       <c r="D8" s="7">
-        <v>163272</v>
+        <v>336572</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>154</v>
+        <v>135</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>155</v>
+        <v>136</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>156</v>
+        <v>137</v>
       </c>
       <c r="H8" s="7">
-        <v>235</v>
+        <v>401</v>
       </c>
       <c r="I8" s="7">
-        <v>250778</v>
+        <v>437835</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>157</v>
+        <v>138</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>158</v>
+        <v>139</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>159</v>
+        <v>140</v>
       </c>
       <c r="M8" s="7">
-        <v>392</v>
+        <v>712</v>
       </c>
       <c r="N8" s="7">
-        <v>414050</v>
+        <v>774407</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>160</v>
+        <v>141</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>161</v>
+        <v>142</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>162</v>
+        <v>143</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3205,10 +2842,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>543</v>
+        <v>914</v>
       </c>
       <c r="D9" s="7">
-        <v>577849</v>
+        <v>991838</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -3220,10 +2857,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>523</v>
+        <v>900</v>
       </c>
       <c r="I9" s="7">
-        <v>555914</v>
+        <v>988979</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -3235,10 +2872,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1066</v>
+        <v>1814</v>
       </c>
       <c r="N9" s="7">
-        <v>1133762</v>
+        <v>1980816</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -3258,49 +2895,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>603</v>
+        <v>399</v>
       </c>
       <c r="D10" s="7">
-        <v>655266</v>
+        <v>442673</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>163</v>
+        <v>144</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>164</v>
+        <v>145</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>165</v>
+        <v>146</v>
       </c>
       <c r="H10" s="7">
-        <v>499</v>
+        <v>386</v>
       </c>
       <c r="I10" s="7">
-        <v>551144</v>
+        <v>422747</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>166</v>
+        <v>147</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>167</v>
+        <v>148</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>168</v>
+        <v>149</v>
       </c>
       <c r="M10" s="7">
-        <v>1102</v>
+        <v>785</v>
       </c>
       <c r="N10" s="7">
-        <v>1206409</v>
+        <v>865420</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>169</v>
+        <v>150</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>170</v>
+        <v>151</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>171</v>
+        <v>152</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3309,49 +2946,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>311</v>
+        <v>274</v>
       </c>
       <c r="D11" s="7">
-        <v>336572</v>
+        <v>297271</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>172</v>
+        <v>153</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>173</v>
+        <v>154</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>174</v>
+        <v>155</v>
       </c>
       <c r="H11" s="7">
-        <v>401</v>
+        <v>291</v>
       </c>
       <c r="I11" s="7">
-        <v>437835</v>
+        <v>322854</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>175</v>
+        <v>156</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>176</v>
+        <v>157</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>177</v>
+        <v>158</v>
       </c>
       <c r="M11" s="7">
-        <v>712</v>
+        <v>565</v>
       </c>
       <c r="N11" s="7">
-        <v>774407</v>
+        <v>620125</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>178</v>
+        <v>159</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>179</v>
+        <v>160</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>180</v>
+        <v>161</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3360,10 +2997,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>914</v>
+        <v>673</v>
       </c>
       <c r="D12" s="7">
-        <v>991838</v>
+        <v>739944</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -3375,10 +3012,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>900</v>
+        <v>677</v>
       </c>
       <c r="I12" s="7">
-        <v>988979</v>
+        <v>745601</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -3390,10 +3027,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1814</v>
+        <v>1350</v>
       </c>
       <c r="N12" s="7">
-        <v>1980816</v>
+        <v>1485545</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -3413,49 +3050,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>399</v>
+        <v>581</v>
       </c>
       <c r="D13" s="7">
-        <v>442673</v>
+        <v>609975</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>181</v>
+        <v>162</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>182</v>
+        <v>163</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>183</v>
+        <v>164</v>
       </c>
       <c r="H13" s="7">
-        <v>386</v>
+        <v>492</v>
       </c>
       <c r="I13" s="7">
-        <v>422747</v>
+        <v>515204</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>184</v>
+        <v>165</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>185</v>
+        <v>166</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>186</v>
+        <v>167</v>
       </c>
       <c r="M13" s="7">
-        <v>785</v>
+        <v>1073</v>
       </c>
       <c r="N13" s="7">
-        <v>865420</v>
+        <v>1125178</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>187</v>
+        <v>168</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>188</v>
+        <v>169</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>189</v>
+        <v>170</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3464,49 +3101,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>274</v>
+        <v>316</v>
       </c>
       <c r="D14" s="7">
-        <v>297271</v>
+        <v>324970</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>190</v>
+        <v>171</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>191</v>
+        <v>172</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>192</v>
+        <v>173</v>
       </c>
       <c r="H14" s="7">
-        <v>291</v>
+        <v>470</v>
       </c>
       <c r="I14" s="7">
-        <v>322854</v>
+        <v>495595</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>193</v>
+        <v>174</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>194</v>
+        <v>175</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>195</v>
+        <v>176</v>
       </c>
       <c r="M14" s="7">
-        <v>565</v>
+        <v>786</v>
       </c>
       <c r="N14" s="7">
-        <v>620125</v>
+        <v>820565</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>196</v>
+        <v>177</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>197</v>
+        <v>178</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>198</v>
+        <v>179</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3515,10 +3152,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>673</v>
+        <v>897</v>
       </c>
       <c r="D15" s="7">
-        <v>739944</v>
+        <v>934945</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -3530,10 +3167,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>677</v>
+        <v>962</v>
       </c>
       <c r="I15" s="7">
-        <v>745601</v>
+        <v>1010799</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -3545,10 +3182,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1350</v>
+        <v>1859</v>
       </c>
       <c r="N15" s="7">
-        <v>1485545</v>
+        <v>1945743</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -3562,55 +3199,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>581</v>
+        <v>2047</v>
       </c>
       <c r="D16" s="7">
-        <v>609975</v>
+        <v>2197624</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>199</v>
+        <v>180</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>200</v>
+        <v>181</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>201</v>
+        <v>182</v>
       </c>
       <c r="H16" s="7">
-        <v>492</v>
+        <v>1717</v>
       </c>
       <c r="I16" s="7">
-        <v>515204</v>
+        <v>1851209</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>202</v>
+        <v>183</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>203</v>
+        <v>184</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>204</v>
+        <v>185</v>
       </c>
       <c r="M16" s="7">
-        <v>1073</v>
+        <v>3764</v>
       </c>
       <c r="N16" s="7">
-        <v>1125179</v>
+        <v>4048833</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>205</v>
+        <v>115</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>206</v>
+        <v>186</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>207</v>
+        <v>187</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3619,49 +3256,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>316</v>
+        <v>1102</v>
       </c>
       <c r="D17" s="7">
-        <v>324970</v>
+        <v>1162716</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>208</v>
+        <v>188</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>209</v>
+        <v>189</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>210</v>
+        <v>190</v>
       </c>
       <c r="H17" s="7">
-        <v>470</v>
+        <v>1439</v>
       </c>
       <c r="I17" s="7">
-        <v>495595</v>
+        <v>1556333</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>211</v>
+        <v>191</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>212</v>
+        <v>192</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>213</v>
+        <v>193</v>
       </c>
       <c r="M17" s="7">
-        <v>786</v>
+        <v>2541</v>
       </c>
       <c r="N17" s="7">
-        <v>820565</v>
+        <v>2719049</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>214</v>
+        <v>125</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>215</v>
+        <v>194</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>216</v>
+        <v>195</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3670,10 +3307,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>897</v>
+        <v>3149</v>
       </c>
       <c r="D18" s="7">
-        <v>934945</v>
+        <v>3360340</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -3685,10 +3322,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>962</v>
+        <v>3156</v>
       </c>
       <c r="I18" s="7">
-        <v>1010799</v>
+        <v>3407542</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -3700,10 +3337,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>1859</v>
+        <v>6305</v>
       </c>
       <c r="N18" s="7">
-        <v>1945744</v>
+        <v>6767882</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -3716,171 +3353,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>2047</v>
-      </c>
-      <c r="D19" s="7">
-        <v>2197624</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="H19" s="7">
-        <v>1717</v>
-      </c>
-      <c r="I19" s="7">
-        <v>1851209</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="M19" s="7">
-        <v>3764</v>
-      </c>
-      <c r="N19" s="7">
-        <v>4048833</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>1102</v>
-      </c>
-      <c r="D20" s="7">
-        <v>1162716</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="H20" s="7">
-        <v>1439</v>
-      </c>
-      <c r="I20" s="7">
-        <v>1556333</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="M20" s="7">
-        <v>2541</v>
-      </c>
-      <c r="N20" s="7">
-        <v>2719049</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3149</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3360340</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>3156</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3407542</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>6305</v>
-      </c>
-      <c r="N21" s="7">
-        <v>6767882</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>125</v>
+      <c r="A19" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3893,8 +3374,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5A0E909-6A43-479F-AAC6-6F63785C7A81}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE8BCAD4-4CE6-4D51-A991-01BB0BFD6478}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3910,7 +3391,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>235</v>
+        <v>196</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4011,49 +3492,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>61</v>
+        <v>399</v>
       </c>
       <c r="D4" s="7">
-        <v>64007</v>
+        <v>414055</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>236</v>
+        <v>197</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>237</v>
+        <v>198</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>238</v>
+        <v>199</v>
       </c>
       <c r="H4" s="7">
-        <v>61</v>
+        <v>329</v>
       </c>
       <c r="I4" s="7">
-        <v>61944</v>
+        <v>334906</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>239</v>
+        <v>200</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>240</v>
+        <v>201</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>241</v>
+        <v>202</v>
       </c>
       <c r="M4" s="7">
-        <v>122</v>
+        <v>728</v>
       </c>
       <c r="N4" s="7">
-        <v>125951</v>
+        <v>748961</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>242</v>
+        <v>203</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>243</v>
+        <v>204</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>244</v>
+        <v>205</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4062,49 +3543,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>48</v>
+        <v>217</v>
       </c>
       <c r="D5" s="7">
-        <v>48892</v>
+        <v>224296</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>245</v>
+        <v>206</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>246</v>
+        <v>207</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>247</v>
+        <v>208</v>
       </c>
       <c r="H5" s="7">
-        <v>45</v>
+        <v>285</v>
       </c>
       <c r="I5" s="7">
-        <v>41626</v>
+        <v>280917</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>248</v>
+        <v>209</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>249</v>
+        <v>210</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>250</v>
+        <v>211</v>
       </c>
       <c r="M5" s="7">
-        <v>93</v>
+        <v>502</v>
       </c>
       <c r="N5" s="7">
-        <v>90518</v>
+        <v>505213</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>251</v>
+        <v>212</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>252</v>
+        <v>213</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>253</v>
+        <v>214</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4113,10 +3594,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>109</v>
+        <v>616</v>
       </c>
       <c r="D6" s="7">
-        <v>112899</v>
+        <v>638351</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -4128,10 +3609,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>106</v>
+        <v>614</v>
       </c>
       <c r="I6" s="7">
-        <v>103570</v>
+        <v>615823</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -4143,10 +3624,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>215</v>
+        <v>1230</v>
       </c>
       <c r="N6" s="7">
-        <v>216469</v>
+        <v>1254174</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -4166,49 +3647,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>338</v>
+        <v>549</v>
       </c>
       <c r="D7" s="7">
-        <v>350049</v>
+        <v>587910</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>254</v>
+        <v>215</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>255</v>
+        <v>216</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>256</v>
+        <v>217</v>
       </c>
       <c r="H7" s="7">
-        <v>268</v>
+        <v>512</v>
       </c>
       <c r="I7" s="7">
-        <v>272962</v>
+        <v>554193</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>257</v>
+        <v>218</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>258</v>
+        <v>219</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>259</v>
+        <v>220</v>
       </c>
       <c r="M7" s="7">
-        <v>606</v>
+        <v>1061</v>
       </c>
       <c r="N7" s="7">
-        <v>623011</v>
+        <v>1142104</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>260</v>
+        <v>221</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>261</v>
+        <v>222</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>262</v>
+        <v>223</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4217,49 +3698,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>169</v>
+        <v>367</v>
       </c>
       <c r="D8" s="7">
-        <v>175403</v>
+        <v>396343</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>263</v>
+        <v>224</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>264</v>
+        <v>225</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>265</v>
+        <v>226</v>
       </c>
       <c r="H8" s="7">
-        <v>240</v>
+        <v>423</v>
       </c>
       <c r="I8" s="7">
-        <v>239292</v>
+        <v>440022</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>266</v>
+        <v>227</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>267</v>
+        <v>228</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>268</v>
+        <v>229</v>
       </c>
       <c r="M8" s="7">
-        <v>409</v>
+        <v>790</v>
       </c>
       <c r="N8" s="7">
-        <v>414695</v>
+        <v>836364</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>269</v>
+        <v>230</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>270</v>
+        <v>231</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>271</v>
+        <v>232</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4268,10 +3749,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>507</v>
+        <v>916</v>
       </c>
       <c r="D9" s="7">
-        <v>525452</v>
+        <v>984253</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -4283,10 +3764,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>508</v>
+        <v>935</v>
       </c>
       <c r="I9" s="7">
-        <v>512254</v>
+        <v>994215</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -4298,10 +3779,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1015</v>
+        <v>1851</v>
       </c>
       <c r="N9" s="7">
-        <v>1037706</v>
+        <v>1978468</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -4321,49 +3802,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>549</v>
+        <v>408</v>
       </c>
       <c r="D10" s="7">
-        <v>587910</v>
+        <v>442291</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>272</v>
+        <v>88</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>273</v>
+        <v>233</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>274</v>
+        <v>234</v>
       </c>
       <c r="H10" s="7">
-        <v>512</v>
+        <v>326</v>
       </c>
       <c r="I10" s="7">
-        <v>554193</v>
+        <v>354356</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>275</v>
+        <v>235</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>276</v>
+        <v>236</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>277</v>
+        <v>237</v>
       </c>
       <c r="M10" s="7">
-        <v>1061</v>
+        <v>734</v>
       </c>
       <c r="N10" s="7">
-        <v>1142104</v>
+        <v>796647</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>278</v>
+        <v>238</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>279</v>
+        <v>239</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>280</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4372,49 +3853,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>367</v>
+        <v>274</v>
       </c>
       <c r="D11" s="7">
-        <v>396343</v>
+        <v>303264</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>281</v>
+        <v>97</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>282</v>
+        <v>240</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>283</v>
+        <v>241</v>
       </c>
       <c r="H11" s="7">
-        <v>423</v>
+        <v>377</v>
       </c>
       <c r="I11" s="7">
-        <v>440022</v>
+        <v>393143</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>284</v>
+        <v>242</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>285</v>
+        <v>243</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>286</v>
+        <v>244</v>
       </c>
       <c r="M11" s="7">
-        <v>790</v>
+        <v>651</v>
       </c>
       <c r="N11" s="7">
-        <v>836364</v>
+        <v>696407</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>287</v>
+        <v>245</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>288</v>
+        <v>60</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>289</v>
+        <v>246</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4423,10 +3904,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>916</v>
+        <v>682</v>
       </c>
       <c r="D12" s="7">
-        <v>984253</v>
+        <v>745555</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -4438,10 +3919,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>935</v>
+        <v>703</v>
       </c>
       <c r="I12" s="7">
-        <v>994215</v>
+        <v>747499</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -4453,10 +3934,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1851</v>
+        <v>1385</v>
       </c>
       <c r="N12" s="7">
-        <v>1978468</v>
+        <v>1493054</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -4476,49 +3957,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>408</v>
+        <v>541</v>
       </c>
       <c r="D13" s="7">
-        <v>442292</v>
+        <v>543471</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>107</v>
+        <v>247</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>290</v>
+        <v>248</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>291</v>
+        <v>249</v>
       </c>
       <c r="H13" s="7">
-        <v>326</v>
+        <v>457</v>
       </c>
       <c r="I13" s="7">
-        <v>354356</v>
+        <v>503765</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>292</v>
+        <v>250</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>293</v>
+        <v>251</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>294</v>
+        <v>252</v>
       </c>
       <c r="M13" s="7">
-        <v>734</v>
+        <v>998</v>
       </c>
       <c r="N13" s="7">
-        <v>796647</v>
+        <v>1047236</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>295</v>
+        <v>253</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>296</v>
+        <v>254</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>70</v>
+        <v>255</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4527,49 +4008,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>274</v>
+        <v>361</v>
       </c>
       <c r="D14" s="7">
-        <v>303264</v>
+        <v>362286</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>116</v>
+        <v>256</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>297</v>
+        <v>257</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>298</v>
+        <v>258</v>
       </c>
       <c r="H14" s="7">
-        <v>377</v>
+        <v>451</v>
       </c>
       <c r="I14" s="7">
-        <v>393143</v>
+        <v>481026</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>299</v>
+        <v>259</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>300</v>
+        <v>260</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>301</v>
+        <v>261</v>
       </c>
       <c r="M14" s="7">
-        <v>651</v>
+        <v>812</v>
       </c>
       <c r="N14" s="7">
-        <v>696407</v>
+        <v>843312</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>302</v>
+        <v>262</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>79</v>
+        <v>263</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>303</v>
+        <v>264</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4578,10 +4059,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>682</v>
+        <v>902</v>
       </c>
       <c r="D15" s="7">
-        <v>745556</v>
+        <v>905757</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -4593,10 +4074,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>703</v>
+        <v>908</v>
       </c>
       <c r="I15" s="7">
-        <v>747499</v>
+        <v>984791</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -4608,10 +4089,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1385</v>
+        <v>1810</v>
       </c>
       <c r="N15" s="7">
-        <v>1493054</v>
+        <v>1890548</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -4625,55 +4106,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>541</v>
+        <v>1897</v>
       </c>
       <c r="D16" s="7">
-        <v>543471</v>
+        <v>1987728</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>304</v>
+        <v>265</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>305</v>
+        <v>266</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>306</v>
+        <v>267</v>
       </c>
       <c r="H16" s="7">
-        <v>457</v>
+        <v>1624</v>
       </c>
       <c r="I16" s="7">
-        <v>503765</v>
+        <v>1747221</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>307</v>
+        <v>268</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>308</v>
+        <v>269</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>309</v>
+        <v>270</v>
       </c>
       <c r="M16" s="7">
-        <v>998</v>
+        <v>3521</v>
       </c>
       <c r="N16" s="7">
-        <v>1047236</v>
+        <v>3734948</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>310</v>
+        <v>271</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>311</v>
+        <v>272</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>312</v>
+        <v>273</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4682,49 +4163,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>361</v>
+        <v>1219</v>
       </c>
       <c r="D17" s="7">
-        <v>362286</v>
+        <v>1286188</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>313</v>
+        <v>274</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>314</v>
+        <v>275</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>315</v>
+        <v>276</v>
       </c>
       <c r="H17" s="7">
-        <v>451</v>
+        <v>1536</v>
       </c>
       <c r="I17" s="7">
-        <v>481026</v>
+        <v>1595107</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>316</v>
+        <v>277</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>317</v>
+        <v>278</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>318</v>
+        <v>279</v>
       </c>
       <c r="M17" s="7">
-        <v>812</v>
+        <v>2755</v>
       </c>
       <c r="N17" s="7">
-        <v>843312</v>
+        <v>2881296</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>319</v>
+        <v>280</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>320</v>
+        <v>281</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>321</v>
+        <v>282</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4733,10 +4214,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>902</v>
+        <v>3116</v>
       </c>
       <c r="D18" s="7">
-        <v>905757</v>
+        <v>3273916</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -4748,10 +4229,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>908</v>
+        <v>3160</v>
       </c>
       <c r="I18" s="7">
-        <v>984791</v>
+        <v>3342328</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -4763,10 +4244,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>1810</v>
+        <v>6276</v>
       </c>
       <c r="N18" s="7">
-        <v>1890548</v>
+        <v>6616244</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -4779,171 +4260,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>1897</v>
-      </c>
-      <c r="D19" s="7">
-        <v>1987728</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>322</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="H19" s="7">
-        <v>1624</v>
-      </c>
-      <c r="I19" s="7">
-        <v>1747221</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>325</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>326</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>327</v>
-      </c>
-      <c r="M19" s="7">
-        <v>3521</v>
-      </c>
-      <c r="N19" s="7">
-        <v>3734948</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>328</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>329</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>1219</v>
-      </c>
-      <c r="D20" s="7">
-        <v>1286188</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>331</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>332</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>333</v>
-      </c>
-      <c r="H20" s="7">
-        <v>1536</v>
-      </c>
-      <c r="I20" s="7">
-        <v>1595107</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>334</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>335</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>336</v>
-      </c>
-      <c r="M20" s="7">
-        <v>2755</v>
-      </c>
-      <c r="N20" s="7">
-        <v>2881296</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>337</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>338</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3116</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3273916</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>3160</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3342328</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>6276</v>
-      </c>
-      <c r="N21" s="7">
-        <v>6616244</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>125</v>
+      <c r="A19" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4956,8 +4281,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15ADD323-339E-4CC9-B7A6-BBF79A7AB388}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8602E5B1-251F-4C4B-B971-C523E16D6629}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4973,7 +4298,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>340</v>
+        <v>283</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5074,49 +4399,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>74</v>
+        <v>502</v>
       </c>
       <c r="D4" s="7">
-        <v>59243</v>
+        <v>427462</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>341</v>
+        <v>284</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>342</v>
+        <v>285</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>343</v>
+        <v>286</v>
       </c>
       <c r="H4" s="7">
-        <v>141</v>
+        <v>708</v>
       </c>
       <c r="I4" s="7">
-        <v>71379</v>
+        <v>362505</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>344</v>
+        <v>287</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>345</v>
+        <v>288</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>346</v>
+        <v>289</v>
       </c>
       <c r="M4" s="7">
-        <v>215</v>
+        <v>1210</v>
       </c>
       <c r="N4" s="7">
-        <v>130622</v>
+        <v>789967</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>347</v>
+        <v>290</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>309</v>
+        <v>291</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>348</v>
+        <v>292</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5125,49 +4450,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>37</v>
+        <v>206</v>
       </c>
       <c r="D5" s="7">
-        <v>36791</v>
+        <v>193078</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>349</v>
+        <v>293</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>350</v>
+        <v>294</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>351</v>
+        <v>295</v>
       </c>
       <c r="H5" s="7">
-        <v>82</v>
+        <v>464</v>
       </c>
       <c r="I5" s="7">
-        <v>49483</v>
+        <v>282612</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>352</v>
+        <v>296</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>353</v>
+        <v>297</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>354</v>
+        <v>298</v>
       </c>
       <c r="M5" s="7">
-        <v>119</v>
+        <v>670</v>
       </c>
       <c r="N5" s="7">
-        <v>86274</v>
+        <v>475690</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>355</v>
+        <v>299</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>356</v>
+        <v>300</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>317</v>
+        <v>301</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5176,10 +4501,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>111</v>
+        <v>708</v>
       </c>
       <c r="D6" s="7">
-        <v>96034</v>
+        <v>620540</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -5191,10 +4516,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>223</v>
+        <v>1172</v>
       </c>
       <c r="I6" s="7">
-        <v>120862</v>
+        <v>645117</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -5206,10 +4531,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>334</v>
+        <v>1880</v>
       </c>
       <c r="N6" s="7">
-        <v>216896</v>
+        <v>1265657</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -5229,49 +4554,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>428</v>
+        <v>592</v>
       </c>
       <c r="D7" s="7">
-        <v>376790</v>
+        <v>791776</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>357</v>
+        <v>302</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>358</v>
+        <v>303</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>359</v>
+        <v>304</v>
       </c>
       <c r="H7" s="7">
-        <v>567</v>
+        <v>821</v>
       </c>
       <c r="I7" s="7">
-        <v>316301</v>
+        <v>473813</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>360</v>
+        <v>305</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>361</v>
+        <v>306</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>107</v>
+        <v>307</v>
       </c>
       <c r="M7" s="7">
-        <v>995</v>
+        <v>1413</v>
       </c>
       <c r="N7" s="7">
-        <v>693091</v>
+        <v>1265589</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>362</v>
+        <v>308</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>363</v>
+        <v>309</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>364</v>
+        <v>310</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5280,49 +4605,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>169</v>
+        <v>359</v>
       </c>
       <c r="D8" s="7">
-        <v>163172</v>
+        <v>390397</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>365</v>
+        <v>311</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>366</v>
+        <v>312</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>367</v>
+        <v>313</v>
       </c>
       <c r="H8" s="7">
-        <v>382</v>
+        <v>640</v>
       </c>
       <c r="I8" s="7">
-        <v>254032</v>
+        <v>453733</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>368</v>
+        <v>314</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>116</v>
+        <v>315</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>369</v>
+        <v>316</v>
       </c>
       <c r="M8" s="7">
-        <v>551</v>
+        <v>999</v>
       </c>
       <c r="N8" s="7">
-        <v>417204</v>
+        <v>844130</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>370</v>
+        <v>317</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>371</v>
+        <v>318</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>372</v>
+        <v>319</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5331,10 +4656,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>597</v>
+        <v>951</v>
       </c>
       <c r="D9" s="7">
-        <v>539962</v>
+        <v>1182173</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -5346,10 +4671,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>949</v>
+        <v>1461</v>
       </c>
       <c r="I9" s="7">
-        <v>570333</v>
+        <v>927546</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -5361,10 +4686,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1546</v>
+        <v>2412</v>
       </c>
       <c r="N9" s="7">
-        <v>1110295</v>
+        <v>2109719</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -5384,49 +4709,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>592</v>
+        <v>444</v>
       </c>
       <c r="D10" s="7">
-        <v>624052</v>
+        <v>432510</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>373</v>
+        <v>320</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>374</v>
+        <v>321</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>375</v>
+        <v>322</v>
       </c>
       <c r="H10" s="7">
-        <v>821</v>
+        <v>532</v>
       </c>
       <c r="I10" s="7">
-        <v>522074</v>
+        <v>534265</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>376</v>
+        <v>323</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>377</v>
+        <v>324</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>378</v>
+        <v>325</v>
       </c>
       <c r="M10" s="7">
-        <v>1413</v>
+        <v>976</v>
       </c>
       <c r="N10" s="7">
-        <v>1146126</v>
+        <v>966776</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>182</v>
+        <v>326</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>257</v>
+        <v>327</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>379</v>
+        <v>328</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5435,49 +4760,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>359</v>
+        <v>222</v>
       </c>
       <c r="D11" s="7">
-        <v>403453</v>
+        <v>264368</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>380</v>
+        <v>329</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>381</v>
+        <v>330</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>382</v>
+        <v>331</v>
       </c>
       <c r="H11" s="7">
-        <v>640</v>
+        <v>475</v>
       </c>
       <c r="I11" s="7">
-        <v>504315</v>
+        <v>343802</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>383</v>
+        <v>332</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>384</v>
+        <v>333</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>385</v>
+        <v>334</v>
       </c>
       <c r="M11" s="7">
-        <v>999</v>
+        <v>697</v>
       </c>
       <c r="N11" s="7">
-        <v>907768</v>
+        <v>608169</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>192</v>
+        <v>335</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>386</v>
+        <v>336</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>266</v>
+        <v>337</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5486,10 +4811,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>951</v>
+        <v>666</v>
       </c>
       <c r="D12" s="7">
-        <v>1027505</v>
+        <v>696878</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -5501,10 +4826,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>1461</v>
+        <v>1007</v>
       </c>
       <c r="I12" s="7">
-        <v>1026389</v>
+        <v>878067</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -5516,10 +4841,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>2412</v>
+        <v>1673</v>
       </c>
       <c r="N12" s="7">
-        <v>2053894</v>
+        <v>1574945</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -5539,49 +4864,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>444</v>
+        <v>635</v>
       </c>
       <c r="D13" s="7">
-        <v>451801</v>
+        <v>556334</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>387</v>
+        <v>338</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>388</v>
+        <v>273</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>389</v>
+        <v>339</v>
       </c>
       <c r="H13" s="7">
-        <v>532</v>
+        <v>809</v>
       </c>
       <c r="I13" s="7">
-        <v>468734</v>
+        <v>558436</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>390</v>
+        <v>94</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>391</v>
+        <v>340</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>392</v>
+        <v>341</v>
       </c>
       <c r="M13" s="7">
-        <v>976</v>
+        <v>1444</v>
       </c>
       <c r="N13" s="7">
-        <v>920535</v>
+        <v>1114771</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>393</v>
+        <v>342</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>394</v>
+        <v>343</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>395</v>
+        <v>344</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5590,49 +4915,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>222</v>
+        <v>336</v>
       </c>
       <c r="D14" s="7">
-        <v>268674</v>
+        <v>342313</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>396</v>
+        <v>345</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>397</v>
+        <v>346</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>398</v>
+        <v>281</v>
       </c>
       <c r="H14" s="7">
-        <v>475</v>
+        <v>680</v>
       </c>
       <c r="I14" s="7">
-        <v>371204</v>
+        <v>491012</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>399</v>
+        <v>103</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>400</v>
+        <v>347</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>401</v>
+        <v>348</v>
       </c>
       <c r="M14" s="7">
-        <v>697</v>
+        <v>1016</v>
       </c>
       <c r="N14" s="7">
-        <v>639877</v>
+        <v>833325</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>402</v>
+        <v>349</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>403</v>
+        <v>350</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>404</v>
+        <v>351</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5641,10 +4966,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>666</v>
+        <v>971</v>
       </c>
       <c r="D15" s="7">
-        <v>720475</v>
+        <v>898647</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -5656,10 +4981,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>1007</v>
+        <v>1489</v>
       </c>
       <c r="I15" s="7">
-        <v>839938</v>
+        <v>1049448</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -5671,10 +4996,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1673</v>
+        <v>2460</v>
       </c>
       <c r="N15" s="7">
-        <v>1560412</v>
+        <v>1948096</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -5688,55 +5013,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>635</v>
+        <v>2173</v>
       </c>
       <c r="D16" s="7">
-        <v>581029</v>
+        <v>2208083</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>405</v>
+        <v>352</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>406</v>
+        <v>353</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>407</v>
+        <v>354</v>
       </c>
       <c r="H16" s="7">
-        <v>809</v>
+        <v>2870</v>
       </c>
       <c r="I16" s="7">
-        <v>558641</v>
+        <v>1929019</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>408</v>
+        <v>355</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>409</v>
+        <v>356</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>410</v>
+        <v>357</v>
       </c>
       <c r="M16" s="7">
-        <v>1444</v>
+        <v>5043</v>
       </c>
       <c r="N16" s="7">
-        <v>1139670</v>
+        <v>4137102</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>411</v>
+        <v>358</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>412</v>
+        <v>359</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>413</v>
+        <v>360</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5745,49 +5070,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>336</v>
+        <v>1123</v>
       </c>
       <c r="D17" s="7">
-        <v>354298</v>
+        <v>1190155</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>414</v>
+        <v>361</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>415</v>
+        <v>362</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>416</v>
+        <v>363</v>
       </c>
       <c r="H17" s="7">
-        <v>680</v>
+        <v>2259</v>
       </c>
       <c r="I17" s="7">
-        <v>540382</v>
+        <v>1571159</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>417</v>
+        <v>364</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>418</v>
+        <v>365</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>419</v>
+        <v>366</v>
       </c>
       <c r="M17" s="7">
-        <v>1016</v>
+        <v>3382</v>
       </c>
       <c r="N17" s="7">
-        <v>894680</v>
+        <v>2761314</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>420</v>
+        <v>367</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>421</v>
+        <v>368</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>422</v>
+        <v>369</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5796,10 +5121,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>971</v>
+        <v>3296</v>
       </c>
       <c r="D18" s="7">
-        <v>935327</v>
+        <v>3398238</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -5811,10 +5136,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>1489</v>
+        <v>5129</v>
       </c>
       <c r="I18" s="7">
-        <v>1099023</v>
+        <v>3500178</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -5826,10 +5151,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>2460</v>
+        <v>8425</v>
       </c>
       <c r="N18" s="7">
-        <v>2034350</v>
+        <v>6898416</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -5842,171 +5167,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>2173</v>
-      </c>
-      <c r="D19" s="7">
-        <v>2092914</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>423</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>424</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="H19" s="7">
-        <v>2870</v>
-      </c>
-      <c r="I19" s="7">
-        <v>1937128</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>425</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>426</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>427</v>
-      </c>
-      <c r="M19" s="7">
-        <v>5043</v>
-      </c>
-      <c r="N19" s="7">
-        <v>4030042</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>428</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>429</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>1123</v>
-      </c>
-      <c r="D20" s="7">
-        <v>1226388</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>431</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>432</v>
-      </c>
-      <c r="H20" s="7">
-        <v>2259</v>
-      </c>
-      <c r="I20" s="7">
-        <v>1719416</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>433</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>434</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>435</v>
-      </c>
-      <c r="M20" s="7">
-        <v>3382</v>
-      </c>
-      <c r="N20" s="7">
-        <v>2945804</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>436</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>437</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3296</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3319302</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>5129</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3656544</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>8425</v>
-      </c>
-      <c r="N21" s="7">
-        <v>6975846</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>125</v>
+      <c r="A19" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
